--- a/server/IndiaToday.xlsx
+++ b/server/IndiaToday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Heading</t>
   </si>
@@ -28,244 +28,289 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Women's Reservation Bill cleared in key Cabinet meet chaired by PM Modi: Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A proposed legislation to ensure 33 per cent reservation for women in the Lok Sabha and state Assemblies was cleared by the Union Cabinet, sources told India Today TV on Monday. The government is yet to make an official statement on this but it is believed that the women’s reservation bill will be brought in for discussion during the ongoing special session of Parliament.The meeting was called at 6:30 pm, after the first sitting of the special Parliament session. The bill guarantees a 33 per cent quota for women in Lok Sabha and state assemblies. Across political lines, several leaders demanded the introduction of this key bill. Speculation around the much-debated women's reservation bill did rounds, ever since the special Parliament session was announced. Meanwhile, Congress claimed that the bill was a long-standing demand of the party. While Congress leader Jairam Ramesh welcomed the Union Cabinet's decision, he also tweeted, "This could have very well been discussed in the all-party meeting before the Special Session, and consensus could have been built instead of operating under a veil of secrecy."The cabinet meeting was chaired by PM Modi and was attended by Union ministers Rajnath Singh, Amit Shah, Piyush Goyal, Pralhad Joshi, S Jaishankar, Nirmala Sitharaman, Dharmendra Pradhan, Nitin Gadkari and Arjun Ram Meghwal, among others.Edited By: Poorva JoshiPublished On: Sep 18, 2023Must Watch 
+    <t>Asian Games 2023, hockey: India men's team wins Gold, secures Paris Olympics quota after hammering Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India are once again the Asian champions in men's hockey. After winning the bronze in the Tokyo Olympics, India have made sure the trajectory has only gone upwards with a sensational show at the Asian Games in Hangzhou. Harmanpreet SIngh's men hammered 2018 champions Japan 5-1 in the men's hockey final on Friday, October 6 to win the Gold medal. More importantly, India also booked a place at next year's Paris Olympics, avoiding the longer route to the Games. Only the gold medal winners in men's and women's hockey at the Asian Games are assured of the Olympic berth and the Indian side made sure that they got the job done with a dominant show, something that new coach Craig Fulton will be proud of. India vs Japan, Men's Hockey Final HighlightsIt was also India's 4th Gold medal at the Asian Games in men's hockey for India after 1966, 1998, and 2014. India finished with a bronze in the Jakarta Asian Games 4 years ago. India have become the joint second-most successful men's team in hockey in the Asian Games as they have tied South Korea's tally of 4 Gold medals. Pakistan are the most successful men's team in the Asian Games with 9 Gold medals. DISCIPLINED SHOW VS JAPANIndia headed into the final against Japan, the defending champions, with a lot of confidence as they had beaten them in the group stage. India survived a stiff test against Korea 5-3 in the semi-final and the confidence was evident with the composure that was on display.Japan were focused on parking the bus and not allowing India to take the early lead. They were successful with the tactic as it remained 0-0 at the end of the first quarter. Surjeet tapped one into the goal in the 15th minute but the referee did not give an advantage for a foul inside the D and gave India a penalty corner, which they were not able to convert. Japan continued to be defensively disciplined in the second quarter as well. However, Manpreet Singh made sure that India took the lead via a field goal and headed into the half-time with a 1-0 lead. Manpreet's reverse strike flew into the goal, giving India the much-needed cushion to test the Japanese more. As expected, when Japan were pushed to make things happen in the 3rd quarter, they became more vulnerable. India had 3 penalty corners on the trot in the 3rd quarter and Manpreet Singh's thunder strike came in the 3rd attempt, giving India a 2-0 lead. Amit Rohidas soon struck from a penalty corner to give India a 3-0 lead and it looked like Japan were done and dusted by the end of the 3rd quarter. India took a 4-0 lead at the start of the fourth quarter with a goal from Abhishek. However, Japan were rewarded for being persistent as midfielder Seren Tanaka pulled one back for the holders. However, Harmanpreet, the skipper, doubled his tally with another sensational penalty corner goal to make it 5-1 for India in the end of the final quarter. DOMINANT SHOW IN HANGZHOUIndia were a force to reckon with at the Asian Games 2023, showcasing an impressive performance that has led them to the final match. The team, under the leadership of Captain Harmanpreet Singh, has demonstrated exceptional form throughout the tournament, maintaining a perfect record in the pool stages and emerging victorious in the semi-finals.In the semi-finals, India faced off against the Republic of Korea, a match that had fans on the edge of their seats. Despite the pressure, the Indian team remained steadfast, securing a 5-3 victory over their opponents. This win was a testament to the team's consistency and determination, qualities that have been evident throughout their journey in the tournament.India's performance in the pool stages was nothing short of spectacular. They started their campaign with a resounding 16-0 victory over Uzbekistan, followed by a 16-1 win against Singapore. Their prowess continued to shine as they defeated Japan 4-2, further solidifying their position at the top of Pool A. These victories were not just wins, but a display of the team's skill, strategy, and strength.The team's success can be attributed to the stellar performances of its players, particularly its top scorers. Forward Mandeep Singh, with his 12 goals, has been India's top scorer at the Asian Games 2023. He is closely followed by Harmanpreet Singh, who has made 11 strikes. Their contributions have been instrumental in leading the team to the finals.Another notable performance came from Harmanpreet Singh and Mandeep Singh during the match against Bangladesh. Both players scored hat-tricks, leading India to a 12-0 victory and securing their position as Pool A toppers. Their performance was a clear demonstration of their skill and the significant role they play in the team.As India prepares to battle it out with Japan for the gold medal, the team carries with it the hopes and expectations of a nation. Their journey so far in the Asian Games 2023 has been marked by determination, skill, and teamwork. Regardless of the outcome of the final match, the Indian men's hockey team has already made its mark, showcasing the strength of Indian hockey on an international platform.Edited By: Akshay RameshPublished On: Oct 6, 2023
+</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/sports/asian-games-2023/story/hockey-men-final-india-beat-japan-win-gold-paris-olympics-quota-2445523-2023-10-06</t>
+  </si>
+  <si>
+    <t>Canada evacuates many diplomats from India amid 'deadline' from New Delhi: Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Canadian government has reportedly evacuated a majority of its diplomats in India after India reportedly asked the country to reduce reits diplomatic staff.According to a report by Canada's CTV News, diplomats who were stationed outside New Delhi have been relocated to either Kuala Lumpur or Singapore amid the diplomatic dispute surrounding the killing of Khalistani terrorist Hardeep Singh Nijjar.Earlier this week, India asked Canada to withdraw approximately 40 diplomats by October 10, a London-based newspaper, Financial Times, reported. It stated that the Indian government has also threatened to strip the diplomatic immunity of any Canadian diplomats who remain in the country after the deadline.On Thursday, Ministry of External Affairs spokesperson, Arindam Bagchi, stated that India has asked Canada to reduce diplomatic staff to "bring parity"."Given the much higher diplomatic presence in India and their continuing interference in our internal affairs, we had sought parity in our respective diplomatic presence," Bagchi said.The exact number of diplomats relocated from India now remains unclear. "Earlier reports pegged the number of diplomats that would have to leave at 41, but the sources CTV News spoke with said the ask is specific to one of parity. A majority of the Canadian diplomats working in India outside of Delhi have been evacuated to either Kuala Lumpur or Singapore," the report by a private broadcaster in Canada said. However, neither Indian officials nor their Canadian counterparts have officially responded to the development so far.Diplomatic relations between India and Canada deteriorated recently after Trudeau, On September 19, alleged a "potential" involvement of Indian agents" in the killing of Khalistani terrorist Hardeep Singh Nijjar. Nijjar was a Canadian citizen and was shot dead by two masked gunmen on June 18 in British Columbia.However, dismissing the allegations, India responded strongly and called the charges "absurd' and "motivated." In a tit-for-tat response to Canada's expulsion of an Indian official, New Delhi had also expelled a senior Canadian diplomat.Edited By: Shreyasi JhaPublished On: Oct 6, 2023Must Watch 
 </t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-in-key-cabinet-meet-chaired-by-pm-modi-2437410-2023-09-18</t>
-  </si>
-  <si>
-    <t>'Have to eliminate Sanatana': Udhayanidhi on Tamil Nadu Governor's caste remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamil Nadu Youth Affairs and Sports Minister Udhayanidhi Stalin on Monday responded to Tamil Nadu Governor RN Ravi's remark on social and caste-based discrimination in the state. He said there is a need to "eliminate Sanatana" Dharma and that by birth all are equal. At an event in Thanjavur on Sunday, RN Ravi said that social discrimination is still a problem in Tamil Nadu. When asked about it, Udhayanidhi said, "We are also saying what he (the Governor) is saying. That's why we are saying we have to eliminate Sanatana. We are also speaking about caste discrimination and we are saying by birth all are equal.""Wherever there is caste discrimination, it is wrong. We are raising our voice against that," news agency ANI quoted him as saying. On Sunday, the Tamil Nadu Governor said that there exists social discrimination in society which is unacceptable. "We have untouchability, social discrimination. A large section of brothers and sisters are not treated equally. It is painful, it is unacceptable. It is not what the Hindu Dharma says. Hindu Dharma talks about equality," news agency PTI quoted him as saying.Claiming that social discrimination still persists in Tamil Nadu, he said, "Every day I read in the newspaper, I get the report, I hear the story of our brothers and sisters from scheduled caste are not being allowed access to the temples. This is strange and I am surprised and shocked. Nowhere in India, no where in Bharat our young people have caste bands (on their wrists)."Reacting to Ravi's remarks, DMK spokesperson Saravanan Annadurai alleged the governor was "indulging in false propaganda.""He is not able to stomach the growth the Dravidian model of governance has achieved. He is against Dravidian ideology, propagates Sanatan ideology. Wherever he goes, he speaks about the virtues of Sanatana Dharma, but Sanatana Dharma is responsible for this caste system.""If we have division in society, it is because of Sanatana Dharma," he said.As Udhayanidhi called for the elimination of Sanatana on Monday, he reiterated his earlier stance on the subject that had sparked a controversy. On September 2, Udhayanidhi asserted that the Sanatana Dharma is like dengue and malaria and needs to be eradicated. However, he later clarified that he did not call for genocide of those following Sanatana Dharma, as is being alleged by the BJP.Edited By: Poorva JoshiPublished On: Sep 18, 2023ALSO READ |  DMK MP TR Baalu advises Udhayanidhi to be cautious, says 'Entire country...'ALSO READ |  'Dare to speak on other religions?' Union Finance Minister to Udhayanidhi StalinMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/udhayanidhi-stalin-sanatana-dharma-remark-tamil-nadu-governor-2437418-2023-09-18</t>
-  </si>
-  <si>
-    <t>Congress leader shot dead in Punjab, Khalistani terrorist takes responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A local Congress leader was shot dead at his residence in Punjab’s Moga district on Monday. According to police, some unknown assailants barged into the house of the local leader, identified as Baljinder Singh Balli, and opened fire.The incident was captured on CCTV installed outside Balli's residence in Dala village. Balli was the Congress block president in Ajitwal.Hours later, a Canada-based Khalistani terrorist, Arsh Dalla, took responsibility for the murder in a detailed Facebook post. In his post, Dalla alleged that Baljinder Singh Balli had ruined his future and forced him into the gangster culture. He also mentioned that the Congress leader was behind his mother's police custody, which motivated him to seek revenge.Arsh Dalla is a listed terrorist and wanted by the National Investigative Agency (NIA). He has been operating from Canada for the last three to four years and has been involved in many terrorist killings in Punjab.Baljinder Singh Balli, who was getting his haircut done at his house, got a call from an unknown person who allegedly requested him to sign some documents. Assuming it to be a routine matter, Balli left his house to meet the caller. This is when two bike-borne assailants fired upon Balli before fleeing the scene. The CCTV shows assailants fleeing the scene immediately after the attack, leaving Singh critically injured. He was then rushed to a nearby hospital where he succumbed to his injuries during treatment.Local authorities were alerted to the incident, and the police have launched an investigation.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  Jharkhand man shot dead by friend over suspicion of stealing his mobileALSO READ |  Man wanted for murder, extortion shot dead by police during arrest attempt
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/congress-leader-shot-dead-in-punjab-baljinder-singh-balli-khalistani-terrorist-arsh-dalla-2437449-2023-09-18</t>
-  </si>
-  <si>
-    <t>IND vs AUS: KL Rahul to captain side in first two ODIs, R Ashwin to play entire series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India has released two sets of squads for the series against Australia with KL Rahul leading the team in the first two ODIs. R Ashwin makes a return to the ODI side for the first time since 2022 and will be a part of the squad for the entirety of the series.India will be using their World Cup squad for the final ODI, with Rohit Sharma returning to the side as captain. Washington Sundar, who was picked for the Asia Cup final against Sri Lanka following Axar Patel’s injury, will be in the squad for the first two matches. Ravindra Jadeja will be the deputy for Rahul in the first two matches, as the likes of Virat Kohli, Hardik Pandya have been rested. Ishan Kishan has been in tremendous form and he will be looking to carry his form into the series against the Aussies, who recently lost their ODI series 2-3 to South Africa. Kishan has flourished of late, in the middle-order and will be playing all three matches against Australia. Kuldeep Yadav, who was the Player Of The Series during the Asia Cup 2023, has been rested for the first two games. 
-Squad for the 1st two ODIs:
-KL Rahul (C &amp; WK), Ravindra Jadeja (Vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Varma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. Siraj, Prasidhâ€æ
-— BCCI (@BCCI) September 18, 2023
-India will be high on confidence after beating Sri Lanka in the Asia Cup final by 10 wickets. Mohammed Siraj became the Player of the Match after he ripped through the opposition with a six-wicket haul. On the back of his spell, India bowled the hosts out for 50 after which the chased down the target with 273 balls to spare.Squad for the 1st two ODIs:
-KL Rahul (C &amp; WK), Ravindra Jadeja (Vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Varma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. Siraj, Prasidhâ€æ
-— BCCI (@BCCI) September 18, 2023India will be high on confidence after beating Sri Lanka in the Asia Cup final by 10 wickets. Mohammed Siraj became the Player of the Match after he ripped through the opposition with a six-wicket haul. On the back of his spell, India bowled the hosts out for 50 after which the chased down the target with 273 balls to spare.The three ODIs between India and Australia will take place on September 22, 24 and 27 in Mohali, Indore and Rajkot respectively.India Squad for first two ODIs:KL Rahul (C &amp; WK), Ravindra Jadeja (Vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Varma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. Siraj, Prasidh KrishnaSquad for the 3rd &amp; final ODI:Rohit Sharma (C), Hardik Pandya, (Vice-captain), Shubman Gill, Virat Kohli, Shreyas Iyer, Suryakumar Yadav, KL Rahul (wicketkeeper), Ishan Kishan (wicketkeeper), Ravindra Jadeja, Shardul Thakur, Axar Patel*, Washington Sundar, Kuldeep Yadav, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. SirajEdited By: alan johnPublished On: Sep 18, 2023Trending Reel 
-</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/sports/cricket/story/kl-rahul-to-lead-india-squad-for-first-two-odis-against-australia-r-ashwin-gets-nod-2437395-2023-09-18</t>
-  </si>
-  <si>
-    <t>It would be suffocating, to hell with them: Owaisi on joining INDIA bloc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All India Majlis-e-Ittehadul Muslimeen (AIMIM) chief and Hyderabad MP Asaduddin Owaisi on Monday once again lashed out at the Opposition-led INDIA bloc and said that it would have been suffocating had he joined the alliance.Speaking at a public gathering in Delhi, Owaisi said that he is not a part of the alliance and bluntly remarked "to hell with it".On not being invited to join the INDIA alliance, he said that he does not care about it."We are not in the INDIA alliance and I don't care about it... It would be suffocating there. Why are they not standing up against the BJP on their ideology... They told that if they give us a ticket, they won't get a Hindu vote," Owaisi said."I am saying this openly, they say this behind closed walls," the Hyderabad MP alleged.Further in his speech, Owaisi also trained guns on former Congress president Rahul Gandhi and said that it was the Muslim League that saved him from drowning in Wayanad, after he lost his Amethi seat in the 2018 Lok Sabha elections. "Rahul Gandhi lost in Amethi but won in Wayanad. Asaduddin Owaisi did not contest elections there. I did not have any deal with the BJP there. He won from Wayanad because there is the Muslim League there. Muslim League saved him from drowning," Owaisi said. 
-Owaisi's barb at Rahul Gandhi came a day after the latter said that while opposition leaders were being attacked by government agencies, there were no cases against AIMIM leaders because Prime Minister Narendra Modi considers them his own.Addressing a rally in Tukkuguda near here ahead of the Telangana Assembly polls, Rahul Gandhi said that Congress is not just fighting the Bharat Rashtra Samithi (BRS), but the BJP and AIMIM."There is no case against KCR (K Chandrashekar Rao). There is no case against AIMIM. Only the opposition is attacked. Modi ji never attacks his own people. He regards your CM and AIMIM leaders as his own, and therefore, there is no case against them," Rahul Gandhi had said.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  Time to drive away children of Godse, Savarkar: Asaduddin OwaisiALSO READ |  There's scope for Third Front, hope KCR will take lead: Asaduddin Owaisi
-Owaisi's barb at Rahul Gandhi came a day after the latter said that while opposition leaders were being attacked by government agencies, there were no cases against AIMIM leaders because Prime Minister Narendra Modi considers them his own.Addressing a rally in Tukkuguda near here ahead of the Telangana Assembly polls, Rahul Gandhi said that Congress is not just fighting the Bharat Rashtra Samithi (BRS), but the BJP and AIMIM."There is no case against KCR (K Chandrashekar Rao). There is no case against AIMIM. Only the opposition is attacked. Modi ji never attacks his own people. He regards your CM and AIMIM leaders as his own, and therefore, there is no case against them," Rahul Gandhi had said.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  Time to drive away children of Godse, Savarkar: Asaduddin OwaisiALSO READ |  There's scope for Third Front, hope KCR will take lead: Asaduddin Owaisi
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/asaduddin-owaisi-on-joining-india-bloc-rahul-gandhi-congress-aimim-2437434-2023-09-18</t>
-  </si>
-  <si>
-    <t>No alliance with BJP, matter will be decided during elections: AIADMK leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strains between the AIADMK and BJP seemed to have reached a flashpoint on Monday when a senior leader of the Dravidian party said there was no alliance with the latter and that any decision on a tie-up would be decided only during the election.
-Lashing out at Tamil Nadu BJP chief K Annamalai for his criticism of Dravidian stalwart CN Annadurai, senior AIADMK leader D Jayakumar said that party workers wouldn't tolerate any insult directed at the late chief minister.
-He further said that Annamalai had made critical remarks about AIADMK leaders including the late J Jayalalithaa, the party had sought that the BJP leader be restrained.
-"Annamalai doesn't desire alliance with AIADMK although BJP workers want it. Should we tolerate all this criticism of our leaders. Why should we carry you? BJP can't set foot here. Your vote bank is known. You are known because of us," the former minister told reporters here while lashing out at the BJP and its state unit president.
-"We can't tolerate anymore (the criticism of leaders). As far as alliance is concerned, it is not there. BJP is not with AIADMK. (the matter) can be decided only during election. This is our stand," he said.
-Asked if this was his personal opinion, Jayakumar said, "Have I ever spoken to you in that capacity? I only talk what the party decides."Edited By: Poorva JoshiPublished On: Sep 18, 2023ALSO READ |  MK Stalin launches Rs 1,000 monthly assistance scheme for womenALSO READ |  Disproportionate assets case against former AIADMK leader SathyanarayananMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/no-alliance-with-bjp-matter-will-be-decided-during-elections-aiadmk-leader-tamil-nadu-2437235-2023-09-18</t>
-  </si>
-  <si>
-    <t>Sena vs Sena: Supreme Court's 1-week deadline for Maharashtra Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Supreme Court on Monday asked the Speaker of the Maharashtra Assembly to set a timeline for the hearing of the disqualification petitions against 56 MLAs including Chief Minister Eknath Shinde within a week. Chief Justice of India DY Chandrachud gave stern directions to the Speaker, Rahul Narwekar, and said the top court had been asking him to decide on the matter for four months. The disqualification petitions were filed by both factions of the Shiv Sena -- the Eknath Shinde faction and the Uddhav Thackeray camp -- against each other. The bench observed that there were a total of 34 petitions filed by both sides against each other seeking the disqualification of 56 MLAs.The Shiv Sena broke into two after Eknath Shinde, along with several other MLAs, staged a coup in June 2022 against the Maha Vikas Aghadi government led by Uddhav Thackeray. Thackeray resigned as Maharashtra CM and Shinde took his spot, with BJP's Devendra Fadnavis as his deputy. WHAT SUPREME COURT SAIDOn Monday, the Supreme Court bench comprising CJI DY Chandrachud, Justice JB Pardiwala, and Justice Manoj Misra was hearing a plea filed by Shiv Sena (UBT) MLA Sunil Prabhu seeking to expedite the Speaker's decision on the disqualification pleas from both sides. The court said the Speaker was asked on May 11 to decide the matter of the disqualification pleas "within a reasonable period” and since then, he had not done much apart from issuing notices to the MLAs in July. “We expect deference and dignity to the directions issued by the Supreme Court,” the bench said. It further said the Speaker is a “tribunal under the tenth schedule of the Constitution” (anti-defection law), and as a tribunal, he is amenable to the court's jurisdiction.  Sunil Prabhu's petition had alleged that Speaker Rahul Narwekar was deliberately delaying the adjudication despite the verdict of the Supreme Court in May. While handing over the case of disqualification to the Speaker in May, the Supreme Court refused to use the special powers under Articles 226 and 32 as requested by the Uddhav Thackeray camp and said that “there are no extraordinary circumstances in the instant case that warrant the exercise of jurisdiction by the court to adjudicate the disqualification petition”.Edited By: chingkheinganbi mayengbamPublished On: Sep 18, 2023Must Watch 
+    <t>https://www.indiatoday.in/india/story/canada-evacuates-many-diplomats-from-india-amid-deadline-from-new-delhi-news-agency-pti-quoting-report-2445427-2023-10-06</t>
+  </si>
+  <si>
+    <t>No high court can deny access to virtual hearings, says CJI DY Chandrachud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Supreme Court bench led by Chief Justice of India DY Chandrachud on Friday directed all high courts to ensure that they do not deny access to video conference facilities or hearings through hybrid facilities to any member of the bar.The direction was issued while the bench was hearing a plea that claimed that the Punjab and Haryana High Court had completely stopped using video conferencing for hearings. In the last hearing, the Supreme Court had issued notices to all high courts and tribunals over the issue.The court also said high courts should ensure that internet facilities, including Wifi, are made available free of charge to all advocates and litigants appearing before them. Further, the links available through video conferencing must be made available in the cause list of the concerned court and there should be no requirement to make a separate application for virtual hearings, said the court. The top court also expressed concern over some high courts doing away with virtual hearings and said the central government had sanctioned Rs 7,000 crore to ensure that video conferencing facilities are made available.The Supreme Court bench then directed the Union IT ministry to ensure that internet connectivity is provided to all courts in the North East region so virtual hearings can take place. The CJI said it is no longer an option for a judge to decide to be tech-friendly or not. He added that technology is as important as law books."If you want to be a judge, you have to be tech-friendly. If you want to be a judge in this country, you must know technology and every judge needs to be trained. Even the Supreme Court judges have been trained in training centres," he added. The Chief Justice pulled up certain high courts for not adopting technological changes. "Allahabad (High Court) is a complete offender" said the CJI. He also reprimanded the Bombay High Court for stopping virtual hearings. He observed that it was his parent high court and said travelling in a city like Mumbai is difficult. Edited By: chingkheinganbi mayengbamPublished On: Oct 6, 2023
 </t>
   </si>
   <si>
     <t>law</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/law/story/supreme-court-maharashtra-assembly-speaker-set-deadline-shiv-sena-eknath-shinde-mlas-disqualification-2437286-2023-09-18</t>
-  </si>
-  <si>
-    <t>Women's reservation bill cleared by Cabinet? All you need to know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The proposed women's reservation bill was cleared in a key meeting of the Union Cabinet chaired by Prime Minister Narendra Modi, sources told India Today TV on Monday. The proposed bill, which has been pending for nearly 27 years, seeks to reserve one-third of all seats for women in the Lok Sabha and state legislative assemblies.WOMEN'S RESERVATION BILLThe proposed legislation seeks 33 per cent reservation for women in the Lok Sabha and state Assemblies. While the government is yet to confirm the news and give out details of the proposed legislation, here's what the structure of the bill was when it was last introduced in Parliament in 2008.The Constitution (One Hundred and Eighth Amendment) Bill, 2008 sought to reserve one-third of all seats for women in the Lok Sabha and the state legislative assemblies. The reserved seats for women parliamentarians may be allotted by rotation to different constituencies in a state or Union territory.The system of reserving seats for women would cease to exist 15 years after it is put into place, the bill stated.One-third of the total number of seats reserved for Scheduled Castes and Scheduled Tribes shall be reserved for women of those groups in Lok Sabha and the state assemblies. HISTORY OF WOMEN'S RESERVATION BILLThe bill was first introduced in Lok Sabha as the 81st Amendment Bill in September 1996 by then Prime Minister Deve Gowda-led United Front government. The bill failed to get the approval of the House and was referred to a joint parliamentary committee which submitted its report to Lok Sabha in December 1996. However, the bill lapsed with the dissolution of the Lok Sabha.In 1998, then Prime Minister Atal Bihari Vajpayee-led National Democratic Alliance (NDA) government reintroduced the bill in the 12th Lok Sabha. After then Law Minister M Thambidurai introduced it, a Rashtriya Janata Dal (RJD) MP went to the well of the House, grabbed the bill, and tore it to bits. The bill failed to get support and lapsed again.It was reintroduced in 1999, 2002, and 2003. Even though there was support for it within the Congress, the BJP, and the Left parties, the bill failed to receive majority votes.In 2008, then Prime Minister Manmohan Singh-led United Progressive Alliance (UPA) government tabled the bill in the Rajya Sabha. It was passed with 186-1 votes on March 9, 2010. However, the bill was never taken up for consideration in the Lok Sabha and lapsed with the dissolution of the 15th Lok Sabha.At the time, the RJD, the Janata Dal (United), and the Samajwadi Party (SP) were its most vocal opponents. They demanded a 33 per cent reservation for backward groups within the 33 per cent quota for women.CURRENT STATUSThe last concrete development on the issue was in 2010 when Rajya Sabha passed the bill amid a ruckus with marshals escorting out some MPs who opposed the move. However, the bill lapsed as it could not be passed by Lok Sabha.On Monday, the first day of Parliament's special session, Prime Minister Narendra Modi held a cabinet meeting where the bill was cleared, according to sources. Several political parties have been demanding that the bill be cleared, including the Congress, Bharat Rashtra Samithi and Biju Janata Dal. The government will need two-thirds support in each House of Parliament for the bill to be taken up for consideration and passing.ARGUMENTS FOR THE BILLOne of the key arguments in favour of the bill is that affirmative action is needed to better the condition of women in Indian society. As per stats revealed by the central government, women make up 14.94 per cent of the seats in Lok Sabha while the number falls to 14.05 per cent in Rajya Sabha. The percentage is even lower and often falls to single digits in the state assemblies. Another key argument is that women's representation is needed in the decision-making process to address issues such as the high percentage of crimes against women, low participation of women in the workforce, low nutrition levels, and a skewed sex ratio.ARGUMENTS AGAINST THE BILLOne of the key arguments against the bill is that women are not a homogeneous community, such as a caste group. Another argument states that reserving seats for women would violate the Constitution's guarantee of equality. Those who make this argument state that if a reservation is put into place, women would not compete on merit.Many also argue that it is not possible to reserve seats in Rajya Sabha due to the existing system of elections to the upper house. The Rajya Sabha MPs are elected through a single transferable vote, which means that the votes are first allocated to the most preferred candidate, and then to the next preferred candidate, and so on.This system cannot accommodate the principle of reserving a certain number of seats for a particular group -- even for SCs and STs.Edited By: chingkheinganbi mayengbamPublished On: Sep 18, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-history-status-arguments-2437423-2023-09-18</t>
-  </si>
-  <si>
-    <t>Welcome Union Cabinet's decision but...: Congress on women's reservation bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Congress on Monday welcomed the reports of the Union Cabinet clearing the women's reservation bill to be introduced in the Lok Sabha. However, the party maintained that they would await the details of the proposed bill.Taking to X (formerly Twitter), Congress leader Jairam Ramesh said, "It’s been a long-standing demand of the Congress party to implement women’s reservation. We welcome the reported decision of the Union Cabinet and await the details of the Bill."The Congress leader further said this could have very well been discussed in the all-party meeting before the Parliament's special session, and consensus could have been built instead of operating under a veil of secrecy.He also shared a detailed post he made on Sunday to underline how the Congress has been supporting the move.Emphasising the ongoing speculation regarding the clearance of the bill, Bharat Rashtra Samithi (BRS) leader K Kavitha said, "Every TV channel is saying women's reservation is approved, however, it hasn't been officially announced by the Cabinet yet.""There could be a slip between the lip and the cup," said the BRS leader, adding, "My only worry is that the government should work towards bringing about consensus."The bill guarantees a 33 per cent reservation for women in Lok Sabha and state assemblies. Across political lines, several leaders demanded the introduction of this key bill.However, an official announcement regarding the bill is awaited as the government skipped its customary press briefing post the Cabinet meeting.Edited By: Rishabh SharmaPublished On: Sep 18, 2023READ |  Congress seeks passage of Women's Reservation Bill in Parliament special sessionREAD |  Women's Reservation Bill cleared in key Cabinet meet chaired by PM Modi: Sources
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/congress-womens-reservation-bill-parliament-special-session-union-cabinet-meeting-2437417-2023-09-18</t>
-  </si>
-  <si>
-    <t>'Carry on, bolne do': How Sonia Gandhi guided Adhir Ranjan in Lok Sabha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leader of Opposition in Lok Sabha Adhir Ranjan Chowdhury on Monday gave a speech in the Lower House during the special session of Parliament, saying that there had been apprehensions in people's minds about the country being run through a "one-party dictatorship". Adhir Ranjan Chowdhury addressed the House following Prime Minister Narendra Modi's opening remarks during the first day of the five-day special sitting. Notably, Sonia Gandhi, seated next to him, actively assisted and guided him as he delivered his speech, especially in the face of frequent objections raised by members of the ruling dispensation."Carry on... carry on... carry on", "no, no that's true, bolne do (let him speak)" and "very good" (at the end of Chowdhury's speech) were the verbal interjections made by Sonia Gandhi during the Leader of Opposition's speech in Lok Saha.  
-During his 22-minute long speech, Adhir Ranjan Chowdhury touched upon various issues, including lack of inclusivity in Parliament, equal opportunities for all MPs, plurality and even listed out some achievements of previous UPA governments. Throughout Chowdhury's speech, Sonia Gandhi was actively seen thumping the bench, asking those objecting to his speech to stay quiet and at times even prompting the senior Congress leader what to say next. After being prompted by Sonia Gandhi to speak about Information and Technology (IT), Adhir Ranjan Chowdhury said, "The information technology revolution was brought during the tenure of former prime minister Rajiv Gandhi, who was also instrumental in bringing the Panchayati Raj Act, that established democracy at the grassroots"Speaking about inclusivity, Adhir Ranjan Chowdhury ended his speech quoting a popular dialogue of yesteryear's Bollywood hit, "Jindagi lambi nahi, badi honi chahiye (life should be big instead of long)".Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  ‘You can’t be super LoP’: Rajya Sabha Chairman scolds Congress’s Jairam RameshALSO READ |  Constitution copy, coin for MPs on special session in new Parliament buildingMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/parliament-session-adhir-ranjan-chowdhury-speech-sonia-gandhi-carry-on-lok-sabha-2437403-2023-09-18</t>
-  </si>
-  <si>
-    <t>Another student dies by suicide in Kota, 26th case this year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A student allegedly died by suicide in Rajasthan's Kota, the police said on Monday. This is the second such case in the past two weeks, and 26th this year in the coaching hub of Rajasthan.As per initial inquiry, the police said the girl, who is a minor, consumed poison. The reason for her action is yet to be known.According to police, the student was a resident of Uttar Pradesh's Mau area.Additional Superintendent of Police Bhagwat Singh Hinger said the girl consumed poison. Her body has been sent for post-mortem.Further investigation is underway.Two days ago, a 16-year-old student, who was preparing for National Eligibility cum Entrance Test (NEET) died by suicide by hanging herself in Rajasthan's Kota.Around two lakh students flock to Kota annually, hoping to qualify for competitive exams like the Joint Entrance Exam (JEE) and the National Eligibility-cum-Entrance Test (NEET).As per information, a total of 26 students have died by suicide in Kota in just eight months this year.With input from Jay KishanEdited By: Ashmita SahaPublished On: Sep 18, 2023READ |  18-year-old student dies by suicide in Rajasthan's Kota, 22nd this yearMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/student-die-suicide-kota-rajasthan-2437387-2023-09-18</t>
-  </si>
-  <si>
-    <t>Karnataka's Hoysala temples make it to Unesco's World Heritage List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hoysala temples of Karnataka, located in the Belur, Halebidu and Somananthpura regions, made their way into the Unesco World Heritage list. The announcement was made on Unesco's official handle on X (formerly Twitter) on Monday.  
-The temples, called the 'Sacred Ensembles of the Hoysala', have been on Unesco's tentative list since April 2014. It was finalised as India’s nomination for consideration as a World Heritage Site for 2022-23 in January 2022. The temples were built in the 12th to 13th centuries and stand as symbols of the creativity and skill of the artists and architects of the Hoysala era. The Hoysala Empire ruled a large portion of the modern day state of Karnataka between the 10th and 14th centuries. The capital of the empire was initially located at Belur and later moved to Halebidu.The Hoysala temples have a basic traditional Darvidian morphology but show strong influences of the Bhumija mode widely used in central India, the Nagara traditions of northern and western India, and the Karnata Dravida mode favoured by the Kalyani Chalukyas. The architects drew inspiration from different types of temple architecture and the result was the birth of a completely new 'Hoysala Temple' form.The official website of Unesco said the shrines in the temples are characterised by hyper-real sculptures and stone carvings that cover the entire architectural surface, a circumambulatory platform, a large-scale sculptural gallery, a multi-tiered frieze, and sculptures of the Sala legend.Prime Minister Narendra Modi reacted to the news of the temples being recognised as a World Heritage Site and said, "The timeless beauty and intricate details of the Hoysala temples are a testament to India's rich cultural heritage and the exceptional craftsmanship of our ancestors."  
-On Sunday, it was announced that West Bengal's Santiniketan has been inscribed on the Unesco World Heritage List. Santiniketan is a landmark site known for being the place where Rabindranath Tagore built Visva-Bharati over a century ago. Edited By: chingkheinganbi mayengbamPublished On: Sep 18, 2023
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/karnataka-sacred-ensembles-of-hoysala-temples-unesco-world-heritage-list-2437383-2023-09-18</t>
-  </si>
-  <si>
-    <t>DMK MP TR Baalu advises Udhayanidhi to be cautious, says 'Entire country...'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dravida Munnetra Kazhagam (DMK) Treasurer and MP, TR Baalu, issued a cautionary note to Tamil Nadu minister Udhayanidhi Stalin, advising him to take careful steps in his political career. Baalu's remark came in the wake of a controversy stirred by Udhayanidhi, who had earlier compared Sanatana Dharma with diseases like dengue and malaria, calling for its eradication. Addressing an event - Mupperum Vizha 2023 - on Monday, Baalu said, "The entire country is scared of the DMK Youth Wing Head, wondering what he will do next."advertisement'UDHAYANIDHI ONLY SCARED OF HIS FATHER' Emphasising that Udhayanidhi is only scared of his father, the DMK treasurer said, "He is speaking anything thinking he can manage later. But, I caution him to remember that it is his duty to make sure that the object he holds in his hand should not fall down and break." Emphasising that Udhayanidhi is only scared of his father, the DMK treasurer said, "He is speaking anything thinking he can manage later. But, I caution him to remember that it is his duty to make sure that the object he holds in his hand should not fall down and break." Baalu also pointed out that leaders from the Opposition's INDIA bloc initially reacted to the twisted reports of Udhayanidhi's comments, and that they only calmed down after being shown the accurate media reports. He further cautioned Udhayanidhi to be mindful of his statements, as they are being twisted out of jealousy.DMK's TR Baalu's statements came on a day when the party workers organised an event celebrating the birth anniversaries of revered figures Kalaignar Karunanidhi, Perarignar Anna, and Periyar.UDHAYANIDHI STALIN's REMARKSEarlier this month, Udhayanidhi, the son of Tamil Nadu Chief Minister MK Stalin, likened Sanatana Dharma with "malaria" and "dengue" while calling for its eradication. The DMK minister argued that Sanatana Dharma is based on the caste system and discrimination."Rather than opposing Sanatana, it should be eradicated. The name Sanatana is from Sanskrit. It is against social justice and equality," the minister said. Udhayanidhi even posted a picture of mosquito coil on social media adding flame to the fire.Even after it led to a huge political controversy at the national level, Udhayanidhi said he stands by his words and clarified that his comments were falsely portrayed as a call for genocide.Edited By: Ashmita SahaPublished On: Sep 18, 2023READ |  After Sanatana Dharma remark, Udhayanidhi Stalin calls BJP a 'poisonous snake'Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/india-scared-udhayanidhi-dmk-tr-baalu-sanatana-dharma-remark-2437284-2023-09-18</t>
-  </si>
-  <si>
-    <t>Sonia Gandhi shown as goddess in Telangana posters, BJP calls it 'shameful'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bharatiya Janata Party (BJP) has slammed the Congress after posters portraying former party chief Sonia Gandhi as a goddess were put up in Telangana. The posters show Sonia Gandhi dressed as a goddess, sporting a jeweled crown. The posters also depict a map of Telangana emerging from her right palm.  Terming the Congress workers' move "shameful", BJP spokesperson Shehzad Poonawala said that the grand old party has always seen their "parivar" as bigger than the country and its people. The posters were put up after a Congress Working Committee (CWC) meeting held in Hyderabad concluded on Sunday. The meeting was held to discuss matters related to the upcoming Assembly polls in the state.   The meeting was attended by senior Congress leaders, including Sonia Gandhi, Rahul Gandhi, Priyanka Gandhi and party chief Mallikarjun Kharge. BJP's REACTIONTaking to microblogging website X, Poonawala accused the Congress of making it a habit of insulting Bharat. He said, "First Congress leaders like Aradhna Mishra said Bharat Mata ki Jai is against party discipline; in the past BD Kalla has said say Sonia Mata ki Jai not BMKJ. Now Congress equates Sonia Gandhi to Bharat Mata just like they had equated Indira to India ! This is utterly shameful."Meanwhile, following the CWC meeting, Sonia Gandhi addressed a rally in Telangana's Tukkuguda, and said it is her dream to see the party's government in Telangana that will work for all sections of society. "I along with my colleagues had the opportunity to be a part of the birth of this great state, Telangana. Now, it is our duty to elevate the state to new heights," she said at the rally.With inputs from Apoorva JayachandranEdited By: Ashmita SahaPublished On: Sep 18, 2023READ  |  Set differences aside, prioritise party's success: Congress chief at top panel meetMust Watch 
-</t>
-  </si>
-  <si>
-    <t>elections</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/elections/telangana-assembly-polls-2023/story/congress-sonia-gandhi-devi-poster-crown-telangana-bjp-calls-shameful-2437315-2023-09-18</t>
-  </si>
-  <si>
-    <t>Telangana minister KTR to move censor board over 'Razakar' movie teaser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The teaser release of 'Razakar' movie, a periodic drama depicting events in Nizam's Hyderabad before its accession to the Indian Union in 1948, has ignited a storm of controversy on social media and the political landscape. The teaser, which claims to be based on true stories, portrays alleged atrocities against Hindus committed by the Razakars in their pursuit of promoting Islam and establishing 'Turkistan'.Raising strong objections to the movie and even its teaser release, Telangana minister KT Rama Rao (KTR) said that some  "intellectually bankrupt jokers of the BJP" are doing their best to instigate communal violence and polarisation. The minister also said that he would take up the matter with the censor board and Telangana Police. "Some intellectually bankrupt jokers of the BJP are doing their best to instigate communal violence and polarisation for their political propaganda in Telangana. We will take up the matter with the censor board and also the Telangana police to ensure that the law &amp; order situation of Telangana is not affected," KTR wrote on X (formerly known as Twitter).
-KTR's response came in reply to a social media user who had urged the minister to prevent the release of what they described as a "fake propaganda movie" to maintain peace and harmony in Hyderabad and Telangana. The teaser of 'Razakar' movie, backed by BJP leader Gudur Narayana Reddy, was unveiled on Sunday evening. During the launch event, suspended BJP leader and Goshamahal MLA T Raja Singh praised the film, drawing comparisons to 'The Kashmir Files' and 'The Kerala Story'."An excellent film titled 'Razakar' is soon to be released, focusing on the tragic events of the # Hyderabad massacre during India's struggle for independence, specifically targeting Hindus. I urge people to help promote awareness of this movie nationwide and contribute to its success," T Raja Singh tweeted in Hindi. 
-Even former Telangana BJP chief and Karimnagar MP Bandi Sanjay Kumar shared the teaser of the movie on X. "Literally got goosebumps watching the trailer of the movie Razakar... Current generations should know about the struggles of the Hyderabad Liberation. Let's engage with history even as their pseudo-intellectuals try to erase it," he wrote.WATCH RAZAKAR TEASER WHAT RAZAKAR MEANS?The term "Razakars" refers to volunteers who were part of a private militia led by Qasim Razvi, the president of Majlis-e-Ittehadul Muslimeen (founded in 1927). The Razakars employed strong-arm tactics to maintain Hyderabad's independence during the tumultuous period following India's independence. Reportedly, they enjoyed the support of Nizam's government and influential landlords who sought to suppress the peasant uprising after 1946.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  'Change scriptwriter': K Kavitha on Rahul Gandhi's 'BJP Rishtedar Samithi' jibeALSO READ |  9 years on, why Telangana statehood is still an election issue
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/razakar-movie-release-ktr-to-move-censor-board-hits-out-at-jokers-of-bjp-2437356-2023-09-18</t>
-  </si>
-  <si>
-    <t>New Kia Sonet launch in India in first half of 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kia India will launch the new Sonet in the country in the first half of 2024. This would be the first major update that the sub-4 metre compact SUV will get since its initial introduction in September 2020.The Kia Sonet rivals the likes of the Maruti Suzuki Brezza, Tata Nexon, Hyundai Venue and Mahindra XUV300.While the Sonet has been the volume driver for Kia along with the Seltos, its wholesales have taken a hit in the past two months.For reference, the Sonet recorded wholesales of 4,245 units and 4,120 units in July and August, respectively. This is much below the vehicle's average monthly volume of 7,841 units in FY23 (94,096 units for the entire fiscal).In the face of stiff competition from other compact SUVs, an updated Kia Sonet must enter the market soon.We will launch the new Sonet in 2024, a source told India Today, adding that the vehicle could possibly enter the market in the first half.The Sonet is one of the most feature-loaded models in the compact SUV segment, boasting several segment-first and segment-best features. It offers multiple powertrain options.Diligently priced between Rs 7.79 lakh and Rs 14.89 (ex-showroom) at present, the Sonet is, no doubt, one of the most value-for-money models in the compact SUV segment.In its 2024 avatar, expect the Sonet to get even more bells and whistles. Its price will witness a movement towards the north as well. Edited By: Varun SinghPublished On: Sep 18, 2023ALSO READ |  Scorpio-N, XUV700, Thar to have lower waiting period with Mahindra enhancing capacityALSO READ |  Citroen C3 Aircross SUV launched in India at Rs 9.99 lakh, bookings open nowALSO READ |  Bharat NCAP command and control centre inaugurated in PuneMust Watch 
-</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/auto/cars/story/new-kia-sonet-launch-in-india-in-first-half-of-2024-2437391-2023-09-18</t>
-  </si>
-  <si>
-    <t>‘You can’t be super LoP’: Rajya Sabha Chairman scolds Congress’s Jairam Ramesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajya Sabha Chairman Jagdeep Dhankhar on Monday pulled up Congress leader Jairam Ramesh for his intervention on behalf of Leader of Opposition Mallikarjun Kharge. "This is not a good habit. You are a victim of this habit. You cannot be super LoP. He does not need assistance," said Dhankhar, as he scolded Ramesh during a discussion on 'Parliamentary Journey of 75 Years Starting from Samvidhan Sabha - Achievements, Experiences, Memories, and Learnings'.Dhankhar's remark came after Jairam Ramesh and other Congress leaders asked him to let Kharge speak. "Why are you commentating on his speech? Allow him to speak... You are constantly interrupting," said Ramesh.Chairman Dhankhar went on to attack Congress and said the party is absent when there is an opportunity to participate. "The problem is, when an issue has to be debated, discussed, and deliberated, you walked out of the House," he said, telling Ramesh he cannot be "super LoP". When the Chairman raised questions about Congress for disrupting Parliament proceedings, Kharge said the party was only following the steps of late BJP leaders Arun Jaitley and Sushma Swaraj when they were in Opposition. "The job of Parliament is to discuss. Whenever issues are ignored, creating obstacles is in the interest of the public system. Therefore, parliamentary obstruction cannot be called undemocratic," Kharge said, quoting a remark made by Jaitely during an Upper House proceeding on January 30, 2011. The Chairman responded to his remarks, saying, "After thinking carefully, tell me, how long will we continue to disturb the house based on past precedent? How long will we continue to justify the disturbance?"This is when Kharge remarked the Chairman was allowing him to speak. "When participation could have taken place, you people were not there," Dhankhar said in response. While Ramesh urged the Chair to expunge his statement, Dhankar said, "I am not a stakeholder in politics. I am certainly a stakeholder that this Upper House, the house of Elders conducts itself in a manner so that it earns respect from others."He also asked Mallikarjun Kharge to put his members in discipline. Another Opposition member urged the Chair not to cast aspersions on all parties.In his argument supporting disruptions in house proceedings, Kharge said Congress "is attacked" when it is only following in the footsteps of late BJP leader Sushma Swaraj, who had said, "Not allowing Parliament to function is also a form of democracy in other words".With PTI InputsEdited By: Poorva JoshiPublished On: Sep 18, 2023ALSO READ |  Parliament special session kickstarts: 8 bills, move to new building on agendaALSO READ |  G20’s success India’s, not individual’s or party’s: Top PM quotes in ParliamentMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/rajya-sabha-chairman-scolds-congress-jairam-ramesh-super-lop-house-disruptions-2437264-2023-09-18</t>
-  </si>
-  <si>
-    <t>Constitution copy, coin for MPs on special session in new Parliament building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Members of Parliament will receive a copy of the Constitution of India, books related to the Parliament, a commemorative coin and a stamp on the opening day of the new Parliament building on Tuesday. A giftbag will contain these presents for the MPs. The new Parliament complex was inaugurated by Prime Minister Narendra Modi on May 28. Day 2 of the special Parliament session will take place in the new building.A look at gifts for the MPs:  
-Commemorative coin 
-Gift bag containing a copy of the Constitution of IndiaWhile the Rajya Sabha will meet at 2:15 pm in the Upper House chamber of the new Parliament building, the Lok Sabha will meet at 1:15 PM in the Lower House chamber of the newly constructed complex.On Monday, MPs held discussions in both Houses on "Parliamentary Journey of 75 years starting from Samvidhan Sabha -- Achievements, Experiences, Memories and Learnings".Edited By: Poorva JoshiPublished On: Sep 18, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/constitution-of-india-booklet-coin-for-mps-on-new-parliament-buildings-opening-2437361-2023-09-18</t>
-  </si>
-  <si>
-    <t>Thiruvananthapuram Mayor brings her baby to work, sparks debate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiruvananthapuram Mayor Arya Rajendran, who gained national attention as the youngest mayor in the country, has sparked a debate after a photograph of her working in her office with her one-month-old baby went viral on social media.The image of Mayor Arya Rajendran reviewing files while carrying her infant garnered mixed reactions from the public. Some commended her as a trailblazing example of a woman who effortlessly manages both her professional and personal responsibilities, emphasising the potential for achieving a perfect work-life balance. Many saw her actions as a testament to the idea that motherhood need not hinder a woman's career ambitions.Besides plaudits, the photo also drew criticism and online trolling. Critics questioned the authenticity of the image, deeming it a mere photo opportunity. Some comments highlighted the privilege that women in high-ranking positions enjoy, contrasting this with the challenges faced by daily wage laborers who lack such privileges.The photograph has sparked important discussions regarding the need for childcare facilities, including creche centers, within workplaces. Simultaneously, the previous government directive discouraging children's presence in government offices has resurfaced as a topic of debate.Arya Rajendran, 24, secured her position as the youngest mayor in the country when she assumed office in 2020 at the age of 21. She is married to CPI(M) MLA Sachin Dev, the youngest MLA in the current Kerala Assembly. The couple welcomed their baby girl on August 10, which further stoked discussion among netizens about the challenges and opportunities faced by women in public office while juggling motherhood.Edited By: Vadapalli Nithin KumarPublished On: Sep 18, 2023ALSO READ |  Nipah virus: Schools, colleges closed in Kerala's Kozhikode indefinitelyMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/youngest-mayor-arya-rajendrans-viral-photo-sparks-debate-on-work-life-balance-2437192-2023-09-18</t>
-  </si>
-  <si>
-    <t>Is this Covid-19 cure worse than the virus?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molnupiravir, an antiviral drug used to treat Covid-19, has been the subject of extensive research and debate due to its unique mechanism of action. The drug works by inducing mutations in the SARS-CoV-2 virus, which can lead to the virus's destruction. However, this approach has raised concerns about the potential creation of new, treatment-resistant strains of the virus.A team of researchers, including Harvard professor of mathematics and biology Martin Nowak, investigated these concerns.  Their study, published in PLOS Biology, suggests that molnupiravir is "marginally evolutionarily safe," which means that when used correctly, the drug reduces the virus's ability to create surviving mutants. The team used math to answer the question whether molnupiravir could lead to harmful mutations of the virus that causes Covid-19.The researchers developed mathematical rules to describe the increase and decrease of viral load after infection. They compared the total amount of original and mutant viruses produced by a patient during an infection. Their findings suggest that a patient who receives molnupiravir produces fewer mutants over time than a patient who does not receive the drug. This process, known as lethal mutagenesis, occurs when the virus reaches its error threshold - the point at which mutations make its survival impossible. The researchers propose that drugs causing lethal mutagenesis should be pursued further, and their evolutionary safety should be carefully evaluated.  
-The drug works by inducing mutations in the SARS-CoV-2 virus. (Photo: Getty)Molnupiravir belongs to a class of drugs called nucleoside analogs, which also includes drugs used to treat HIV. The researchers suggest that a drug with an even better ability to cause lethal mutagenesis might be more evolutionarily safe than molnupiravir. However, the study also indicates that molnupiravir may be more effective for patients who have difficulty clearing the virus on their own. For healthier patients who can clear the virus quickly, the total number of mutants remains low regardless of whether they receive the drug.Edited By: Sibu Kumar TripathiPublished On: Sep 18, 2023Must Watch 
-Molnupiravir belongs to a class of drugs called nucleoside analogs, which also includes drugs used to treat HIV. The researchers suggest that a drug with an even better ability to cause lethal mutagenesis might be more evolutionarily safe than molnupiravir. However, the study also indicates that molnupiravir may be more effective for patients who have difficulty clearing the virus on their own. For healthier patients who can clear the virus quickly, the total number of mutants remains low regardless of whether they receive the drug.Edited By: Sibu Kumar TripathiPublished On: Sep 18, 2023Must Watch 
+    <t>https://www.indiatoday.in/law/story/no-high-courts-can-deny-access-to-virtual-hearings-supreme-court-direction-2445487-2023-10-06</t>
+  </si>
+  <si>
+    <t>For Sikkim lake that burst, early warning system was in the works: Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sikkim glacial lake that flooded following a cloudburst on Wednesday was set to get an early warning system, as per a report by Reuters. The early warning system could have given people more time to evacuate.A cloudburst over Lhonak Lake in North Sikkim triggered a flash flood in the Teesta river basin, claiming over 30 lives. Dozens are still missing. According to reports, scientists and government authorities were working on developing an early warning system to mitigate glacial flood risks at Lhonak Lake in the Himalayas.The initial phase of the warning system, which included a camera to monitor Lhonak Lake's water levels and weather instruments, had been installed just last month, as reported by officials involved in the project. "It's quite absurd, really," Geoscientist Simon Allen of the University of Zurich was quoted as saying by Reuters. He was involved with the early warning system project. "The fact it happened just two weeks after our team was there was completely bad luck".He said that plans had been underway to incorporate a tripwire sensor that could trigger an alert system, facilitating immediate evacuation alerts if the lake's integrity was compromised. However, due to logistical constraints, the government had opted for a two-step implementation approach.The system would have given authorities and residents a valuable 90-minute warning window, allowing them to evacuate in time. Additionally, this time frame would have allowed for the early activation of a hydropower station's floodgates.However, the monitoring devices that were installed and were supposed to send data to authorities had lost power for “unknown reason” last month, as per reports by Reuters. On Wednesday morning, the glacial lake outburst flood (GLOF) led to a rapid rise in water levels in Lake, causing severe damage in Mangan, Gangtok, Pakyong and Namchi districts. The calamity has affected thousands of people. Search and rescue operations are still underway in the Himalayan state.Edited By: Anuja JhaPublished On: Oct 6, 2023ALSO READ |  Sikkim disaster was waiting to happen, experts warned multiple timesMust Watch 
 </t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/science/story/is-this-covid-19-cure-worse-than-the-virus-2437274-2023-09-18</t>
+    <t>https://www.indiatoday.in/science/story/sikkim-glacial-lake-that-flooded-was-set-to-get-early-warning-system-2445456-2023-10-06</t>
+  </si>
+  <si>
+    <t>To BJP’s Rahul Gandhi as ‘Ravan’ poster, Congress’s ‘Adani puppet’ barb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A full-blown poster war has erupted between the Congress and the BJP as the parties go into overdrive for elections to five assembly states in a few weeks. A BJP tweet showing Congress's Rahul Gandhi as a "new-age Ravan" has drawn strong criticism from the party which has returned fire with a poster showing Prime Minister Narendra Modi captioned as "Adani".It started with the Congress taking a dig at PM Modi on 'X' on Wednesday, sharing a poster that said "The Biggest Liar". Another, designed as a film poster, was captioned "PM Narendra Modi as Jumla Boy". 
+Poster shared by Congress on X 
+Poster shared by Congress on XThe BJP hit back the day after, with its version of a film poster targeting Rahul Gandhi. It shows the Congress leader as a 'new-age Ravan', referring to the Hindu mythological character. "Bharat Khatre Mein Hai - A Congress party production. Directed by George Soros," the poster reads.The caption reads: "He is evil. Anti Dharma. Anti Ram. His aim is to destroy Bharat".  
+BJP's X handle posted a poster of Rahul Gandhi (Credits: BJP/X)Calling the poster "obnoxious" and "downright dangerous", the Congress, on Thursday, said that the 'Ravan' poster was "clearly intended to incite and provoke violence" against Rahul Gandhi."What is the real intent of an atrocious graphic portraying Rahul Gandhi as Ravan by the BJP's official handle? It is clearly intended to incite and provoke violence against a Congress MP and a former President of the party, whose father and grandmother were assassinated by forces that want to divide India," Congress's Jairam Ramesh said in a post on X."It is one thing for the PM to give evidence daily of being a pathological liar and of suffering from a narcissistic personality disorder. But for him to get his party to produce something this obnoxious is not just completely unacceptable, but is downright dangerous," Ramesh said."We will not be intimidated," he asserted.Reacting to the poster, Priyanka Gandhi Vadra said in a post in Hindi on X, "Most respected @narendramodi ji and shri @JPNadda ji, what level do you want to take politics and debate to? Do you agree with the violent and provocative tweets being posted from the official Twitter handle of your party?""Not much time has passed when you took a vow of uprightness. Have you forgotten the oaths taken just as the promises made?" she asked.The Congress also responded in kind, tweeting yet another poster showing PM Modi that read Adani, repeating its allegation that the billionaire pulled the strings in the government.      
+Congress posted another poster of PM Modi on X. (Credits: INCIndia/X)Earlier too, both parties had launched cartoon strips against leaders of both the opposing parties on social media.Edited By: Vani MehrotraPublished On: Oct 6, 2023ALSO READ  |  Insult to Muslim girls: AIMIM leader on Rahul Gandhi naming pet dog 'Noorie'ALSO READ  |  'Greater population, greater rights': Rahul Gandhi on Bihar caste census resultsMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/congress-bjp-poster-war-rahul-gandhi-new-age-ravan-several-heads-jairam-ramesh-slams-party-2445258-2023-10-06</t>
+  </si>
+  <si>
+    <t>Explosion-like sound near atomic commission office in Pakistan: Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An explosion-like sound was reported at Pakistan's Dera Ghazi Khan on Friday, where the government's atomic energy department is located. India Today could not independently verify these reports.  
+The impact of the "explosion" was reported to have been felt around 50 kilometres away from the site.  
+This came just days after two suicide blasts took place in Balochistan and Khyber Pakhtunkhwa within a span of a few hours. At least 65 people were killed in the twin blasts. In Balochistan, the explosion took place near a mosque after a bomber detonated his explosives near a police vehicle where people were gathering for a procession to mark the birthday of the Prophet Mohammad. In Khyber Pakhtunkhwa too, the explosion took place at a mosque. Edited By: Rishabh SharmaPublished On: Oct 6, 2023Trending Reel 
+</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/explosion-atomic-commission-office-dera-ghazi-khan-pakistan-dead-injured-reports-2445459-2023-10-06</t>
+  </si>
+  <si>
+    <t>Supreme Court won’t stop Bihar from publishing caste survey data, issues notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Supreme Court on Friday said it will not stop the Bihar government from publishing the details of the caste census, saying it cannot interfere in the state's policymaking decision.A bench of Justices Sanjiv Khanna and SVN Bhatti issued a formal notice on a batch of pleas challenging the August 1 order of the Patna High Court that gave the go-ahead for the caste survey in Bihar. It listed the matter in January 2024.The bench sought a response from the Bihar government over the matter within four weeks.According to the lawyer of the petitioners, the caste census data had not been collected as per the Supreme Court's orders and there was no legitimate aim for collecting the details for the survey.The Supreme Court rejected the objections of the petitioners that the Bihar government had preempted the stay order by publishing some data and demanded an order to stop further publication of data."We are not pausing anything at this moment. We cannot stop the state government or any government from taking a policy decision. That would be wrongâ€æWe are going to examine the other issue regarding the power of the state government to conduct this exercise," the bench said.Senior advocate Aprajita Singh, appearing for the petitioners, said there was a breach of privacy in the matter and the high court order was wrong.
+In response, the bench said since the name and other identities of any individual have not been published, therefore the argument that there was a breach of privacy may not be correct.
+"The more important issue for consideration of the court is a breakdown of data and its availability to the public," the bench said.
+On October 2, the Nitish Kumar government in Bihar released the findings of its caste census, months ahead of the 2024 Lok Sabha polls. The data revealed that Other Backward Classes (OBCs) and Extremely Backward Classes (EBCs) constituted a whopping 63 per cent of the state's total population.(with inputs from PTI)Edited By: Shreyasi JhaPublished On: Oct 6, 2023ALSO READ |  How Bihar caste survey could be Nitish Kumar’s last roll of the diceALSO READ |  Bihar's caste-based survey results out: Decoding it and political implicationsMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/law/story/bihar-caste-census-supreme-court-notice-to-bihar-government-reply-nitish-kumar-2445391-2023-10-06</t>
+  </si>
+  <si>
+    <t>NewsClick FIR: Foreign funds illegally infused into India, siphoned off by...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The accused of NewsClick, the online portal, which is being investigated for its alleged China-linked entities to push Chinese propaganda, were involved in "continuous unlawful activities" to "undermine" India's "sovereignty and territorial integrity", according to an FIR lodged by the Delhi Police.The FIR says that one People's Dispatch Portal, owned and maintained by NewsClick, was used for allegedly intentionally peddling false narratives about Jammu and Kashmir and Arunachal Pradesh through paid news in crores of rupees of illegally routed foreign funds as part of a conspiracy.Big Chinese telecom companies such as Xiaomi and Vivo incorporated thousands of shell companies in India in violation of the Foreign Exchange Management Act (FEMA) for illegally infusing foreign funds in India, the FIR said.NewsClick founder and editor-in-chief Prabir Purkayastha, activist Neville Roy Singham and writer Geeta Hariharan conspired to create a legal community network in India to put up a "spirited defence of legal cases" against these Chinese telecom companies "in return for benefits", the FIR said, while naming one "Gautam Bhatia" as a "key person".Purkayastha and human resources department head Amit Chakravarty were on Tuesday arrested in a case lodged under the anti-terror law UAPA, in connection with the alleged funding to NewsClick from China to peddle a fake narrative about the central government.According to the FIR, Indian entities and foreign establishments conspired to support and fund the farmers' protest with the objective of causing losses amounting to several hundreds of crores to the Indian economy.The accused propagated false narratives to discredit the efforts of the central government's Covid-19 management and conspired to sabotage the 2019 general election, the FIR said."The accused have employed a web of illegal transactions through illegal and circuitous routes using several companies to illegally infuse foreign funds for perpetrating the aforementioned acts through conspiracy," it alleged.Foreign funds amounting to crores of rupees have been received by NewsClick through illegal means since April 2018.These funds were fraudulently infused by Neville Roy Singham, who the FIR described as an "active member of the Communist Party of China".Gautam Navlakha -- a shareholder in Newsclick -- was allegedly involved in anti-India activities and actively supporting banned Naxal organisations and having a nexus with a spy agent from Pakistan's Inter-Services Intelligence (ISI).It is alleged that NewsClick employees and owners shared emails with people in China with the intent of showing Jammu and Kashmir and Arunachal Pradesh as "disputed territories"."These illegally routed foreign funds have been siphoned off by Prabir Purkayastha and his associates, namely Joseph Raj, Anoop Chakraborty (brother of Amit Chakraborty), Bappaditya Sinha (promoter of Virtunet Systems Pvt Ltd.)," the FIR said."It is also learnt that these funds were distributed to Gautam Navlakha, and associates of Teesta Seetalwaad, namely Javed Anand, Tamara, Jibran, Urmilesh, Aratrika Halder, Paranjoy Guha Thakurta, Trina Shankar, Abhisar Sharma," it further alleged.Edited By: Shreyasi JhaPublished On: Oct 6, 2023ALSO READ |  'Working under threat...': Press bodies write to Chief Justice on NewsClick raidsALSO READ |  Those linked to NewsClick to get notices under anti-terror law: SourcesMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/accused-conspired-for-unlawful-activities-terror-acts-undermined-indias-sovereignty-cops-on-newsclick-2445412-2023-10-06</t>
+  </si>
+  <si>
+    <t>Drunk man urinates on elderly couple onboard train in Uttar Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A man urinated on an elderly couple travelling in the Uttar Pradesh Sampark Kranti train. The incident occurred after the couple had an altercation with the man over consuming alcohol during the journey.The retired scientist couple, hailing from Madhya Pradesh, was traveling in an AC-3 coach of the train. According to the allegations, another passenger travelling in the compartment was drinking alcohol during the journey. This led to a confrontation between the man, identified as Ritesh, and the couple. In the heat of the argument, Ritesh allegedly urinated on the couple's berth.The incident caused a commotion among the passengers, and the couple immediately reported the matter to the railway staff.Upon receiving the complaint, the Railway Protection Force (RPF) arrived at Jhansi station. They promptly removed the man from the train and initiated an investigation into the matter. Based on the statement provided by the train's Ticket Examiner (TTE), a case was registered against the accused.(Inputs by Amit Shrivastava)Edited By: Anuja JhaPublished On: Oct 6, 2023ALSO READ |  Agra man urinates on another lying unconscious on road, friend films act; arrested
+</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/crime/story/drunk-man-urinates-on-elderly-couple-onboard-train-in-uttar-pradesh-2445522-2023-10-06</t>
+  </si>
+  <si>
+    <t>8 Sikhs in Canada arrested over firearms-related offences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian police have apprehended around eight Sikh youths aged between 19 to 26 years in relation to possession of loaded, prohibited or restricted firearms in Brampton city in Ontario province.According to the Peel Regional Police, on the night of October 2, it received reports of shots fired in the area of Donald Stewart Road and Brisdale Drive in Brampton."With the assistance of the Tactical Unit, eight individuals were extracted from the residence and arrested," a press release from Peel Regional Police said on Wednesday.The police confirmed that no one suffered injuries.The incident comes amidst heightened tension between India and Canada over the killing of Khalistani extremist Hardeep Singh Nijjar on June 18 in British Columbia.A day after the incident, officers of the Criminal Investigation Bureau executed a Criminal Code Search Warrant and a 9mm Beretta firearm was seized.Those who are charged with possession of a "Loaded Prohibited or Restricted Firearm" include Jagdeep Singh (22), Ekamjot Randhawa (19), Manjinder Singh (26), Harpreet Singh (23), Ripanjot Singh (22), Japandeep Singh (22), Lovepreet Singh (26)-- all from Brampton.Meanwhile, 21-year-old Rajanpreet Singh has been charged with careless storage of a firearm, weapon, prohibited device or ammunition in addition to the possession of loaded, prohibited, or restricted firearm.All of them were held for a bail hearing and attended the Ontario Court of Justice in Brampton.Tensions flared between the two nations after Canadian Prime Minister Justin Trudeau's allegations of the "potential" involvement of Indian agents in the killing of Nijjar.India has strongly rejected the charges as "absurd" and "motivated". India has also voiced its concern over the safety of Indian diplomats and India's diplomatic premises in Canada.Edited By: Anuja JhaPublished On: Oct 6, 2023ALSO READ |  'Won't shake hands with you': Justin Trudeau confronted by man over housing crisis
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/8-sikhs-in-canada-arrested-over-firearms-related-offences-2445548-2023-10-06</t>
+  </si>
+  <si>
+    <t>How Ambedkar and Gandhi's contrasting views paved way for caste reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The caste survey released by the Bihar government has ignited a fresh debate on the caste-politics dynamics in India. The caste system has been a subject of intense political debate and reform efforts. From the British era to the Mandal versus Kamandal politics, caste has been central to the socio-political narrative of mainland India.Two prominent figures who have significantly contributed to this discourse are Mahatma Gandhi, Father of the Nation, and Bhimrao Ramji Ambedkar, Father of the Constitution. The two stalwarts of Indian politics, while revered equally by the public, had contrasting views on the caste system. Their subsequent debates have shaped the course of Indian society and politics.While Gandhi denounced untouchability, he did not condemn the varna system, a social hierarchy based on occupation, for most of his life. He believed in reforming the caste system through the abolition of untouchability and by giving equal status to each occupation. On the other hand, BR Ambedkar, a Dalit himself, argued that the caste system disorganised and "demoralised Hindu society, reducing it to a collection of castes". Ambedkar denounced the Vedas and scriptures, believing that the caste system and untouchability were manifestations of Hindu religious scriptures. He first articulated caste inequality in Indian society and worked for the "annihilation of caste", believing that anything built on caste would inevitably create inequality.Their clashing views were on full display when the Poona Pact was signed in 1932. Gandhi's unrelenting fast forced Ambedkar to bend and let go of his desire to have a separate electoral process for the depressed classes, Dalits in particular. And yet, despite their differences, they developed an understanding to work for the betterment of the marginalised.GANDHI'S OPPOSITION TO SEPARATE ELECTORATE FOR DALITSThe 1930s were a tumultuous time in India's history. The struggle for independence from British colonial rule was at its peak, and the Indian National Congress, led by Mahatma Gandhi, was the predominant political force. However, alongside the fight for independence, another critical issue needed addressing -— the demand for political representation and safeguards for the Dalits.BR Ambedkar, a brilliant jurist and social reformer, emerged as a prominent voice for the Dalits. He believed that a separate electoral process for Dalits was essential to ensure their political representation and protect their interests in legislative bodies. Gandhi, on the other hand, was totally opposed to the idea of a separate electoral process, fearing it would perpetuate divisions among Indians.In 1930, the British government initiated the Round Table Conferences to address the issue of representation for different religious and social groups in India. After prolonged negotiations at the second Round Table Conference, the British government, on August 15, 1932, formalised a separate electoral process -- for Muslims, Sikhs and Dalits.Under the proposed process, only members from particular communities would be eligible to vote and elect a representative to legislative assemblies.The idea of separate electorates for the Dalits was supported by Ambedkar but vehemently opposed by Gandhi. The Mahatma believed that creating a separate electorate for the depressed classes would further fragment Indian society along religious and caste lines. He also believed that the British were trying to inject "poison that is calculated to destroy Hinduism".In a letter to then British Prime Minister Ramsay McDonald on September 9, Gandhi wrote, "I should not be against even over-representation of the Depressed Classes. What I am against is their statutory separation, even in a limited form, from the Hindu fold, so long as they choose to belong to it. Do you realize that if your decision stands and the Constitution comes into being, you arrest the marvellous growth of the work of Hindu reformers, who have dedicated themselves to the uplift of their suppressed brethren in every walk of life?"To pressurise the British and the Congress into abandoning the idea of separate electorates, Gandhi, who was then lodged in Yerwada Central Jail in Pune on sedition charges, started a fast unto death on September 20, 1932.GANDHI'S FAST UNTO DEATHAmbedkar was miffed by Gandhi's fast. He was unwilling to "sacrifice a rightful demand" for Gandhi's sake, especially when no alternative proposal was presented at the Round Table.However, pressure soon began mounting on Ambedkar. Newspapers ran daily bulletins on Gandhi's deteriorating health and Congressmen flocked to Ambedkar to agree to Gandhi's demands.A committee, representing upper castes and including Sir Tejbahadur Sapru, barrister MR Jayakar, Pandit Madan Mohan Malviya, Mathuradas Wasanji, was formed to have negotiations with Ambedkar on Gandhi's behalf. In the meeting, Chunnilal put forward the following views on behalf of Mahatma Gandhi before the committee members. As per Chunnilal, Mahatma Gandhi was not only opposed to the awarding of separate electorates for the Dalits, he was also not fully agreeable to reserving seats. In response, Ambedkar stood defiant and said, "Today in the negotiations in this difficult situation, I am in more strange position than all others. Unfortunately, in these peaceful negotiations, I appear to be acting as villain for the protection of just demands of my people. I am willing to suffer to any extent in order to get fulfilled the just demands of my people."He further said, "I tell you I shall not deter from my pious duty, and betray the just and legitimate interests of my people even if you hang me on the nearest lamp-post in the street..." GANDHI'S SON APPEALS, AMBEDKAR RELENTSThe pressure on Ambedkar was immense. Major newspapers were backing Gandhi, and Ambedkar received several death threats too. The situation reached a critical point when Devadas Gandhi, Mahatma Gandhi's son, burst into the negotiations, saying, “Father is sinking". Devadas Gandhi pleaded before Ambedkar with tears in his eyes. Eventually, Ambedkar relented after his friend and Tamil leader, MC Rajah, pointed out that Dalits would face insurmountable prejudice if they were seen as not having come to a compromise for Gandhi’s life.As per Volume 9 of Dr Babasaheb Ambedkar Writings and Speeches, the Dalit leader admitted that it was a "baffling situation" for him."I had to make a choice between two different alternatives. There was before me the duty, which I owed as a part of common humanity, to save Gandhi from sure death. There was before me the problem of saving for the Untouchables the political rights which the Prime Minister had given them. I responded to the call of humanity and saved the life of Mr Gandhi by agreeing to alter the Communal Award in a manner satisfactory to Mr Gandhi," Ambedkar said. The Poona Pact was finally signed at 5 pm on September 24 by 23 people. Madan Mohan Malaviya signed it on behalf of Hindus and Gandhi, and Ambedkar on behalf of the depressed classes. Instead of separate electorates, the pact introduced the concept of reserved seats for the Dalits in provincial and central legislative bodies. These reserved seats were to be filled through a joint electorate system, where all communities would vote together.The Poona Pact also stipulated that in constituencies reserved for Dalits, only Dalit candidates could contest. However, in other general constituencies, Dalit voters could choose to vote for candidates of their choice from any community.AMBEDKAR'S PERSPECTIVE ON GANDHI AFTER POONA PACTAfter signing the Poona Pact, Ambedkar had mixed feelings about Gandhi. He recognised that the pact did provide some political representation for Dalits, albeit not to the extent he initially demanded with separate electorates. Ambedkar acknowledged that Gandhi's fast had created immense pressure and had forced the issue to a resolution.However, Ambedkar also criticised Gandhi for his uncompromising stance against separate electorates, which he believed would have been a more effective way to secure political rights for Dalits. He felt that the Poona Pact did not go far enough in addressing the social and economic injustices faced by the Dalits and was a compromise driven by political expediency.However, the Poona Pact marked a crucial turning point in Indian politics by rejecting separate electorates and introducing the concept of reserved seats, ensuring political representation for marginalized communities, particularly Dalits. This agreement laid the foundation for the development of India's reservation system, which has since been expanded to include various communities to promote social justice and equality.The principles of the Poona Pact were later enshrined in the Government of India Act, 1935, and the Indian Constitution, which was adopted in 1950. Article 46 of the Constitution calls for the promotion of the educational and economic interests of Scheduled Castes, Scheduled Tribes, and other weaker sections.UNDERSTANDING AMID DIFFERENCESShortly after the signing of the Poona Pact, Ambedkar visited Gandhi on October 17, 1932, and urged him to end his civil disobedience and join the Round Table Conference.The discourse, though, again turned towards caste as Ambedkar laid bare the struggles Dalits had to face on a daily basis. Ambedkar told Gandhi about his own struggles."You may not know what even I have to face. I do not get any other place to live in Bombay except the Port Trust chawl. In my village, I have to stay in the midst of the Mahars. In Poona, all others stay with their friends. I have to stay at the National Hotel and have to spend Rs 7 and transport fare," Ambedkar told Gandhi.Gandhi at once stood up with Ambedkar. "I am at one with you. You ought to know that my fast has not ended yet, it is still on. To correct the agreement was a minor thing. The main thing still remains to be done. I am ready to give my life for it. All the injustices you mention ought to end," Gandhi told Ambedkar.Despite their contrasting views on the caste system, both Gandhi and Ambedkar valued each other. Both leaders were united in their commitment to social justice and equality, and this left an indelible mark on Indian society and its electoral process.Edited By: Rishabh SharmaPublished On: Oct 6, 2023Must Watch 
+</t>
+  </si>
+  <si>
+    <t>history-of-it</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/history-of-it/story/ambedkar-gandhi-caste-system-poona-pact-1932-reservation-2445208-2023-10-06</t>
+  </si>
+  <si>
+    <t>Indian-origin couple, 2 children found dead in New Jersey home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Indian-origin couple and their two children were found dead in their home in the US state of New Jersey and police are investigating the matter as a homicide.
+Tej Pratap Singh, 43, and Sonal Parihar, 42, were found dead alongside their 10-year-old son and 6-year-old in their Plainsboro home sometime after 4.30 pm on Wednesday, the Plainsboro Police Department said.
+Middlesex County Prosecutor Yolanda Ciccone and Chief Eamon Blanchard of the Plainsboro Police Department announced on Thursday that a homicide is currently under investigation.
+On the evening of October 4, authorities received a 911 call requesting a welfare check at a residence in Plainsboro. Upon their arrival, Plainsboro Police Department discovered four deceased victims in the house," they said in a joint statement.
+"This tragedy remains under investigation and autopsies are being performed today," they said, adding an initial investigation determined that there is no threat to the public.
+Anyone with information or surveillance footage of the area is asked to call the Plainsboro Police Department.
+A joint message from Mayor Peter Cantu and Chief Eamon Blanchard, Director of Public Safety, said that the Plainsboro community experienced a heartbreaking loss of life.
+"We are all saddened by this tragic event. What happened in our community is beyond comprehension," stated Mayor Peter Cantu.
+Plainsboro police officers are currently working with their law enforcement colleagues to conclude the investigation.
+"Please be assured that this is an isolated occurrence and there are no additional concerns for the safety and well-being of the community related to this incident," Blanchard said.
+"Our public safety personnel remain vigilant and resilient, and will continue to ensure the safety of the Plainsboro community," the joint statement said.
+As of Thursday morning, the family’s home on Titus Lane still had crime scene tape posted around the lawn, footage from News 12 New Jersey showed.
+The family’s remains were discovered when a relative called for a welfare check. At the time, police said they were looking into the tragedy as a possible murder-suicide, the outlet said.
+Relatives told CBS News that they were shocked by the family’s deaths, and noted that Singh and Parihar appeared to be a happy couple.
+Singh, in particular, was active in the community.
+At the time of his death, Singh worked as a Lead APIX Engineer for Ness Digital Engineering, according to his LinkedIn profile.
+Both Singh and Parihar had careers in IT, including the Human Resources sector, relatives said.
+The couple’s children were remembered in a note from the school district to parents, News 12 New Jersey reported.
+“The district was informed by local law enforcement of a horrific tragedy involving one of our Plainsboro families with a Wicoff student and a Millstone River School student,” Superintendent David Aderhold wrote, referring to two of the area elementary schools.
+“As the law enforcement investigation is ongoing, we are unable to provide any additional information at this time. The District joins our community in grief and sorrow over this tragic event.”
+Singh and Parihar purchased their home in August 2018 for USD 635,000, records showed.
+Neighbours described the family as friendly and said they could often be seen walking around the quiet street.
+A neighbour who asked not to be named said she had been friendly with the family for more than a decade.
+The woman said her daughter usually met the 6-year-old girl at the bus stop to ride to school together every morning. Hours before the family was found, the girl didn’t show up.
+“It was weird for me to not see her in the morning,” said the neighbour. “They were such a sweet family.”
+The neighbour said she texted Parihar later that morning but never received a reply.Edited By: Ashmita SahaPublished On: Oct 6, 2023READ  |  Indian-American dentist pleads guilty to stealing $500,000 in Covid relief money
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/indians-abroad/story/indian-origin-couple-2-children-found-dead-inside-new-jersey-home-2445518-2023-10-06</t>
+  </si>
+  <si>
+    <t>Nobel Peace Prize awarded to Iranian human rights activist Narges Mohammadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jailed Iranian human rights activist Narges Mohammadi has been awarded the Nobel Peace Prize for 2023 for her "fight against the oppression of women" in her country and for "promoting human rights and freedom for all".According to the Nobel Prize Committee, Narges Mohammadi's struggle has come at tremendous personal costs. She has been "arrested 13 times, convicted five times, and sentenced to a total of 31 years in prison and 154 lashes".The Iranian human rights activist is serving multiple sentences in Evin Prison in Tehran, according to Front Line Defenders rights organisation, according to news agency Reuters.Narges Mohammadi also faces charges of "spreading propaganda" against the Iranian regime.She is the deputy head of the Defenders of Human Rights Centre, a non-governmental organisation led by Shirin Ebadi, the 2003 Nobel Peace Prize laureate, Reuters reported.She is the deputy head of the Defenders of Human Rights Centre, a non-governmental organisation led by Shirin Ebadi, the 2003 Nobel Peace Prize laureate, Reuters reported.Narges Mohammadi's activism dates back to the 1990s when, as a physics student, she began advocating for equality and women’s rights. She has consistently opposed "systematic discrimination and oppression", the Nobel committee said.She has supported the "struggle for the right to live full and dignified lives", a cause that has often been met with "persecution, imprisonment, torture and even death" in Iran.Her advocacy extends to "freedom of expression and the right of independence", challenging rules that suppress women's rights and freedoms, the committee stated.From within the Evin Prison in Tehran, Narges Mohammadi supported last year's protesters in the wake of Kurdish woman Mahsa Amini's death last year and organised solidarity actions.Even under strict prison conditions, she managed to communicate with the outside world, with The New York Times publishing her article on the anniversary of Mahsa Amini’s death. "The more of us they lock up, the stronger we become," was the headline of her article in The New York Times.Edited By: Shreyasi JhaPublished On: Oct 6, 2023ALSO READ |  Iran briefly detains Mahsa Amini's father, warns him against marking her deathALSO READ |  Iranian girl in critical condition after alleged assault over hijab by authorities
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/nobel-peace-prize-awarded-to-iranian-human-rights-activist-narges-mohammadi-2445436-2023-10-06</t>
+  </si>
+  <si>
+    <t>How Bihar caste survey could be Nitish Kumar’s last roll of the dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine a politician who is a chief minister with just 43 MLAs in an assembly of 243 seats. He has a constant threat of being unseated, his MLAs drifting away, and is walking the tightrope of coalition politics. That politician is Bihar Chief Minister Nitish Kumar.Nitish Kumar, however, played the game very well. So much so that in the ever-evolving scene of Bihar politics, he has been a constant since 2005. Whatever the strength of his party, he has been the Chief Minister for the last 18 years.  Adding to the complexity is that Nitish is a Kurmi, a caste that accounts for just 2.87 per cent of Bihar’s population. This, too, in a state where the caste factor mostly trumps everything else in politics. So, how has Nitish not only survived all this while and been at the helm for 18 years? And what has the latest caste survey got to do with his politics?Nitish Kumar, a product of the JP Movement, is a master strategist. And the caste survey is being seen as both as his last stand and a masterstroke at saving his coalition government, which has the Rashtriya Janata Dal (RJD) with 75 seats against his JD(U)'s 43.With the caste survey, Nitish is not only firming up his hold on his party and containing the RJD, he is also reasserting his role in national politics, say political observers. And this is how he is doing it. CASTE CENSUS A WAY TO CONTAIN RJD Apart from the JD(U), Nitish's grand alliance government consists of the RJD, the Congress and a bunch of Left parties. Nitish joined hands with the state's opposition bloc in 2022 after fighting the 2020 assembly election in alliance with the BJP. The RJD, in fact, is the single-largest party in the Bihar assembly.RJD chief Lalu Prasad, another product of the JP Movement, was Nitish Kumar’s bªte noire. It was to defeat Lalu Prasad that Nitish first joined hands with the BJP.That and a fast-growing Tejashwi Yadav always keep Nitish on the edge. He always had the fear that the rug might be pulled from under his feet. It won’t be very difficult for the RJD to split the JD(U) going by the two-thirds defection rule, say experts. Even the Speaker in the Bihar assembly is from the RJD. There is a buzz that his aide and JD(U) president Lalan Singh is cosying up to the RJD. There is bickering within his party.But with the caste survey, Nitish has flexed his muscles and reasserted that he is not just a leader of Kurmis (who form 2.87 per cent of the population) but also of the extremely backward classes (EBCs), a bloc of castes he has been nurturing since becoming the chief minister first in 2005. The EBCs, going by the latest caste survey, form 36 per cent of Bihar’s population, the largest category in the state. 
+advertisementThe latest caste survey has put a number to the EBCs and highlighted them as a separate entity from the other backward classes (OBCs). The EBCs are at the lower end of the other backward classes (OBCs) spectrum, dominated by the Yadavs and the Kurmis. The Yadavs, the political constituency of Lalu Prasad and Tejashwi Yadav, form 14 per cent of Bihar’s population. The RJD has depended on the Yadav-Muslim combine, but here, too, Nitish is trying to make a dent with his caste survey.NITISH'S ATTEMPT TO WOO MUSLIMS“By categorising Muslims in EBCs and putting a number to them, Nitish Kumar is playing Muslim politics prominently. He is trying to attract a section of the Pasmanda (backward) Muslim voters,” Santosh Singh, a Bihar politics expert and senior journalist with The Indian Express. Singh tells IndiaToday.In this is the exact reason why Nitish cultivated Ali Anwar Ansari, a leader of Pasmanda Muslims. advertisementThis might effectively slice up the RJD’s important Muslim voter base.
+With this caste survey, Nitish is expecting that he will be consolidating his position among the politically important EBCs. The EBCs have been crucial to Nitish Kumar being in power and he has nurtured this vote base with welfare schemes since 2005.Santosh Singh calls the caste survey Nitish’s “masterstroke” and believes that if the RJD, if it were working on any plan to split the JD(U), will now have to stop in its tracks.“With assembly elections some time away, the RJD would like to become a stakeholder in national politics. So, it will look to be with Nitish Kumar and the Congress at least till the 2024 general election,” says Singh.With the RJD distancing itself from the probable rebels, bickering within the JD(U) too would fall silent for now.“With the caste census and the report, Nitish has quashed the internal bickering within the JD(U) and the upper hand that the RJD had,” says Santosh Singh.Nitish has been plagued by desertions. In February, Upendra Kushwaha left the JD(U) and formed his party, the Rashtriya Lok Janata Dal, after differences with Nitish Kumar over his alliance with the RJD. In August 2022, RCP Singh, once considered Bihar's shadow chief minister and very close to Nisitsh Kumar, quit the party. advertisementNitish also saw allies like Jitan Ram Manjhi of the Hindustan Awam Morcha (HAM) desert him. The HAM leader is a Manjhi, one of the castes in EBC. Though Tamil Nadu, Karnataka and even the Centre conducted caste surveys, none ever came out with the results. Bihar was the first state to have declared the result of its caste survey on October 2.But all that could be well behind him. IS NITISH BACK IN NATIONAL POLITICS? Squeezed into a corner in state politics, Nitish was being sidelined on the national stage too. And the caste census might have given him a foot-in-the-door moment in national politics.It is an open secret that Nitish has nurtured prime ministerial dream but has never been explicit about it. One of the first movers of opposition unity, Nitish was sidelined by the Congress in the INDIA grouping.“Nitish Kumar wasn't made the convenor of INDIA bloc. This is his bid to gain national importance with a national issue. This is his masterstroke,” Santosh Singh tells IndiaToday.In. Singh says this will make the Congress sit up and think about what position to offer to Nitish in the INDIA grouping.  “He has also put BJP on the back foot by blunting its Hindutva politics for now. The BJP has to take the EBC-OBC issue more seriously,” says Singh.  The number of seats and the huge margins by which the BJP won seats in the 2019 Lok Sabha election was a wake-up call for Nitish Kumar, feels Santosh Singh. The caste census is his bid at attracting the EBCs back. “Nitish is rebooting his EBC politics after the 2019 loss,” says Singh.The BJP highlighted PM Narendra Modi as an OBC icon, among other issues of welfare politics and nationalism and Hindutva, to secure OBC votes. The Congress, too, has realised that this is the best way by which it can dent the BJP's vote share and, therefore, latching on to the OBC representation issue since the Bihar caste survey results.So, for now, Nitish Kumar has killed not one but at least three birds — internal party issues, RJD threat and his national obsolescence — with one stone. But with the caste survey results, Nitish has also opened a Pandora's box. Will the dice roll in his favour? That’s for time to tell.Edited By: Yudhajit Published On: Oct 6, 2023Must Watch 
+The latest caste survey has put a number to the EBCs and highlighted them as a separate entity from the other backward classes (OBCs). The EBCs are at the lower end of the other backward classes (OBCs) spectrum, dominated by the Yadavs and the Kurmis. The Yadavs, the political constituency of Lalu Prasad and Tejashwi Yadav, form 14 per cent of Bihar’s population. The RJD has depended on the Yadav-Muslim combine, but here, too, Nitish is trying to make a dent with his caste survey.NITISH'S ATTEMPT TO WOO MUSLIMS“By categorising Muslims in EBCs and putting a number to them, Nitish Kumar is playing Muslim politics prominently. He is trying to attract a section of the Pasmanda (backward) Muslim voters,” Santosh Singh, a Bihar politics expert and senior journalist with The Indian Express. Singh tells IndiaToday.In this is the exact reason why Nitish cultivated Ali Anwar Ansari, a leader of Pasmanda Muslims. This might effectively slice up the RJD’s important Muslim voter base.
+With this caste survey, Nitish is expecting that he will be consolidating his position among the politically important EBCs. The EBCs have been crucial to Nitish Kumar being in power and he has nurtured this vote base with welfare schemes since 2005.Santosh Singh calls the caste survey Nitish’s “masterstroke” and believes that if the RJD, if it were working on any plan to split the JD(U), will now have to stop in its tracks.“With assembly elections some time away, the RJD would like to become a stakeholder in national politics. So, it will look to be with Nitish Kumar and the Congress at least till the 2024 general election,” says Singh.With the RJD distancing itself from the probable rebels, bickering within the JD(U) too would fall silent for now.“With the caste census and the report, Nitish has quashed the internal bickering within the JD(U) and the upper hand that the RJD had,” says Santosh Singh.Nitish has been plagued by desertions. In February, Upendra Kushwaha left the JD(U) and formed his party, the Rashtriya Lok Janata Dal, after differences with Nitish Kumar over his alliance with the RJD. In August 2022, RCP Singh, once considered Bihar's shadow chief minister and very close to Nisitsh Kumar, quit the party. Nitish also saw allies like Jitan Ram Manjhi of the Hindustan Awam Morcha (HAM) desert him. The HAM leader is a Manjhi, one of the castes in EBC. Though Tamil Nadu, Karnataka and even the Centre conducted caste surveys, none ever came out with the results. Bihar was the first state to have declared the result of its caste survey on October 2.But all that could be well behind him. IS NITISH BACK IN NATIONAL POLITICS? Squeezed into a corner in state politics, Nitish was being sidelined on the national stage too. And the caste census might have given him a foot-in-the-door moment in national politics.It is an open secret that Nitish has nurtured prime ministerial dream but has never been explicit about it. One of the first movers of opposition unity, Nitish was sidelined by the Congress in the INDIA grouping.“Nitish Kumar wasn't made the convenor of INDIA bloc. This is his bid to gain national importance with a national issue. This is his masterstroke,” Santosh Singh tells IndiaToday.In. Singh says this will make the Congress sit up and think about what position to offer to Nitish in the INDIA grouping.  “He has also put BJP on the back foot by blunting its Hindutva politics for now. The BJP has to take the EBC-OBC issue more seriously,” says Singh.  The number of seats and the huge margins by which the BJP won seats in the 2019 Lok Sabha election was a wake-up call for Nitish Kumar, feels Santosh Singh. The caste census is his bid at attracting the EBCs back. “Nitish is rebooting his EBC politics after the 2019 loss,” says Singh.The BJP highlighted PM Narendra Modi as an OBC icon, among other issues of welfare politics and nationalism and Hindutva, to secure OBC votes. The Congress, too, has realised that this is the best way by which it can dent the BJP's vote share and, therefore, latching on to the OBC representation issue since the Bihar caste survey results.So, for now, Nitish Kumar has killed not one but at least three birds — internal party issues, RJD threat and his national obsolescence — with one stone. But with the caste survey results, Nitish has also opened a Pandora's box. Will the dice roll in his favour? That’s for time to tell.Edited By: Yudhajit Published On: Oct 6, 2023Must Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/nitish-kumar-bihar-caste-survey-rjd-bjp-mandal-politics-pm-modi-tejashwi-yadav-kurmis-ebc-muslims-2445047-2023-10-06</t>
+  </si>
+  <si>
+    <t>Sikkim flash floods: Explained in graphics how catastrophe unfolded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The devastating flash floods in Sikkim following a sudden glacial lake burst on Wednesday has claimed several lives, causing widespread damage as roads, bridges, and homes were washed away. The Teesta River took a furious form, and part of the state's biggest hydropower project, Sikkim Urja, was washed away, exacerbating the situation.Rescue operations remain a major challenge due to mudslides, washed-out roads, and damage to communication systems.advertisementWHAT LED TO THE FLASH FLOODThe disaster unfolded with a cloudburst over Lhonak Lake in northwest Sikkim early on Wednesday, after 12 am.The disaster unfolded with a cloudburst over Lhonak Lake in northwest Sikkim early on Wednesday, after 12 am.The cloudburst was so heavy that it led to a sudden rise in water levels, quickly taking the lake beyond its holding capacity. The area received at least five times the usual amount of rain.The cloudburst, coupled with the melting of the Lhonak Glacier, resulted in the Glacier Lake outburst flood (GLOF), a sudden release of a massive amount of water.  Lhonak Lake, located in Sikkim's far northwestern region at an altitude of 17,100 feet, was formed due to the melting of the Himalayan glaciers.  
+ Video: South Lhonak Lake | Credit: Google Earth
+A warning was sounded by the authorities as the water level went up. However, around 1 am, the Teesta Stage 3 dam, known as the Urja project, got washed away in the flash flood, subverting all plans for a proper evacuation of people near the river.Urja dam before and after the flood. (Photo: IndiaToday)
+The Urja dam, located 5,000 feet above sea level at Chungthang, and a 200-meter-long bridge connecting the powerhouse were washed away. The entire powerhouse got submerged in the floods. Expert assessments revealed that the water level in the Teesta was below the danger mark before the dam burst.The downstream of Teesta after the dam saw massive destruction. Several houses and buildings were damaged, roads washed away, and at least 11 bridges collapsed. Areas like Mangan, Dikchu, Singtam, Rangpo,  Chungthang, and Bardang were hit hard. 
+Areas affected | Photo: Rahul Gupta/India TodaySatellite images of the glacial lake showed that nearly 65 per cent of its water gushed into the Teesta River.WHY THE LAKE BREACHEDThe primary trigger was the cloudburst, during which more than 10 centimetres of rainfall occurrs within 10 square kilometres within an hour.Along with that, scientists also point out the possibility of an avalanche. The banks of the lake probably burst after chunks of ice fell into the water, creating a powerful wake in the water.Highlighting the ice patches floating on the lake surface, as shown in satellite images, Jakob F Steiner, a senior scientist said, “It could be that a chunk of either ice or unstable slopes has detached and dropped into the lake water.” This can create shock waves across the water surface that would be enough to topple the lake's dam, he said. 
+Area of the South Lhonak lake before and after the bust. (Photo: Isro)
+WARNINGS IGNOREDadvertisementThe flash flood due to the glacial lake burst is deemed dangerous unlike those triggered by excessive rainfall. The powerful and enormous volume of water, all at once, carries debris and large particles downstream, causing severe damage. The speed of the water discharge due to the glacier lake burst can go up to 90–95 kilometres per hour.Notably, Lhonak Lake was one of the fastest-expanding lakes in the Sikkim Himalaya region. Several studies have pointed out the rapidly growing nature of the lake due to the melting of the adjacent North Lhonak and main Lhonak glaciers.Receding glaciers and the expansion of proglacial lakes, namely North and South Lhonak Lake, Jongsang in Teesta Basin, and Longbasaba and Pida Lake in Koshi basin. (Photo: Ravindra Kumar/X)A study by the National Remote Sensing Centre and the Indian Space Research Organisation (Isro) in 2013 identified South Lhonak Lake, which is a moraine-dammed lake with a capacity to store a significant amount of water, as potentially dangerous with a high outburst probability.advertisementSimilar other studies also warned the same on multiple occasions, especially linked to the increase in glacier melting and avalanches due to climate change and global warming. The very nature of moraine dams is unstable, as the water is blocked by ice packs and loose rocks.Between 1962 and 2008, the Lhonak glacier receded by 2 km and by another 400 meters between 2008 and 2019. 
+WHAT HAPPENED AFTER THE LAKE BURSTNearly 65 per cent of the water from the Lhonak lake drained after the flooding. Satellite images released by the Indian Space Research Organisation (Isro) and the National Remote Sensing Centre showed that the area of South Lhonak Lake was drastically reduced to just 60.3 hectares on October 4, from 167.4 hectares on September 28.“It is observed that the lake burst, and about 105 hectares of the area has been drained out, which might have created a flash flood downstream,” noted Isro. 
+South Lhonak Lake: Before and after the burst. (Photo: Isro)advertisementConsidering the significant increase in the lake area, the state government in 2016 installed high-density pipes to drain the water.A camera to monitor Lhonak Lake's level and weather instruments were installed last month. According to scientists quoted by Reuters, a fully operational warning system could have given people more time to evacuate.Lhonak Lake is not an isolated lake. According to recent research, more than 200 such lakes now pose a very high hazard to Himalayan communities in India and neighbouring countries.Graphics source: Google Earth/Google MapsInteractives by Rahul Gupta, India TodayEdited By: Ajmal Published On: Oct 6, 2023Must Watch 
+The Urja dam, located 5,000 feet above sea level at Chungthang, and a 200-meter-long bridge connecting the powerhouse were washed away. The entire powerhouse got submerged in the floods. Expert assessments revealed that the water level in the Teesta was below the danger mark before the dam burst.The downstream of Teesta after the dam saw massive destruction. Several houses and buildings were damaged, roads washed away, and at least 11 bridges collapsed. Areas like Mangan, Dikchu, Singtam, Rangpo,  Chungthang, and Bardang were hit hard. 
+Areas affected | Photo: Rahul Gupta/India TodaySatellite images of the glacial lake showed that nearly 65 per cent of its water gushed into the Teesta River.WHY THE LAKE BREACHEDThe primary trigger was the cloudburst, during which more than 10 centimetres of rainfall occurrs within 10 square kilometres within an hour.Along with that, scientists also point out the possibility of an avalanche. The banks of the lake probably burst after chunks of ice fell into the water, creating a powerful wake in the water.Highlighting the ice patches floating on the lake surface, as shown in satellite images, Jakob F Steiner, a senior scientist said, “It could be that a chunk of either ice or unstable slopes has detached and dropped into the lake water.” This can create shock waves across the water surface that would be enough to topple the lake's dam, he said. 
+Area of the South Lhonak lake before and after the bust. (Photo: Isro)
+WARNINGS IGNOREDThe flash flood due to the glacial lake burst is deemed dangerous unlike those triggered by excessive rainfall. The powerful and enormous volume of water, all at once, carries debris and large particles downstream, causing severe damage. The speed of the water discharge due to the glacier lake burst can go up to 90–95 kilometres per hour.Notably, Lhonak Lake was one of the fastest-expanding lakes in the Sikkim Himalaya region. Several studies have pointed out the rapidly growing nature of the lake due to the melting of the adjacent North Lhonak and main Lhonak glaciers.Receding glaciers and the expansion of proglacial lakes, namely North and South Lhonak Lake, Jongsang in Teesta Basin, and Longbasaba and Pida Lake in Koshi basin. (Photo: Ravindra Kumar/X)A study by the National Remote Sensing Centre and the Indian Space Research Organisation (Isro) in 2013 identified South Lhonak Lake, which is a moraine-dammed lake with a capacity to store a significant amount of water, as potentially dangerous with a high outburst probability.Similar other studies also warned the same on multiple occasions, especially linked to the increase in glacier melting and avalanches due to climate change and global warming. The very nature of moraine dams is unstable, as the water is blocked by ice packs and loose rocks.Between 1962 and 2008, the Lhonak glacier receded by 2 km and by another 400 meters between 2008 and 2019. 
+WHAT HAPPENED AFTER THE LAKE BURSTNearly 65 per cent of the water from the Lhonak lake drained after the flooding. Satellite images released by the Indian Space Research Organisation (Isro) and the National Remote Sensing Centre showed that the area of South Lhonak Lake was drastically reduced to just 60.3 hectares on October 4, from 167.4 hectares on September 28.“It is observed that the lake burst, and about 105 hectares of the area has been drained out, which might have created a flash flood downstream,” noted Isro. 
+South Lhonak Lake: Before and after the burst. (Photo: Isro)Considering the significant increase in the lake area, the state government in 2016 installed high-density pipes to drain the water.A camera to monitor Lhonak Lake's level and weather instruments were installed last month. According to scientists quoted by Reuters, a fully operational warning system could have given people more time to evacuate.Lhonak Lake is not an isolated lake. According to recent research, more than 200 such lakes now pose a very high hazard to Himalayan communities in India and neighbouring countries.Graphics source: Google Earth/Google MapsInteractives by Rahul Gupta, India TodayEdited By: Ajmal Published On: Oct 6, 2023Must Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/sikkim-flash-flood-lake-burst-avalanche-cloudburst-teesta-river-reason-earthquake-isro-satellite-images-2445278-2023-10-06</t>
+  </si>
+  <si>
+    <t>Viral video: Student's slipper attack stuns in Physics Wallah live class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bizarre incident unfolded during a live class on the Physics Wallah app, where a student assaulted a teacher by hitting him with a slipper. The incident, captured in a viral video, has raised concerns and sparked discussions across social media platforms.In the video, a teacher can be seen conducting a live class when, suddenly, a student approaches him with a slipper in hand and strikes the teacher. The teacher instinctively ducks to avoid the blow as the student continues his attack. Eventually, the student retrieves his slipper and leaves the scene.The motive behind this assault remains unclear, and the video has been circulating on social media since the incident occurred.Take a look at the clip:
+Physics Wallah was founded in 2016 by Alakh Pandey, an educator from Allahabad, Uttar Pradesh. Together with co-founder Prateek Maheshwari, Pandey developed the Physics Wallah app, specifically designed to assist students preparing for competitive exams such as the National Eligibility cum Entrance Test (NEET) and the Joint Entrance Exam (JEE).While the app has gained popularity for its educational content and support, this disturbing incident serves as a reminder of the challenges faced by educators in the digital age.Edited By: Srimoyee ChowdhuryPublished On: Oct 6, 2023Also Read |  Backpackers escape unhurt after e-bike explosion in Sydney hostelTrending Reel 
+</t>
+  </si>
+  <si>
+    <t>trending-news</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/trending-news/story/viral-video-students-slipper-attack-stuns-in-physics-wallah-live-class-2445265-2023-10-06</t>
+  </si>
+  <si>
+    <t>'Will pump 39 more bullets,' 2 Agra students brag after shooting at teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two minor students shot at their teacher in Uttar Pradesh’s Agra on Wednesday over a dispute with the teacher’s brother. The students fled the scene after the attack, but recorded a 25-second video where they threatened to "put 39 more bullets into the teacher".Both the students, who would take coaching classes from the victim identified as Sumit, called him outside the class and fired at him with a pistol, police said. The teacher sustained an injury to his left leg.The students ran away on a motorcycle after shooting the teacher, but stopped midway to record a threat video.In the video, one of the two students can be heard saying that he wants to put a total of 40 bullets into the teacher, and 39 more bullets will follow in the next six months. The video has gone viral on social media, raising concerns about the matter.Deputy Commissioner of Police (DCP) West, Sonam Kumar, said that the motive behind the attack appeared to be a dispute between the students and the elder brother of the teacher, who also attends the same coaching class. Both the accused and the victim are from Malupur village.Meanwhile, the wounded teacher was admitted to a hospital, and is currently under treatment.The Khandauli police have taken cognizance of the incident. DCP Sonam Kumar said the police have mobilized teams to arrest the accused, both underage. Further investigation into the case is underway.(With inputs from Arvind Sharma/Agra)Edited By: Aishwarya DakhorePublished On: Oct 6, 2023ALSO READ |  Massive fire at footwear godown in Agra, nearby residents evacuatedMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/crime/story/agra-teacher-shot-at-by-2-minor-students-threatened-of-39-more-bullets-2445210-2023-10-06</t>
+  </si>
+  <si>
+    <t>Disney in talks with Adani, Sun TV to sell India assets: Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disney has initiated preliminary discussions with billionaires such as Gautam Adani, owner of the Adani Group, and Kalanithi Maran, owner of Sun TV Network, as well as private equity firms regarding the potential sale of its streaming and television business in India, reported Bloomberg News.According to the report, Disney is exploring various options, including selling some of its Indian operations or a combination of assets from the unit.However, it is worth noting that these discussions are in their early stages, and there is no guarantee the a deal will be reached, added the report. It also did not provide any details regarding a potential deal value.Stiff competitionThe reports have surfaced at a time when Disney faces growing competition from Reliance Industries, specifically its streaming platform JioCinema, led by Mukesh Ambani.Ambani has been aggressively promoting his streaming service, including offering free access to the Indian Premier League cricket tournament, which Disney previously held the digital rights to.Disney's India streaming operations, which were its largest globally in terms of users last year, reported a loss of $41.5 million on revenue of $390 million for the year ending March 2022, according to the last disclosed results.In an effort to regain its footing in the Indian market, Disney has chosen to provide free cricket content on smartphones, with the expectation that this strategy will boost advertising revenue and offset the impact of subscriber attrition.Edited By: Koustav DasPublished On: Oct 6, 2023
+</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/business/story/disney-in-talks-with-adani-sun-tv-to-sell-indian-streaming-television-assets-2445478-2023-10-06</t>
+  </si>
+  <si>
+    <t>‘Thank You For Coming’ Review: Bhumi’s film excels at foreplay but misses G-spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margot Robbie’s ‘I am a Barbie girl, in my Barbie world,’ took everyone by storm this July. Borrowing notes from that, Rhea Kapoor’s ‘Thank You For Coming’ is about one such ‘Barbie,’ except she is Kanika Kapoor [Bhumi Pednekar] from Delhi and it is her world. Kanika aka ‘Kandu Kanika’ [disaster Kanika] gets her name because of all the ‘raita’ she spreads, leaving people around her to clean her mess.In her world, Kanika has two best friends, Pallavi [Dolly] and Tina [Shibani Bedi], and a single mother and grandmother. She has always been an outcast in her school and sometimes bullied for being born out of wedlock. The taunts never got easier and Kanika grew up depending on men to find happiness. She did not want to precede the actions of her mother, and was okay getting hitched to anyone to get the stamp of marriage. But, as she approached her 30s, her biggest regret was not having an orgasm. Until she has one during her engagement party! However, the only problem is Kanika doesn’t remember who was behind the act.   The entire film of 2 hours is about finding the person who could finally give her that euphoric experience. Director Karan Boolani takes inspiration from several stand-ups on female sexuality to weave a sex comedy, about women, starring an army of women themselves. But, despite its honest attempt, the film seems sluggish. It doesn’t move beyond ‘orgasm’ or Kanika. Everyone around her is reduced to just being her sidekicks who appear when needed and then disappear. It truly is her world. It would have been easy to buy this narrative, if the film was not promoted as one celebrating female friendships. At some point, finding the story in the movie became as difficult as men trying to find the G-spot. Sure, the film’s sincerity to present a sex comedy about women is novel. Rhea Kapoor supporting alongside Anil Kapoor and Ekta Kapoor is applause worthy. It isn’t easy to support a film like this, in a society that almost negates female desires, and the film might open doors for not-so-awkward conversations about sex. But that’s the only major highlight of #ThankYouForComing. The songs except for the very fun rendition of ‘Pari Hoon Main’ by Sushant Divgikar aka Rani are average. The real find in performances has to be Shibani Bedi, who is stellar as a single mother. While the story really doesn’t give her a defining character arc, she manages to leave an impression. Dolly is decent as well. She plays herself in most parts. Shehnaaz Gill is a star. She appears in a maximum of 4 scenes throughout the film, but she serves and how! Kusha is wasted with merely 3 scenes, which doesn’t use her potential to the fullest. All of these women and their characters could have made the film more interesting if they were not reduced to being just sidekicks.  Another star performance is Sushant, who debuts as a musician and an actor in the film. The entire drag sequence featuring her got the biggest cheers. As for Bhumi, she played to the gallery, sometimes loud, sometimes funny. But, knowing her sheer potential as an actor, Kanika felt half-baked. We have seen better Bhumi Pednekar performances before. The few laughs we get in the film are thanks to Anil Kapoor’s fantastic cameo and Ekta Kapoor’s TV series references. But beyond that, the film was hardly even funny. It is sanitised to a point where perhaps they made it ‘too-family-friendly’.The film’s one-line sale pitch of ‘the key to finding your ‘happiness’ is in your ‘own hands,’ both figuratively and literally, perhaps could have been dealt with in a better way. Better luck next time! Till then, ‘Thank You For Coming’ hits theatres. 
+Edited By: bhavna agarwalPublished On: Oct 6, 2023ALSO READ |  Bhumi Pednekar on doing 'Thank You For Coming': Tired of men headlining sex comediesMust Watch 
+</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/movies/reviews/story/thank-you-for-coming-review-bhumis-film-excels-at-foreplay-but-falls-short-of-hitting-the-g-spot-2445274-2023-10-06</t>
+  </si>
+  <si>
+    <t>Sikkim flash flood: Disaster relief team fails to land, death toll rises to 30 | 10 points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 30 people, including four Army personnel, died and over 100 remained missing following a cloudburst over Lhonak Lake in north Sikkim district that triggered flash floods in the region earlier this week. The flash flood led to the swelling of the river Teesta, sweeping away several houses in towns and villages and dozens of people, including Army personnel.An National Disaster Response Force (NDRF) team was not able to land in Chungthang, one of the worst-hit places in north Sikkim due to inclement weather. The team was carrying communication equipment as the town is cut off from the rest of the state.Teams of the Indian Army and the NDRF Army were working their way through slushy earth and fast-flowing water in the Teesta river basin and downstream north Bengal for the third day in search of those who were swept away and still missing, officials told PTI.The Army recovered three vehicles from the debris in the basin of the river Teesta. These vehicles were washed away by flash flood in Bardang. Army officials launched a search operation and recovered the vehicles.Here's a 10-pointer recap of what has unfolded so far:
+The flash flood in the river Teesta, triggered by the cloudburst in Lhonak Lake, caused the accumulation of a huge quantity of water, which turned towards Chungthang Dam, destroying the power infrastructure before moving downstream in spate, flooding towns and villages.
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/sikkim-flash-floods-update-dead-missing-search-operation-army-jawan-weather-forecast-2445272-2023-10-06</t>
   </si>
 </sst>
 </file>
@@ -652,262 +697,262 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/server/IndiaToday.xlsx
+++ b/server/IndiaToday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Heading</t>
   </si>
@@ -28,289 +28,244 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Asian Games 2023, hockey: India men's team wins Gold, secures Paris Olympics quota after hammering Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India are once again the Asian champions in men's hockey. After winning the bronze in the Tokyo Olympics, India have made sure the trajectory has only gone upwards with a sensational show at the Asian Games in Hangzhou. Harmanpreet SIngh's men hammered 2018 champions Japan 5-1 in the men's hockey final on Friday, October 6 to win the Gold medal. More importantly, India also booked a place at next year's Paris Olympics, avoiding the longer route to the Games. Only the gold medal winners in men's and women's hockey at the Asian Games are assured of the Olympic berth and the Indian side made sure that they got the job done with a dominant show, something that new coach Craig Fulton will be proud of. India vs Japan, Men's Hockey Final HighlightsIt was also India's 4th Gold medal at the Asian Games in men's hockey for India after 1966, 1998, and 2014. India finished with a bronze in the Jakarta Asian Games 4 years ago. India have become the joint second-most successful men's team in hockey in the Asian Games as they have tied South Korea's tally of 4 Gold medals. Pakistan are the most successful men's team in the Asian Games with 9 Gold medals. DISCIPLINED SHOW VS JAPANIndia headed into the final against Japan, the defending champions, with a lot of confidence as they had beaten them in the group stage. India survived a stiff test against Korea 5-3 in the semi-final and the confidence was evident with the composure that was on display.Japan were focused on parking the bus and not allowing India to take the early lead. They were successful with the tactic as it remained 0-0 at the end of the first quarter. Surjeet tapped one into the goal in the 15th minute but the referee did not give an advantage for a foul inside the D and gave India a penalty corner, which they were not able to convert. Japan continued to be defensively disciplined in the second quarter as well. However, Manpreet Singh made sure that India took the lead via a field goal and headed into the half-time with a 1-0 lead. Manpreet's reverse strike flew into the goal, giving India the much-needed cushion to test the Japanese more. As expected, when Japan were pushed to make things happen in the 3rd quarter, they became more vulnerable. India had 3 penalty corners on the trot in the 3rd quarter and Manpreet Singh's thunder strike came in the 3rd attempt, giving India a 2-0 lead. Amit Rohidas soon struck from a penalty corner to give India a 3-0 lead and it looked like Japan were done and dusted by the end of the 3rd quarter. India took a 4-0 lead at the start of the fourth quarter with a goal from Abhishek. However, Japan were rewarded for being persistent as midfielder Seren Tanaka pulled one back for the holders. However, Harmanpreet, the skipper, doubled his tally with another sensational penalty corner goal to make it 5-1 for India in the end of the final quarter. DOMINANT SHOW IN HANGZHOUIndia were a force to reckon with at the Asian Games 2023, showcasing an impressive performance that has led them to the final match. The team, under the leadership of Captain Harmanpreet Singh, has demonstrated exceptional form throughout the tournament, maintaining a perfect record in the pool stages and emerging victorious in the semi-finals.In the semi-finals, India faced off against the Republic of Korea, a match that had fans on the edge of their seats. Despite the pressure, the Indian team remained steadfast, securing a 5-3 victory over their opponents. This win was a testament to the team's consistency and determination, qualities that have been evident throughout their journey in the tournament.India's performance in the pool stages was nothing short of spectacular. They started their campaign with a resounding 16-0 victory over Uzbekistan, followed by a 16-1 win against Singapore. Their prowess continued to shine as they defeated Japan 4-2, further solidifying their position at the top of Pool A. These victories were not just wins, but a display of the team's skill, strategy, and strength.The team's success can be attributed to the stellar performances of its players, particularly its top scorers. Forward Mandeep Singh, with his 12 goals, has been India's top scorer at the Asian Games 2023. He is closely followed by Harmanpreet Singh, who has made 11 strikes. Their contributions have been instrumental in leading the team to the finals.Another notable performance came from Harmanpreet Singh and Mandeep Singh during the match against Bangladesh. Both players scored hat-tricks, leading India to a 12-0 victory and securing their position as Pool A toppers. Their performance was a clear demonstration of their skill and the significant role they play in the team.As India prepares to battle it out with Japan for the gold medal, the team carries with it the hopes and expectations of a nation. Their journey so far in the Asian Games 2023 has been marked by determination, skill, and teamwork. Regardless of the outcome of the final match, the Indian men's hockey team has already made its mark, showcasing the strength of Indian hockey on an international platform.Edited By: Akshay RameshPublished On: Oct 6, 2023
+    <t>Women's Reservation Bill cleared in key Cabinet meet chaired by PM Modi: Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proposed legislation to ensure 33 per cent reservation for women in the Lok Sabha and state Assemblies was cleared by the Union Cabinet, sources told India Today TV on Monday. The government is yet to make an official statement on this but it is believed that the women’s reservation bill will be brought in for discussion during the ongoing special session of Parliament.The meeting was called at 6:30 pm, after the first sitting of the special Parliament session. The bill guarantees a 33 per cent quota for women in Lok Sabha and state assemblies. Across political lines, several leaders demanded the introduction of this key bill. Speculation around the much-debated women's reservation bill did rounds, ever since the special Parliament session was announced. Meanwhile, Congress claimed that the bill was a long-standing demand of the party. While Congress leader Jairam Ramesh welcomed the Union Cabinet's decision, he also tweeted, "This could have very well been discussed in the all-party meeting before the Special Session, and consensus could have been built instead of operating under a veil of secrecy."The cabinet meeting was chaired by PM Modi and was attended by Union ministers Rajnath Singh, Amit Shah, Piyush Goyal, Pralhad Joshi, S Jaishankar, Nirmala Sitharaman, Dharmendra Pradhan, Nitin Gadkari and Arjun Ram Meghwal, among others.Edited By: Poorva JoshiPublished On: Sep 18, 2023Must Watch 
+</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-in-key-cabinet-meet-chaired-by-pm-modi-2437410-2023-09-18</t>
+  </si>
+  <si>
+    <t>'Have to eliminate Sanatana': Udhayanidhi on Tamil Nadu Governor's caste remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil Nadu Youth Affairs and Sports Minister Udhayanidhi Stalin on Monday responded to Tamil Nadu Governor RN Ravi's remark on social and caste-based discrimination in the state. He said there is a need to "eliminate Sanatana" Dharma and that by birth all are equal. At an event in Thanjavur on Sunday, RN Ravi said that social discrimination is still a problem in Tamil Nadu. When asked about it, Udhayanidhi said, "We are also saying what he (the Governor) is saying. That's why we are saying we have to eliminate Sanatana. We are also speaking about caste discrimination and we are saying by birth all are equal.""Wherever there is caste discrimination, it is wrong. We are raising our voice against that," news agency ANI quoted him as saying. On Sunday, the Tamil Nadu Governor said that there exists social discrimination in society which is unacceptable. "We have untouchability, social discrimination. A large section of brothers and sisters are not treated equally. It is painful, it is unacceptable. It is not what the Hindu Dharma says. Hindu Dharma talks about equality," news agency PTI quoted him as saying.Claiming that social discrimination still persists in Tamil Nadu, he said, "Every day I read in the newspaper, I get the report, I hear the story of our brothers and sisters from scheduled caste are not being allowed access to the temples. This is strange and I am surprised and shocked. Nowhere in India, no where in Bharat our young people have caste bands (on their wrists)."Reacting to Ravi's remarks, DMK spokesperson Saravanan Annadurai alleged the governor was "indulging in false propaganda.""He is not able to stomach the growth the Dravidian model of governance has achieved. He is against Dravidian ideology, propagates Sanatan ideology. Wherever he goes, he speaks about the virtues of Sanatana Dharma, but Sanatana Dharma is responsible for this caste system.""If we have division in society, it is because of Sanatana Dharma," he said.As Udhayanidhi called for the elimination of Sanatana on Monday, he reiterated his earlier stance on the subject that had sparked a controversy. On September 2, Udhayanidhi asserted that the Sanatana Dharma is like dengue and malaria and needs to be eradicated. However, he later clarified that he did not call for genocide of those following Sanatana Dharma, as is being alleged by the BJP.Edited By: Poorva JoshiPublished On: Sep 18, 2023ALSO READ |  DMK MP TR Baalu advises Udhayanidhi to be cautious, says 'Entire country...'ALSO READ |  'Dare to speak on other religions?' Union Finance Minister to Udhayanidhi StalinMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/udhayanidhi-stalin-sanatana-dharma-remark-tamil-nadu-governor-2437418-2023-09-18</t>
+  </si>
+  <si>
+    <t>Congress leader shot dead in Punjab, Khalistani terrorist takes responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A local Congress leader was shot dead at his residence in Punjab’s Moga district on Monday. According to police, some unknown assailants barged into the house of the local leader, identified as Baljinder Singh Balli, and opened fire.The incident was captured on CCTV installed outside Balli's residence in Dala village. Balli was the Congress block president in Ajitwal.Hours later, a Canada-based Khalistani terrorist, Arsh Dalla, took responsibility for the murder in a detailed Facebook post. In his post, Dalla alleged that Baljinder Singh Balli had ruined his future and forced him into the gangster culture. He also mentioned that the Congress leader was behind his mother's police custody, which motivated him to seek revenge.Arsh Dalla is a listed terrorist and wanted by the National Investigative Agency (NIA). He has been operating from Canada for the last three to four years and has been involved in many terrorist killings in Punjab.Baljinder Singh Balli, who was getting his haircut done at his house, got a call from an unknown person who allegedly requested him to sign some documents. Assuming it to be a routine matter, Balli left his house to meet the caller. This is when two bike-borne assailants fired upon Balli before fleeing the scene. The CCTV shows assailants fleeing the scene immediately after the attack, leaving Singh critically injured. He was then rushed to a nearby hospital where he succumbed to his injuries during treatment.Local authorities were alerted to the incident, and the police have launched an investigation.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  Jharkhand man shot dead by friend over suspicion of stealing his mobileALSO READ |  Man wanted for murder, extortion shot dead by police during arrest attempt
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/congress-leader-shot-dead-in-punjab-baljinder-singh-balli-khalistani-terrorist-arsh-dalla-2437449-2023-09-18</t>
+  </si>
+  <si>
+    <t>IND vs AUS: KL Rahul to captain side in first two ODIs, R Ashwin to play entire series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India has released two sets of squads for the series against Australia with KL Rahul leading the team in the first two ODIs. R Ashwin makes a return to the ODI side for the first time since 2022 and will be a part of the squad for the entirety of the series.India will be using their World Cup squad for the final ODI, with Rohit Sharma returning to the side as captain. Washington Sundar, who was picked for the Asia Cup final against Sri Lanka following Axar Patel’s injury, will be in the squad for the first two matches. Ravindra Jadeja will be the deputy for Rahul in the first two matches, as the likes of Virat Kohli, Hardik Pandya have been rested. Ishan Kishan has been in tremendous form and he will be looking to carry his form into the series against the Aussies, who recently lost their ODI series 2-3 to South Africa. Kishan has flourished of late, in the middle-order and will be playing all three matches against Australia. Kuldeep Yadav, who was the Player Of The Series during the Asia Cup 2023, has been rested for the first two games. 
+Squad for the 1st two ODIs:
+KL Rahul (C &amp; WK), Ravindra Jadeja (Vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Varma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. Siraj, Prasidhâ€æ
+— BCCI (@BCCI) September 18, 2023
+India will be high on confidence after beating Sri Lanka in the Asia Cup final by 10 wickets. Mohammed Siraj became the Player of the Match after he ripped through the opposition with a six-wicket haul. On the back of his spell, India bowled the hosts out for 50 after which the chased down the target with 273 balls to spare.Squad for the 1st two ODIs:
+KL Rahul (C &amp; WK), Ravindra Jadeja (Vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Varma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. Siraj, Prasidhâ€æ
+— BCCI (@BCCI) September 18, 2023India will be high on confidence after beating Sri Lanka in the Asia Cup final by 10 wickets. Mohammed Siraj became the Player of the Match after he ripped through the opposition with a six-wicket haul. On the back of his spell, India bowled the hosts out for 50 after which the chased down the target with 273 balls to spare.The three ODIs between India and Australia will take place on September 22, 24 and 27 in Mohali, Indore and Rajkot respectively.India Squad for first two ODIs:KL Rahul (C &amp; WK), Ravindra Jadeja (Vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Varma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. Siraj, Prasidh KrishnaSquad for the 3rd &amp; final ODI:Rohit Sharma (C), Hardik Pandya, (Vice-captain), Shubman Gill, Virat Kohli, Shreyas Iyer, Suryakumar Yadav, KL Rahul (wicketkeeper), Ishan Kishan (wicketkeeper), Ravindra Jadeja, Shardul Thakur, Axar Patel*, Washington Sundar, Kuldeep Yadav, R Ashwin, Jasprit Bumrah, Mohd. Shami, Mohd. SirajEdited By: alan johnPublished On: Sep 18, 2023Trending Reel 
 </t>
   </si>
   <si>
     <t>sports</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/sports/asian-games-2023/story/hockey-men-final-india-beat-japan-win-gold-paris-olympics-quota-2445523-2023-10-06</t>
-  </si>
-  <si>
-    <t>Canada evacuates many diplomats from India amid 'deadline' from New Delhi: Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Canadian government has reportedly evacuated a majority of its diplomats in India after India reportedly asked the country to reduce reits diplomatic staff.According to a report by Canada's CTV News, diplomats who were stationed outside New Delhi have been relocated to either Kuala Lumpur or Singapore amid the diplomatic dispute surrounding the killing of Khalistani terrorist Hardeep Singh Nijjar.Earlier this week, India asked Canada to withdraw approximately 40 diplomats by October 10, a London-based newspaper, Financial Times, reported. It stated that the Indian government has also threatened to strip the diplomatic immunity of any Canadian diplomats who remain in the country after the deadline.On Thursday, Ministry of External Affairs spokesperson, Arindam Bagchi, stated that India has asked Canada to reduce diplomatic staff to "bring parity"."Given the much higher diplomatic presence in India and their continuing interference in our internal affairs, we had sought parity in our respective diplomatic presence," Bagchi said.The exact number of diplomats relocated from India now remains unclear. "Earlier reports pegged the number of diplomats that would have to leave at 41, but the sources CTV News spoke with said the ask is specific to one of parity. A majority of the Canadian diplomats working in India outside of Delhi have been evacuated to either Kuala Lumpur or Singapore," the report by a private broadcaster in Canada said. However, neither Indian officials nor their Canadian counterparts have officially responded to the development so far.Diplomatic relations between India and Canada deteriorated recently after Trudeau, On September 19, alleged a "potential" involvement of Indian agents" in the killing of Khalistani terrorist Hardeep Singh Nijjar. Nijjar was a Canadian citizen and was shot dead by two masked gunmen on June 18 in British Columbia.However, dismissing the allegations, India responded strongly and called the charges "absurd' and "motivated." In a tit-for-tat response to Canada's expulsion of an Indian official, New Delhi had also expelled a senior Canadian diplomat.Edited By: Shreyasi JhaPublished On: Oct 6, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/canada-evacuates-many-diplomats-from-india-amid-deadline-from-new-delhi-news-agency-pti-quoting-report-2445427-2023-10-06</t>
-  </si>
-  <si>
-    <t>No high court can deny access to virtual hearings, says CJI DY Chandrachud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Supreme Court bench led by Chief Justice of India DY Chandrachud on Friday directed all high courts to ensure that they do not deny access to video conference facilities or hearings through hybrid facilities to any member of the bar.The direction was issued while the bench was hearing a plea that claimed that the Punjab and Haryana High Court had completely stopped using video conferencing for hearings. In the last hearing, the Supreme Court had issued notices to all high courts and tribunals over the issue.The court also said high courts should ensure that internet facilities, including Wifi, are made available free of charge to all advocates and litigants appearing before them. Further, the links available through video conferencing must be made available in the cause list of the concerned court and there should be no requirement to make a separate application for virtual hearings, said the court. The top court also expressed concern over some high courts doing away with virtual hearings and said the central government had sanctioned Rs 7,000 crore to ensure that video conferencing facilities are made available.The Supreme Court bench then directed the Union IT ministry to ensure that internet connectivity is provided to all courts in the North East region so virtual hearings can take place. The CJI said it is no longer an option for a judge to decide to be tech-friendly or not. He added that technology is as important as law books."If you want to be a judge, you have to be tech-friendly. If you want to be a judge in this country, you must know technology and every judge needs to be trained. Even the Supreme Court judges have been trained in training centres," he added. The Chief Justice pulled up certain high courts for not adopting technological changes. "Allahabad (High Court) is a complete offender" said the CJI. He also reprimanded the Bombay High Court for stopping virtual hearings. He observed that it was his parent high court and said travelling in a city like Mumbai is difficult. Edited By: chingkheinganbi mayengbamPublished On: Oct 6, 2023
+    <t>https://www.indiatoday.in/sports/cricket/story/kl-rahul-to-lead-india-squad-for-first-two-odis-against-australia-r-ashwin-gets-nod-2437395-2023-09-18</t>
+  </si>
+  <si>
+    <t>It would be suffocating, to hell with them: Owaisi on joining INDIA bloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All India Majlis-e-Ittehadul Muslimeen (AIMIM) chief and Hyderabad MP Asaduddin Owaisi on Monday once again lashed out at the Opposition-led INDIA bloc and said that it would have been suffocating had he joined the alliance.Speaking at a public gathering in Delhi, Owaisi said that he is not a part of the alliance and bluntly remarked "to hell with it".On not being invited to join the INDIA alliance, he said that he does not care about it."We are not in the INDIA alliance and I don't care about it... It would be suffocating there. Why are they not standing up against the BJP on their ideology... They told that if they give us a ticket, they won't get a Hindu vote," Owaisi said."I am saying this openly, they say this behind closed walls," the Hyderabad MP alleged.Further in his speech, Owaisi also trained guns on former Congress president Rahul Gandhi and said that it was the Muslim League that saved him from drowning in Wayanad, after he lost his Amethi seat in the 2018 Lok Sabha elections. "Rahul Gandhi lost in Amethi but won in Wayanad. Asaduddin Owaisi did not contest elections there. I did not have any deal with the BJP there. He won from Wayanad because there is the Muslim League there. Muslim League saved him from drowning," Owaisi said. 
+Owaisi's barb at Rahul Gandhi came a day after the latter said that while opposition leaders were being attacked by government agencies, there were no cases against AIMIM leaders because Prime Minister Narendra Modi considers them his own.Addressing a rally in Tukkuguda near here ahead of the Telangana Assembly polls, Rahul Gandhi said that Congress is not just fighting the Bharat Rashtra Samithi (BRS), but the BJP and AIMIM."There is no case against KCR (K Chandrashekar Rao). There is no case against AIMIM. Only the opposition is attacked. Modi ji never attacks his own people. He regards your CM and AIMIM leaders as his own, and therefore, there is no case against them," Rahul Gandhi had said.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  Time to drive away children of Godse, Savarkar: Asaduddin OwaisiALSO READ |  There's scope for Third Front, hope KCR will take lead: Asaduddin Owaisi
+Owaisi's barb at Rahul Gandhi came a day after the latter said that while opposition leaders were being attacked by government agencies, there were no cases against AIMIM leaders because Prime Minister Narendra Modi considers them his own.Addressing a rally in Tukkuguda near here ahead of the Telangana Assembly polls, Rahul Gandhi said that Congress is not just fighting the Bharat Rashtra Samithi (BRS), but the BJP and AIMIM."There is no case against KCR (K Chandrashekar Rao). There is no case against AIMIM. Only the opposition is attacked. Modi ji never attacks his own people. He regards your CM and AIMIM leaders as his own, and therefore, there is no case against them," Rahul Gandhi had said.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  Time to drive away children of Godse, Savarkar: Asaduddin OwaisiALSO READ |  There's scope for Third Front, hope KCR will take lead: Asaduddin Owaisi
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/asaduddin-owaisi-on-joining-india-bloc-rahul-gandhi-congress-aimim-2437434-2023-09-18</t>
+  </si>
+  <si>
+    <t>No alliance with BJP, matter will be decided during elections: AIADMK leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strains between the AIADMK and BJP seemed to have reached a flashpoint on Monday when a senior leader of the Dravidian party said there was no alliance with the latter and that any decision on a tie-up would be decided only during the election.
+Lashing out at Tamil Nadu BJP chief K Annamalai for his criticism of Dravidian stalwart CN Annadurai, senior AIADMK leader D Jayakumar said that party workers wouldn't tolerate any insult directed at the late chief minister.
+He further said that Annamalai had made critical remarks about AIADMK leaders including the late J Jayalalithaa, the party had sought that the BJP leader be restrained.
+"Annamalai doesn't desire alliance with AIADMK although BJP workers want it. Should we tolerate all this criticism of our leaders. Why should we carry you? BJP can't set foot here. Your vote bank is known. You are known because of us," the former minister told reporters here while lashing out at the BJP and its state unit president.
+"We can't tolerate anymore (the criticism of leaders). As far as alliance is concerned, it is not there. BJP is not with AIADMK. (the matter) can be decided only during election. This is our stand," he said.
+Asked if this was his personal opinion, Jayakumar said, "Have I ever spoken to you in that capacity? I only talk what the party decides."Edited By: Poorva JoshiPublished On: Sep 18, 2023ALSO READ |  MK Stalin launches Rs 1,000 monthly assistance scheme for womenALSO READ |  Disproportionate assets case against former AIADMK leader SathyanarayananMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/no-alliance-with-bjp-matter-will-be-decided-during-elections-aiadmk-leader-tamil-nadu-2437235-2023-09-18</t>
+  </si>
+  <si>
+    <t>Sena vs Sena: Supreme Court's 1-week deadline for Maharashtra Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Supreme Court on Monday asked the Speaker of the Maharashtra Assembly to set a timeline for the hearing of the disqualification petitions against 56 MLAs including Chief Minister Eknath Shinde within a week. Chief Justice of India DY Chandrachud gave stern directions to the Speaker, Rahul Narwekar, and said the top court had been asking him to decide on the matter for four months. The disqualification petitions were filed by both factions of the Shiv Sena -- the Eknath Shinde faction and the Uddhav Thackeray camp -- against each other. The bench observed that there were a total of 34 petitions filed by both sides against each other seeking the disqualification of 56 MLAs.The Shiv Sena broke into two after Eknath Shinde, along with several other MLAs, staged a coup in June 2022 against the Maha Vikas Aghadi government led by Uddhav Thackeray. Thackeray resigned as Maharashtra CM and Shinde took his spot, with BJP's Devendra Fadnavis as his deputy. WHAT SUPREME COURT SAIDOn Monday, the Supreme Court bench comprising CJI DY Chandrachud, Justice JB Pardiwala, and Justice Manoj Misra was hearing a plea filed by Shiv Sena (UBT) MLA Sunil Prabhu seeking to expedite the Speaker's decision on the disqualification pleas from both sides. The court said the Speaker was asked on May 11 to decide the matter of the disqualification pleas "within a reasonable period” and since then, he had not done much apart from issuing notices to the MLAs in July. “We expect deference and dignity to the directions issued by the Supreme Court,” the bench said. It further said the Speaker is a “tribunal under the tenth schedule of the Constitution” (anti-defection law), and as a tribunal, he is amenable to the court's jurisdiction.  Sunil Prabhu's petition had alleged that Speaker Rahul Narwekar was deliberately delaying the adjudication despite the verdict of the Supreme Court in May. While handing over the case of disqualification to the Speaker in May, the Supreme Court refused to use the special powers under Articles 226 and 32 as requested by the Uddhav Thackeray camp and said that “there are no extraordinary circumstances in the instant case that warrant the exercise of jurisdiction by the court to adjudicate the disqualification petition”.Edited By: chingkheinganbi mayengbamPublished On: Sep 18, 2023Must Watch 
 </t>
   </si>
   <si>
     <t>law</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/law/story/no-high-courts-can-deny-access-to-virtual-hearings-supreme-court-direction-2445487-2023-10-06</t>
-  </si>
-  <si>
-    <t>For Sikkim lake that burst, early warning system was in the works: Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sikkim glacial lake that flooded following a cloudburst on Wednesday was set to get an early warning system, as per a report by Reuters. The early warning system could have given people more time to evacuate.A cloudburst over Lhonak Lake in North Sikkim triggered a flash flood in the Teesta river basin, claiming over 30 lives. Dozens are still missing. According to reports, scientists and government authorities were working on developing an early warning system to mitigate glacial flood risks at Lhonak Lake in the Himalayas.The initial phase of the warning system, which included a camera to monitor Lhonak Lake's water levels and weather instruments, had been installed just last month, as reported by officials involved in the project. "It's quite absurd, really," Geoscientist Simon Allen of the University of Zurich was quoted as saying by Reuters. He was involved with the early warning system project. "The fact it happened just two weeks after our team was there was completely bad luck".He said that plans had been underway to incorporate a tripwire sensor that could trigger an alert system, facilitating immediate evacuation alerts if the lake's integrity was compromised. However, due to logistical constraints, the government had opted for a two-step implementation approach.The system would have given authorities and residents a valuable 90-minute warning window, allowing them to evacuate in time. Additionally, this time frame would have allowed for the early activation of a hydropower station's floodgates.However, the monitoring devices that were installed and were supposed to send data to authorities had lost power for “unknown reason” last month, as per reports by Reuters. On Wednesday morning, the glacial lake outburst flood (GLOF) led to a rapid rise in water levels in Lake, causing severe damage in Mangan, Gangtok, Pakyong and Namchi districts. The calamity has affected thousands of people. Search and rescue operations are still underway in the Himalayan state.Edited By: Anuja JhaPublished On: Oct 6, 2023ALSO READ |  Sikkim disaster was waiting to happen, experts warned multiple timesMust Watch 
+    <t>https://www.indiatoday.in/law/story/supreme-court-maharashtra-assembly-speaker-set-deadline-shiv-sena-eknath-shinde-mlas-disqualification-2437286-2023-09-18</t>
+  </si>
+  <si>
+    <t>Women's reservation bill cleared by Cabinet? All you need to know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proposed women's reservation bill was cleared in a key meeting of the Union Cabinet chaired by Prime Minister Narendra Modi, sources told India Today TV on Monday. The proposed bill, which has been pending for nearly 27 years, seeks to reserve one-third of all seats for women in the Lok Sabha and state legislative assemblies.WOMEN'S RESERVATION BILLThe proposed legislation seeks 33 per cent reservation for women in the Lok Sabha and state Assemblies. While the government is yet to confirm the news and give out details of the proposed legislation, here's what the structure of the bill was when it was last introduced in Parliament in 2008.The Constitution (One Hundred and Eighth Amendment) Bill, 2008 sought to reserve one-third of all seats for women in the Lok Sabha and the state legislative assemblies. The reserved seats for women parliamentarians may be allotted by rotation to different constituencies in a state or Union territory.The system of reserving seats for women would cease to exist 15 years after it is put into place, the bill stated.One-third of the total number of seats reserved for Scheduled Castes and Scheduled Tribes shall be reserved for women of those groups in Lok Sabha and the state assemblies. HISTORY OF WOMEN'S RESERVATION BILLThe bill was first introduced in Lok Sabha as the 81st Amendment Bill in September 1996 by then Prime Minister Deve Gowda-led United Front government. The bill failed to get the approval of the House and was referred to a joint parliamentary committee which submitted its report to Lok Sabha in December 1996. However, the bill lapsed with the dissolution of the Lok Sabha.In 1998, then Prime Minister Atal Bihari Vajpayee-led National Democratic Alliance (NDA) government reintroduced the bill in the 12th Lok Sabha. After then Law Minister M Thambidurai introduced it, a Rashtriya Janata Dal (RJD) MP went to the well of the House, grabbed the bill, and tore it to bits. The bill failed to get support and lapsed again.It was reintroduced in 1999, 2002, and 2003. Even though there was support for it within the Congress, the BJP, and the Left parties, the bill failed to receive majority votes.In 2008, then Prime Minister Manmohan Singh-led United Progressive Alliance (UPA) government tabled the bill in the Rajya Sabha. It was passed with 186-1 votes on March 9, 2010. However, the bill was never taken up for consideration in the Lok Sabha and lapsed with the dissolution of the 15th Lok Sabha.At the time, the RJD, the Janata Dal (United), and the Samajwadi Party (SP) were its most vocal opponents. They demanded a 33 per cent reservation for backward groups within the 33 per cent quota for women.CURRENT STATUSThe last concrete development on the issue was in 2010 when Rajya Sabha passed the bill amid a ruckus with marshals escorting out some MPs who opposed the move. However, the bill lapsed as it could not be passed by Lok Sabha.On Monday, the first day of Parliament's special session, Prime Minister Narendra Modi held a cabinet meeting where the bill was cleared, according to sources. Several political parties have been demanding that the bill be cleared, including the Congress, Bharat Rashtra Samithi and Biju Janata Dal. The government will need two-thirds support in each House of Parliament for the bill to be taken up for consideration and passing.ARGUMENTS FOR THE BILLOne of the key arguments in favour of the bill is that affirmative action is needed to better the condition of women in Indian society. As per stats revealed by the central government, women make up 14.94 per cent of the seats in Lok Sabha while the number falls to 14.05 per cent in Rajya Sabha. The percentage is even lower and often falls to single digits in the state assemblies. Another key argument is that women's representation is needed in the decision-making process to address issues such as the high percentage of crimes against women, low participation of women in the workforce, low nutrition levels, and a skewed sex ratio.ARGUMENTS AGAINST THE BILLOne of the key arguments against the bill is that women are not a homogeneous community, such as a caste group. Another argument states that reserving seats for women would violate the Constitution's guarantee of equality. Those who make this argument state that if a reservation is put into place, women would not compete on merit.Many also argue that it is not possible to reserve seats in Rajya Sabha due to the existing system of elections to the upper house. The Rajya Sabha MPs are elected through a single transferable vote, which means that the votes are first allocated to the most preferred candidate, and then to the next preferred candidate, and so on.This system cannot accommodate the principle of reserving a certain number of seats for a particular group -- even for SCs and STs.Edited By: chingkheinganbi mayengbamPublished On: Sep 18, 2023Must Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-history-status-arguments-2437423-2023-09-18</t>
+  </si>
+  <si>
+    <t>Welcome Union Cabinet's decision but...: Congress on women's reservation bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Congress on Monday welcomed the reports of the Union Cabinet clearing the women's reservation bill to be introduced in the Lok Sabha. However, the party maintained that they would await the details of the proposed bill.Taking to X (formerly Twitter), Congress leader Jairam Ramesh said, "It’s been a long-standing demand of the Congress party to implement women’s reservation. We welcome the reported decision of the Union Cabinet and await the details of the Bill."The Congress leader further said this could have very well been discussed in the all-party meeting before the Parliament's special session, and consensus could have been built instead of operating under a veil of secrecy.He also shared a detailed post he made on Sunday to underline how the Congress has been supporting the move.Emphasising the ongoing speculation regarding the clearance of the bill, Bharat Rashtra Samithi (BRS) leader K Kavitha said, "Every TV channel is saying women's reservation is approved, however, it hasn't been officially announced by the Cabinet yet.""There could be a slip between the lip and the cup," said the BRS leader, adding, "My only worry is that the government should work towards bringing about consensus."The bill guarantees a 33 per cent reservation for women in Lok Sabha and state assemblies. Across political lines, several leaders demanded the introduction of this key bill.However, an official announcement regarding the bill is awaited as the government skipped its customary press briefing post the Cabinet meeting.Edited By: Rishabh SharmaPublished On: Sep 18, 2023READ |  Congress seeks passage of Women's Reservation Bill in Parliament special sessionREAD |  Women's Reservation Bill cleared in key Cabinet meet chaired by PM Modi: Sources
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/congress-womens-reservation-bill-parliament-special-session-union-cabinet-meeting-2437417-2023-09-18</t>
+  </si>
+  <si>
+    <t>'Carry on, bolne do': How Sonia Gandhi guided Adhir Ranjan in Lok Sabha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader of Opposition in Lok Sabha Adhir Ranjan Chowdhury on Monday gave a speech in the Lower House during the special session of Parliament, saying that there had been apprehensions in people's minds about the country being run through a "one-party dictatorship". Adhir Ranjan Chowdhury addressed the House following Prime Minister Narendra Modi's opening remarks during the first day of the five-day special sitting. Notably, Sonia Gandhi, seated next to him, actively assisted and guided him as he delivered his speech, especially in the face of frequent objections raised by members of the ruling dispensation."Carry on... carry on... carry on", "no, no that's true, bolne do (let him speak)" and "very good" (at the end of Chowdhury's speech) were the verbal interjections made by Sonia Gandhi during the Leader of Opposition's speech in Lok Saha.  
+During his 22-minute long speech, Adhir Ranjan Chowdhury touched upon various issues, including lack of inclusivity in Parliament, equal opportunities for all MPs, plurality and even listed out some achievements of previous UPA governments. Throughout Chowdhury's speech, Sonia Gandhi was actively seen thumping the bench, asking those objecting to his speech to stay quiet and at times even prompting the senior Congress leader what to say next. After being prompted by Sonia Gandhi to speak about Information and Technology (IT), Adhir Ranjan Chowdhury said, "The information technology revolution was brought during the tenure of former prime minister Rajiv Gandhi, who was also instrumental in bringing the Panchayati Raj Act, that established democracy at the grassroots"Speaking about inclusivity, Adhir Ranjan Chowdhury ended his speech quoting a popular dialogue of yesteryear's Bollywood hit, "Jindagi lambi nahi, badi honi chahiye (life should be big instead of long)".Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  ‘You can’t be super LoP’: Rajya Sabha Chairman scolds Congress’s Jairam RameshALSO READ |  Constitution copy, coin for MPs on special session in new Parliament buildingMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/parliament-session-adhir-ranjan-chowdhury-speech-sonia-gandhi-carry-on-lok-sabha-2437403-2023-09-18</t>
+  </si>
+  <si>
+    <t>Another student dies by suicide in Kota, 26th case this year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A student allegedly died by suicide in Rajasthan's Kota, the police said on Monday. This is the second such case in the past two weeks, and 26th this year in the coaching hub of Rajasthan.As per initial inquiry, the police said the girl, who is a minor, consumed poison. The reason for her action is yet to be known.According to police, the student was a resident of Uttar Pradesh's Mau area.Additional Superintendent of Police Bhagwat Singh Hinger said the girl consumed poison. Her body has been sent for post-mortem.Further investigation is underway.Two days ago, a 16-year-old student, who was preparing for National Eligibility cum Entrance Test (NEET) died by suicide by hanging herself in Rajasthan's Kota.Around two lakh students flock to Kota annually, hoping to qualify for competitive exams like the Joint Entrance Exam (JEE) and the National Eligibility-cum-Entrance Test (NEET).As per information, a total of 26 students have died by suicide in Kota in just eight months this year.With input from Jay KishanEdited By: Ashmita SahaPublished On: Sep 18, 2023READ |  18-year-old student dies by suicide in Rajasthan's Kota, 22nd this yearMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/student-die-suicide-kota-rajasthan-2437387-2023-09-18</t>
+  </si>
+  <si>
+    <t>Karnataka's Hoysala temples make it to Unesco's World Heritage List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hoysala temples of Karnataka, located in the Belur, Halebidu and Somananthpura regions, made their way into the Unesco World Heritage list. The announcement was made on Unesco's official handle on X (formerly Twitter) on Monday.  
+The temples, called the 'Sacred Ensembles of the Hoysala', have been on Unesco's tentative list since April 2014. It was finalised as India’s nomination for consideration as a World Heritage Site for 2022-23 in January 2022. The temples were built in the 12th to 13th centuries and stand as symbols of the creativity and skill of the artists and architects of the Hoysala era. The Hoysala Empire ruled a large portion of the modern day state of Karnataka between the 10th and 14th centuries. The capital of the empire was initially located at Belur and later moved to Halebidu.The Hoysala temples have a basic traditional Darvidian morphology but show strong influences of the Bhumija mode widely used in central India, the Nagara traditions of northern and western India, and the Karnata Dravida mode favoured by the Kalyani Chalukyas. The architects drew inspiration from different types of temple architecture and the result was the birth of a completely new 'Hoysala Temple' form.The official website of Unesco said the shrines in the temples are characterised by hyper-real sculptures and stone carvings that cover the entire architectural surface, a circumambulatory platform, a large-scale sculptural gallery, a multi-tiered frieze, and sculptures of the Sala legend.Prime Minister Narendra Modi reacted to the news of the temples being recognised as a World Heritage Site and said, "The timeless beauty and intricate details of the Hoysala temples are a testament to India's rich cultural heritage and the exceptional craftsmanship of our ancestors."  
+On Sunday, it was announced that West Bengal's Santiniketan has been inscribed on the Unesco World Heritage List. Santiniketan is a landmark site known for being the place where Rabindranath Tagore built Visva-Bharati over a century ago. Edited By: chingkheinganbi mayengbamPublished On: Sep 18, 2023
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/karnataka-sacred-ensembles-of-hoysala-temples-unesco-world-heritage-list-2437383-2023-09-18</t>
+  </si>
+  <si>
+    <t>DMK MP TR Baalu advises Udhayanidhi to be cautious, says 'Entire country...'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dravida Munnetra Kazhagam (DMK) Treasurer and MP, TR Baalu, issued a cautionary note to Tamil Nadu minister Udhayanidhi Stalin, advising him to take careful steps in his political career. Baalu's remark came in the wake of a controversy stirred by Udhayanidhi, who had earlier compared Sanatana Dharma with diseases like dengue and malaria, calling for its eradication. Addressing an event - Mupperum Vizha 2023 - on Monday, Baalu said, "The entire country is scared of the DMK Youth Wing Head, wondering what he will do next."advertisement'UDHAYANIDHI ONLY SCARED OF HIS FATHER' Emphasising that Udhayanidhi is only scared of his father, the DMK treasurer said, "He is speaking anything thinking he can manage later. But, I caution him to remember that it is his duty to make sure that the object he holds in his hand should not fall down and break." Emphasising that Udhayanidhi is only scared of his father, the DMK treasurer said, "He is speaking anything thinking he can manage later. But, I caution him to remember that it is his duty to make sure that the object he holds in his hand should not fall down and break." Baalu also pointed out that leaders from the Opposition's INDIA bloc initially reacted to the twisted reports of Udhayanidhi's comments, and that they only calmed down after being shown the accurate media reports. He further cautioned Udhayanidhi to be mindful of his statements, as they are being twisted out of jealousy.DMK's TR Baalu's statements came on a day when the party workers organised an event celebrating the birth anniversaries of revered figures Kalaignar Karunanidhi, Perarignar Anna, and Periyar.UDHAYANIDHI STALIN's REMARKSEarlier this month, Udhayanidhi, the son of Tamil Nadu Chief Minister MK Stalin, likened Sanatana Dharma with "malaria" and "dengue" while calling for its eradication. The DMK minister argued that Sanatana Dharma is based on the caste system and discrimination."Rather than opposing Sanatana, it should be eradicated. The name Sanatana is from Sanskrit. It is against social justice and equality," the minister said. Udhayanidhi even posted a picture of mosquito coil on social media adding flame to the fire.Even after it led to a huge political controversy at the national level, Udhayanidhi said he stands by his words and clarified that his comments were falsely portrayed as a call for genocide.Edited By: Ashmita SahaPublished On: Sep 18, 2023READ |  After Sanatana Dharma remark, Udhayanidhi Stalin calls BJP a 'poisonous snake'Must Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/india-scared-udhayanidhi-dmk-tr-baalu-sanatana-dharma-remark-2437284-2023-09-18</t>
+  </si>
+  <si>
+    <t>Sonia Gandhi shown as goddess in Telangana posters, BJP calls it 'shameful'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bharatiya Janata Party (BJP) has slammed the Congress after posters portraying former party chief Sonia Gandhi as a goddess were put up in Telangana. The posters show Sonia Gandhi dressed as a goddess, sporting a jeweled crown. The posters also depict a map of Telangana emerging from her right palm.  Terming the Congress workers' move "shameful", BJP spokesperson Shehzad Poonawala said that the grand old party has always seen their "parivar" as bigger than the country and its people. The posters were put up after a Congress Working Committee (CWC) meeting held in Hyderabad concluded on Sunday. The meeting was held to discuss matters related to the upcoming Assembly polls in the state.   The meeting was attended by senior Congress leaders, including Sonia Gandhi, Rahul Gandhi, Priyanka Gandhi and party chief Mallikarjun Kharge. BJP's REACTIONTaking to microblogging website X, Poonawala accused the Congress of making it a habit of insulting Bharat. He said, "First Congress leaders like Aradhna Mishra said Bharat Mata ki Jai is against party discipline; in the past BD Kalla has said say Sonia Mata ki Jai not BMKJ. Now Congress equates Sonia Gandhi to Bharat Mata just like they had equated Indira to India ! This is utterly shameful."Meanwhile, following the CWC meeting, Sonia Gandhi addressed a rally in Telangana's Tukkuguda, and said it is her dream to see the party's government in Telangana that will work for all sections of society. "I along with my colleagues had the opportunity to be a part of the birth of this great state, Telangana. Now, it is our duty to elevate the state to new heights," she said at the rally.With inputs from Apoorva JayachandranEdited By: Ashmita SahaPublished On: Sep 18, 2023READ  |  Set differences aside, prioritise party's success: Congress chief at top panel meetMust Watch 
+</t>
+  </si>
+  <si>
+    <t>elections</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/elections/telangana-assembly-polls-2023/story/congress-sonia-gandhi-devi-poster-crown-telangana-bjp-calls-shameful-2437315-2023-09-18</t>
+  </si>
+  <si>
+    <t>Telangana minister KTR to move censor board over 'Razakar' movie teaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The teaser release of 'Razakar' movie, a periodic drama depicting events in Nizam's Hyderabad before its accession to the Indian Union in 1948, has ignited a storm of controversy on social media and the political landscape. The teaser, which claims to be based on true stories, portrays alleged atrocities against Hindus committed by the Razakars in their pursuit of promoting Islam and establishing 'Turkistan'.Raising strong objections to the movie and even its teaser release, Telangana minister KT Rama Rao (KTR) said that some  "intellectually bankrupt jokers of the BJP" are doing their best to instigate communal violence and polarisation. The minister also said that he would take up the matter with the censor board and Telangana Police. "Some intellectually bankrupt jokers of the BJP are doing their best to instigate communal violence and polarisation for their political propaganda in Telangana. We will take up the matter with the censor board and also the Telangana police to ensure that the law &amp; order situation of Telangana is not affected," KTR wrote on X (formerly known as Twitter).
+KTR's response came in reply to a social media user who had urged the minister to prevent the release of what they described as a "fake propaganda movie" to maintain peace and harmony in Hyderabad and Telangana. The teaser of 'Razakar' movie, backed by BJP leader Gudur Narayana Reddy, was unveiled on Sunday evening. During the launch event, suspended BJP leader and Goshamahal MLA T Raja Singh praised the film, drawing comparisons to 'The Kashmir Files' and 'The Kerala Story'."An excellent film titled 'Razakar' is soon to be released, focusing on the tragic events of the # Hyderabad massacre during India's struggle for independence, specifically targeting Hindus. I urge people to help promote awareness of this movie nationwide and contribute to its success," T Raja Singh tweeted in Hindi. 
+Even former Telangana BJP chief and Karimnagar MP Bandi Sanjay Kumar shared the teaser of the movie on X. "Literally got goosebumps watching the trailer of the movie Razakar... Current generations should know about the struggles of the Hyderabad Liberation. Let's engage with history even as their pseudo-intellectuals try to erase it," he wrote.WATCH RAZAKAR TEASER WHAT RAZAKAR MEANS?The term "Razakars" refers to volunteers who were part of a private militia led by Qasim Razvi, the president of Majlis-e-Ittehadul Muslimeen (founded in 1927). The Razakars employed strong-arm tactics to maintain Hyderabad's independence during the tumultuous period following India's independence. Reportedly, they enjoyed the support of Nizam's government and influential landlords who sought to suppress the peasant uprising after 1946.Edited By: Sahil SinhaPublished On: Sep 18, 2023ALSO READ |  'Change scriptwriter': K Kavitha on Rahul Gandhi's 'BJP Rishtedar Samithi' jibeALSO READ |  9 years on, why Telangana statehood is still an election issue
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/razakar-movie-release-ktr-to-move-censor-board-hits-out-at-jokers-of-bjp-2437356-2023-09-18</t>
+  </si>
+  <si>
+    <t>New Kia Sonet launch in India in first half of 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kia India will launch the new Sonet in the country in the first half of 2024. This would be the first major update that the sub-4 metre compact SUV will get since its initial introduction in September 2020.The Kia Sonet rivals the likes of the Maruti Suzuki Brezza, Tata Nexon, Hyundai Venue and Mahindra XUV300.While the Sonet has been the volume driver for Kia along with the Seltos, its wholesales have taken a hit in the past two months.For reference, the Sonet recorded wholesales of 4,245 units and 4,120 units in July and August, respectively. This is much below the vehicle's average monthly volume of 7,841 units in FY23 (94,096 units for the entire fiscal).In the face of stiff competition from other compact SUVs, an updated Kia Sonet must enter the market soon.We will launch the new Sonet in 2024, a source told India Today, adding that the vehicle could possibly enter the market in the first half.The Sonet is one of the most feature-loaded models in the compact SUV segment, boasting several segment-first and segment-best features. It offers multiple powertrain options.Diligently priced between Rs 7.79 lakh and Rs 14.89 (ex-showroom) at present, the Sonet is, no doubt, one of the most value-for-money models in the compact SUV segment.In its 2024 avatar, expect the Sonet to get even more bells and whistles. Its price will witness a movement towards the north as well. Edited By: Varun SinghPublished On: Sep 18, 2023ALSO READ |  Scorpio-N, XUV700, Thar to have lower waiting period with Mahindra enhancing capacityALSO READ |  Citroen C3 Aircross SUV launched in India at Rs 9.99 lakh, bookings open nowALSO READ |  Bharat NCAP command and control centre inaugurated in PuneMust Watch 
+</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/auto/cars/story/new-kia-sonet-launch-in-india-in-first-half-of-2024-2437391-2023-09-18</t>
+  </si>
+  <si>
+    <t>‘You can’t be super LoP’: Rajya Sabha Chairman scolds Congress’s Jairam Ramesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajya Sabha Chairman Jagdeep Dhankhar on Monday pulled up Congress leader Jairam Ramesh for his intervention on behalf of Leader of Opposition Mallikarjun Kharge. "This is not a good habit. You are a victim of this habit. You cannot be super LoP. He does not need assistance," said Dhankhar, as he scolded Ramesh during a discussion on 'Parliamentary Journey of 75 Years Starting from Samvidhan Sabha - Achievements, Experiences, Memories, and Learnings'.Dhankhar's remark came after Jairam Ramesh and other Congress leaders asked him to let Kharge speak. "Why are you commentating on his speech? Allow him to speak... You are constantly interrupting," said Ramesh.Chairman Dhankhar went on to attack Congress and said the party is absent when there is an opportunity to participate. "The problem is, when an issue has to be debated, discussed, and deliberated, you walked out of the House," he said, telling Ramesh he cannot be "super LoP". When the Chairman raised questions about Congress for disrupting Parliament proceedings, Kharge said the party was only following the steps of late BJP leaders Arun Jaitley and Sushma Swaraj when they were in Opposition. "The job of Parliament is to discuss. Whenever issues are ignored, creating obstacles is in the interest of the public system. Therefore, parliamentary obstruction cannot be called undemocratic," Kharge said, quoting a remark made by Jaitely during an Upper House proceeding on January 30, 2011. The Chairman responded to his remarks, saying, "After thinking carefully, tell me, how long will we continue to disturb the house based on past precedent? How long will we continue to justify the disturbance?"This is when Kharge remarked the Chairman was allowing him to speak. "When participation could have taken place, you people were not there," Dhankhar said in response. While Ramesh urged the Chair to expunge his statement, Dhankar said, "I am not a stakeholder in politics. I am certainly a stakeholder that this Upper House, the house of Elders conducts itself in a manner so that it earns respect from others."He also asked Mallikarjun Kharge to put his members in discipline. Another Opposition member urged the Chair not to cast aspersions on all parties.In his argument supporting disruptions in house proceedings, Kharge said Congress "is attacked" when it is only following in the footsteps of late BJP leader Sushma Swaraj, who had said, "Not allowing Parliament to function is also a form of democracy in other words".With PTI InputsEdited By: Poorva JoshiPublished On: Sep 18, 2023ALSO READ |  Parliament special session kickstarts: 8 bills, move to new building on agendaALSO READ |  G20’s success India’s, not individual’s or party’s: Top PM quotes in ParliamentMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/rajya-sabha-chairman-scolds-congress-jairam-ramesh-super-lop-house-disruptions-2437264-2023-09-18</t>
+  </si>
+  <si>
+    <t>Constitution copy, coin for MPs on special session in new Parliament building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members of Parliament will receive a copy of the Constitution of India, books related to the Parliament, a commemorative coin and a stamp on the opening day of the new Parliament building on Tuesday. A giftbag will contain these presents for the MPs. The new Parliament complex was inaugurated by Prime Minister Narendra Modi on May 28. Day 2 of the special Parliament session will take place in the new building.A look at gifts for the MPs:  
+Commemorative coin 
+Gift bag containing a copy of the Constitution of IndiaWhile the Rajya Sabha will meet at 2:15 pm in the Upper House chamber of the new Parliament building, the Lok Sabha will meet at 1:15 PM in the Lower House chamber of the newly constructed complex.On Monday, MPs held discussions in both Houses on "Parliamentary Journey of 75 years starting from Samvidhan Sabha -- Achievements, Experiences, Memories and Learnings".Edited By: Poorva JoshiPublished On: Sep 18, 2023Must Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/constitution-of-india-booklet-coin-for-mps-on-new-parliament-buildings-opening-2437361-2023-09-18</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram Mayor brings her baby to work, sparks debate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvananthapuram Mayor Arya Rajendran, who gained national attention as the youngest mayor in the country, has sparked a debate after a photograph of her working in her office with her one-month-old baby went viral on social media.The image of Mayor Arya Rajendran reviewing files while carrying her infant garnered mixed reactions from the public. Some commended her as a trailblazing example of a woman who effortlessly manages both her professional and personal responsibilities, emphasising the potential for achieving a perfect work-life balance. Many saw her actions as a testament to the idea that motherhood need not hinder a woman's career ambitions.Besides plaudits, the photo also drew criticism and online trolling. Critics questioned the authenticity of the image, deeming it a mere photo opportunity. Some comments highlighted the privilege that women in high-ranking positions enjoy, contrasting this with the challenges faced by daily wage laborers who lack such privileges.The photograph has sparked important discussions regarding the need for childcare facilities, including creche centers, within workplaces. Simultaneously, the previous government directive discouraging children's presence in government offices has resurfaced as a topic of debate.Arya Rajendran, 24, secured her position as the youngest mayor in the country when she assumed office in 2020 at the age of 21. She is married to CPI(M) MLA Sachin Dev, the youngest MLA in the current Kerala Assembly. The couple welcomed their baby girl on August 10, which further stoked discussion among netizens about the challenges and opportunities faced by women in public office while juggling motherhood.Edited By: Vadapalli Nithin KumarPublished On: Sep 18, 2023ALSO READ |  Nipah virus: Schools, colleges closed in Kerala's Kozhikode indefinitelyMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/youngest-mayor-arya-rajendrans-viral-photo-sparks-debate-on-work-life-balance-2437192-2023-09-18</t>
+  </si>
+  <si>
+    <t>Is this Covid-19 cure worse than the virus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molnupiravir, an antiviral drug used to treat Covid-19, has been the subject of extensive research and debate due to its unique mechanism of action. The drug works by inducing mutations in the SARS-CoV-2 virus, which can lead to the virus's destruction. However, this approach has raised concerns about the potential creation of new, treatment-resistant strains of the virus.A team of researchers, including Harvard professor of mathematics and biology Martin Nowak, investigated these concerns.  Their study, published in PLOS Biology, suggests that molnupiravir is "marginally evolutionarily safe," which means that when used correctly, the drug reduces the virus's ability to create surviving mutants. The team used math to answer the question whether molnupiravir could lead to harmful mutations of the virus that causes Covid-19.The researchers developed mathematical rules to describe the increase and decrease of viral load after infection. They compared the total amount of original and mutant viruses produced by a patient during an infection. Their findings suggest that a patient who receives molnupiravir produces fewer mutants over time than a patient who does not receive the drug. This process, known as lethal mutagenesis, occurs when the virus reaches its error threshold - the point at which mutations make its survival impossible. The researchers propose that drugs causing lethal mutagenesis should be pursued further, and their evolutionary safety should be carefully evaluated.  
+The drug works by inducing mutations in the SARS-CoV-2 virus. (Photo: Getty)Molnupiravir belongs to a class of drugs called nucleoside analogs, which also includes drugs used to treat HIV. The researchers suggest that a drug with an even better ability to cause lethal mutagenesis might be more evolutionarily safe than molnupiravir. However, the study also indicates that molnupiravir may be more effective for patients who have difficulty clearing the virus on their own. For healthier patients who can clear the virus quickly, the total number of mutants remains low regardless of whether they receive the drug.Edited By: Sibu Kumar TripathiPublished On: Sep 18, 2023Must Watch 
+Molnupiravir belongs to a class of drugs called nucleoside analogs, which also includes drugs used to treat HIV. The researchers suggest that a drug with an even better ability to cause lethal mutagenesis might be more evolutionarily safe than molnupiravir. However, the study also indicates that molnupiravir may be more effective for patients who have difficulty clearing the virus on their own. For healthier patients who can clear the virus quickly, the total number of mutants remains low regardless of whether they receive the drug.Edited By: Sibu Kumar TripathiPublished On: Sep 18, 2023Must Watch 
 </t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/science/story/sikkim-glacial-lake-that-flooded-was-set-to-get-early-warning-system-2445456-2023-10-06</t>
-  </si>
-  <si>
-    <t>To BJP’s Rahul Gandhi as ‘Ravan’ poster, Congress’s ‘Adani puppet’ barb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A full-blown poster war has erupted between the Congress and the BJP as the parties go into overdrive for elections to five assembly states in a few weeks. A BJP tweet showing Congress's Rahul Gandhi as a "new-age Ravan" has drawn strong criticism from the party which has returned fire with a poster showing Prime Minister Narendra Modi captioned as "Adani".It started with the Congress taking a dig at PM Modi on 'X' on Wednesday, sharing a poster that said "The Biggest Liar". Another, designed as a film poster, was captioned "PM Narendra Modi as Jumla Boy". 
-Poster shared by Congress on X 
-Poster shared by Congress on XThe BJP hit back the day after, with its version of a film poster targeting Rahul Gandhi. It shows the Congress leader as a 'new-age Ravan', referring to the Hindu mythological character. "Bharat Khatre Mein Hai - A Congress party production. Directed by George Soros," the poster reads.The caption reads: "He is evil. Anti Dharma. Anti Ram. His aim is to destroy Bharat".  
-BJP's X handle posted a poster of Rahul Gandhi (Credits: BJP/X)Calling the poster "obnoxious" and "downright dangerous", the Congress, on Thursday, said that the 'Ravan' poster was "clearly intended to incite and provoke violence" against Rahul Gandhi."What is the real intent of an atrocious graphic portraying Rahul Gandhi as Ravan by the BJP's official handle? It is clearly intended to incite and provoke violence against a Congress MP and a former President of the party, whose father and grandmother were assassinated by forces that want to divide India," Congress's Jairam Ramesh said in a post on X."It is one thing for the PM to give evidence daily of being a pathological liar and of suffering from a narcissistic personality disorder. But for him to get his party to produce something this obnoxious is not just completely unacceptable, but is downright dangerous," Ramesh said."We will not be intimidated," he asserted.Reacting to the poster, Priyanka Gandhi Vadra said in a post in Hindi on X, "Most respected @narendramodi ji and shri @JPNadda ji, what level do you want to take politics and debate to? Do you agree with the violent and provocative tweets being posted from the official Twitter handle of your party?""Not much time has passed when you took a vow of uprightness. Have you forgotten the oaths taken just as the promises made?" she asked.The Congress also responded in kind, tweeting yet another poster showing PM Modi that read Adani, repeating its allegation that the billionaire pulled the strings in the government.      
-Congress posted another poster of PM Modi on X. (Credits: INCIndia/X)Earlier too, both parties had launched cartoon strips against leaders of both the opposing parties on social media.Edited By: Vani MehrotraPublished On: Oct 6, 2023ALSO READ  |  Insult to Muslim girls: AIMIM leader on Rahul Gandhi naming pet dog 'Noorie'ALSO READ  |  'Greater population, greater rights': Rahul Gandhi on Bihar caste census resultsMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/congress-bjp-poster-war-rahul-gandhi-new-age-ravan-several-heads-jairam-ramesh-slams-party-2445258-2023-10-06</t>
-  </si>
-  <si>
-    <t>Explosion-like sound near atomic commission office in Pakistan: Reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An explosion-like sound was reported at Pakistan's Dera Ghazi Khan on Friday, where the government's atomic energy department is located. India Today could not independently verify these reports.  
-The impact of the "explosion" was reported to have been felt around 50 kilometres away from the site.  
-This came just days after two suicide blasts took place in Balochistan and Khyber Pakhtunkhwa within a span of a few hours. At least 65 people were killed in the twin blasts. In Balochistan, the explosion took place near a mosque after a bomber detonated his explosives near a police vehicle where people were gathering for a procession to mark the birthday of the Prophet Mohammad. In Khyber Pakhtunkhwa too, the explosion took place at a mosque. Edited By: Rishabh SharmaPublished On: Oct 6, 2023Trending Reel 
-</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/explosion-atomic-commission-office-dera-ghazi-khan-pakistan-dead-injured-reports-2445459-2023-10-06</t>
-  </si>
-  <si>
-    <t>Supreme Court won’t stop Bihar from publishing caste survey data, issues notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Supreme Court on Friday said it will not stop the Bihar government from publishing the details of the caste census, saying it cannot interfere in the state's policymaking decision.A bench of Justices Sanjiv Khanna and SVN Bhatti issued a formal notice on a batch of pleas challenging the August 1 order of the Patna High Court that gave the go-ahead for the caste survey in Bihar. It listed the matter in January 2024.The bench sought a response from the Bihar government over the matter within four weeks.According to the lawyer of the petitioners, the caste census data had not been collected as per the Supreme Court's orders and there was no legitimate aim for collecting the details for the survey.The Supreme Court rejected the objections of the petitioners that the Bihar government had preempted the stay order by publishing some data and demanded an order to stop further publication of data."We are not pausing anything at this moment. We cannot stop the state government or any government from taking a policy decision. That would be wrongâ€æWe are going to examine the other issue regarding the power of the state government to conduct this exercise," the bench said.Senior advocate Aprajita Singh, appearing for the petitioners, said there was a breach of privacy in the matter and the high court order was wrong.
-In response, the bench said since the name and other identities of any individual have not been published, therefore the argument that there was a breach of privacy may not be correct.
-"The more important issue for consideration of the court is a breakdown of data and its availability to the public," the bench said.
-On October 2, the Nitish Kumar government in Bihar released the findings of its caste census, months ahead of the 2024 Lok Sabha polls. The data revealed that Other Backward Classes (OBCs) and Extremely Backward Classes (EBCs) constituted a whopping 63 per cent of the state's total population.(with inputs from PTI)Edited By: Shreyasi JhaPublished On: Oct 6, 2023ALSO READ |  How Bihar caste survey could be Nitish Kumar’s last roll of the diceALSO READ |  Bihar's caste-based survey results out: Decoding it and political implicationsMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/law/story/bihar-caste-census-supreme-court-notice-to-bihar-government-reply-nitish-kumar-2445391-2023-10-06</t>
-  </si>
-  <si>
-    <t>NewsClick FIR: Foreign funds illegally infused into India, siphoned off by...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The accused of NewsClick, the online portal, which is being investigated for its alleged China-linked entities to push Chinese propaganda, were involved in "continuous unlawful activities" to "undermine" India's "sovereignty and territorial integrity", according to an FIR lodged by the Delhi Police.The FIR says that one People's Dispatch Portal, owned and maintained by NewsClick, was used for allegedly intentionally peddling false narratives about Jammu and Kashmir and Arunachal Pradesh through paid news in crores of rupees of illegally routed foreign funds as part of a conspiracy.Big Chinese telecom companies such as Xiaomi and Vivo incorporated thousands of shell companies in India in violation of the Foreign Exchange Management Act (FEMA) for illegally infusing foreign funds in India, the FIR said.NewsClick founder and editor-in-chief Prabir Purkayastha, activist Neville Roy Singham and writer Geeta Hariharan conspired to create a legal community network in India to put up a "spirited defence of legal cases" against these Chinese telecom companies "in return for benefits", the FIR said, while naming one "Gautam Bhatia" as a "key person".Purkayastha and human resources department head Amit Chakravarty were on Tuesday arrested in a case lodged under the anti-terror law UAPA, in connection with the alleged funding to NewsClick from China to peddle a fake narrative about the central government.According to the FIR, Indian entities and foreign establishments conspired to support and fund the farmers' protest with the objective of causing losses amounting to several hundreds of crores to the Indian economy.The accused propagated false narratives to discredit the efforts of the central government's Covid-19 management and conspired to sabotage the 2019 general election, the FIR said."The accused have employed a web of illegal transactions through illegal and circuitous routes using several companies to illegally infuse foreign funds for perpetrating the aforementioned acts through conspiracy," it alleged.Foreign funds amounting to crores of rupees have been received by NewsClick through illegal means since April 2018.These funds were fraudulently infused by Neville Roy Singham, who the FIR described as an "active member of the Communist Party of China".Gautam Navlakha -- a shareholder in Newsclick -- was allegedly involved in anti-India activities and actively supporting banned Naxal organisations and having a nexus with a spy agent from Pakistan's Inter-Services Intelligence (ISI).It is alleged that NewsClick employees and owners shared emails with people in China with the intent of showing Jammu and Kashmir and Arunachal Pradesh as "disputed territories"."These illegally routed foreign funds have been siphoned off by Prabir Purkayastha and his associates, namely Joseph Raj, Anoop Chakraborty (brother of Amit Chakraborty), Bappaditya Sinha (promoter of Virtunet Systems Pvt Ltd.)," the FIR said."It is also learnt that these funds were distributed to Gautam Navlakha, and associates of Teesta Seetalwaad, namely Javed Anand, Tamara, Jibran, Urmilesh, Aratrika Halder, Paranjoy Guha Thakurta, Trina Shankar, Abhisar Sharma," it further alleged.Edited By: Shreyasi JhaPublished On: Oct 6, 2023ALSO READ |  'Working under threat...': Press bodies write to Chief Justice on NewsClick raidsALSO READ |  Those linked to NewsClick to get notices under anti-terror law: SourcesMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/accused-conspired-for-unlawful-activities-terror-acts-undermined-indias-sovereignty-cops-on-newsclick-2445412-2023-10-06</t>
-  </si>
-  <si>
-    <t>Drunk man urinates on elderly couple onboard train in Uttar Pradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A man urinated on an elderly couple travelling in the Uttar Pradesh Sampark Kranti train. The incident occurred after the couple had an altercation with the man over consuming alcohol during the journey.The retired scientist couple, hailing from Madhya Pradesh, was traveling in an AC-3 coach of the train. According to the allegations, another passenger travelling in the compartment was drinking alcohol during the journey. This led to a confrontation between the man, identified as Ritesh, and the couple. In the heat of the argument, Ritesh allegedly urinated on the couple's berth.The incident caused a commotion among the passengers, and the couple immediately reported the matter to the railway staff.Upon receiving the complaint, the Railway Protection Force (RPF) arrived at Jhansi station. They promptly removed the man from the train and initiated an investigation into the matter. Based on the statement provided by the train's Ticket Examiner (TTE), a case was registered against the accused.(Inputs by Amit Shrivastava)Edited By: Anuja JhaPublished On: Oct 6, 2023ALSO READ |  Agra man urinates on another lying unconscious on road, friend films act; arrested
-</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/crime/story/drunk-man-urinates-on-elderly-couple-onboard-train-in-uttar-pradesh-2445522-2023-10-06</t>
-  </si>
-  <si>
-    <t>8 Sikhs in Canada arrested over firearms-related offences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canadian police have apprehended around eight Sikh youths aged between 19 to 26 years in relation to possession of loaded, prohibited or restricted firearms in Brampton city in Ontario province.According to the Peel Regional Police, on the night of October 2, it received reports of shots fired in the area of Donald Stewart Road and Brisdale Drive in Brampton."With the assistance of the Tactical Unit, eight individuals were extracted from the residence and arrested," a press release from Peel Regional Police said on Wednesday.The police confirmed that no one suffered injuries.The incident comes amidst heightened tension between India and Canada over the killing of Khalistani extremist Hardeep Singh Nijjar on June 18 in British Columbia.A day after the incident, officers of the Criminal Investigation Bureau executed a Criminal Code Search Warrant and a 9mm Beretta firearm was seized.Those who are charged with possession of a "Loaded Prohibited or Restricted Firearm" include Jagdeep Singh (22), Ekamjot Randhawa (19), Manjinder Singh (26), Harpreet Singh (23), Ripanjot Singh (22), Japandeep Singh (22), Lovepreet Singh (26)-- all from Brampton.Meanwhile, 21-year-old Rajanpreet Singh has been charged with careless storage of a firearm, weapon, prohibited device or ammunition in addition to the possession of loaded, prohibited, or restricted firearm.All of them were held for a bail hearing and attended the Ontario Court of Justice in Brampton.Tensions flared between the two nations after Canadian Prime Minister Justin Trudeau's allegations of the "potential" involvement of Indian agents in the killing of Nijjar.India has strongly rejected the charges as "absurd" and "motivated". India has also voiced its concern over the safety of Indian diplomats and India's diplomatic premises in Canada.Edited By: Anuja JhaPublished On: Oct 6, 2023ALSO READ |  'Won't shake hands with you': Justin Trudeau confronted by man over housing crisis
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/8-sikhs-in-canada-arrested-over-firearms-related-offences-2445548-2023-10-06</t>
-  </si>
-  <si>
-    <t>How Ambedkar and Gandhi's contrasting views paved way for caste reservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The caste survey released by the Bihar government has ignited a fresh debate on the caste-politics dynamics in India. The caste system has been a subject of intense political debate and reform efforts. From the British era to the Mandal versus Kamandal politics, caste has been central to the socio-political narrative of mainland India.Two prominent figures who have significantly contributed to this discourse are Mahatma Gandhi, Father of the Nation, and Bhimrao Ramji Ambedkar, Father of the Constitution. The two stalwarts of Indian politics, while revered equally by the public, had contrasting views on the caste system. Their subsequent debates have shaped the course of Indian society and politics.While Gandhi denounced untouchability, he did not condemn the varna system, a social hierarchy based on occupation, for most of his life. He believed in reforming the caste system through the abolition of untouchability and by giving equal status to each occupation. On the other hand, BR Ambedkar, a Dalit himself, argued that the caste system disorganised and "demoralised Hindu society, reducing it to a collection of castes". Ambedkar denounced the Vedas and scriptures, believing that the caste system and untouchability were manifestations of Hindu religious scriptures. He first articulated caste inequality in Indian society and worked for the "annihilation of caste", believing that anything built on caste would inevitably create inequality.Their clashing views were on full display when the Poona Pact was signed in 1932. Gandhi's unrelenting fast forced Ambedkar to bend and let go of his desire to have a separate electoral process for the depressed classes, Dalits in particular. And yet, despite their differences, they developed an understanding to work for the betterment of the marginalised.GANDHI'S OPPOSITION TO SEPARATE ELECTORATE FOR DALITSThe 1930s were a tumultuous time in India's history. The struggle for independence from British colonial rule was at its peak, and the Indian National Congress, led by Mahatma Gandhi, was the predominant political force. However, alongside the fight for independence, another critical issue needed addressing -— the demand for political representation and safeguards for the Dalits.BR Ambedkar, a brilliant jurist and social reformer, emerged as a prominent voice for the Dalits. He believed that a separate electoral process for Dalits was essential to ensure their political representation and protect their interests in legislative bodies. Gandhi, on the other hand, was totally opposed to the idea of a separate electoral process, fearing it would perpetuate divisions among Indians.In 1930, the British government initiated the Round Table Conferences to address the issue of representation for different religious and social groups in India. After prolonged negotiations at the second Round Table Conference, the British government, on August 15, 1932, formalised a separate electoral process -- for Muslims, Sikhs and Dalits.Under the proposed process, only members from particular communities would be eligible to vote and elect a representative to legislative assemblies.The idea of separate electorates for the Dalits was supported by Ambedkar but vehemently opposed by Gandhi. The Mahatma believed that creating a separate electorate for the depressed classes would further fragment Indian society along religious and caste lines. He also believed that the British were trying to inject "poison that is calculated to destroy Hinduism".In a letter to then British Prime Minister Ramsay McDonald on September 9, Gandhi wrote, "I should not be against even over-representation of the Depressed Classes. What I am against is their statutory separation, even in a limited form, from the Hindu fold, so long as they choose to belong to it. Do you realize that if your decision stands and the Constitution comes into being, you arrest the marvellous growth of the work of Hindu reformers, who have dedicated themselves to the uplift of their suppressed brethren in every walk of life?"To pressurise the British and the Congress into abandoning the idea of separate electorates, Gandhi, who was then lodged in Yerwada Central Jail in Pune on sedition charges, started a fast unto death on September 20, 1932.GANDHI'S FAST UNTO DEATHAmbedkar was miffed by Gandhi's fast. He was unwilling to "sacrifice a rightful demand" for Gandhi's sake, especially when no alternative proposal was presented at the Round Table.However, pressure soon began mounting on Ambedkar. Newspapers ran daily bulletins on Gandhi's deteriorating health and Congressmen flocked to Ambedkar to agree to Gandhi's demands.A committee, representing upper castes and including Sir Tejbahadur Sapru, barrister MR Jayakar, Pandit Madan Mohan Malviya, Mathuradas Wasanji, was formed to have negotiations with Ambedkar on Gandhi's behalf. In the meeting, Chunnilal put forward the following views on behalf of Mahatma Gandhi before the committee members. As per Chunnilal, Mahatma Gandhi was not only opposed to the awarding of separate electorates for the Dalits, he was also not fully agreeable to reserving seats. In response, Ambedkar stood defiant and said, "Today in the negotiations in this difficult situation, I am in more strange position than all others. Unfortunately, in these peaceful negotiations, I appear to be acting as villain for the protection of just demands of my people. I am willing to suffer to any extent in order to get fulfilled the just demands of my people."He further said, "I tell you I shall not deter from my pious duty, and betray the just and legitimate interests of my people even if you hang me on the nearest lamp-post in the street..." GANDHI'S SON APPEALS, AMBEDKAR RELENTSThe pressure on Ambedkar was immense. Major newspapers were backing Gandhi, and Ambedkar received several death threats too. The situation reached a critical point when Devadas Gandhi, Mahatma Gandhi's son, burst into the negotiations, saying, “Father is sinking". Devadas Gandhi pleaded before Ambedkar with tears in his eyes. Eventually, Ambedkar relented after his friend and Tamil leader, MC Rajah, pointed out that Dalits would face insurmountable prejudice if they were seen as not having come to a compromise for Gandhi’s life.As per Volume 9 of Dr Babasaheb Ambedkar Writings and Speeches, the Dalit leader admitted that it was a "baffling situation" for him."I had to make a choice between two different alternatives. There was before me the duty, which I owed as a part of common humanity, to save Gandhi from sure death. There was before me the problem of saving for the Untouchables the political rights which the Prime Minister had given them. I responded to the call of humanity and saved the life of Mr Gandhi by agreeing to alter the Communal Award in a manner satisfactory to Mr Gandhi," Ambedkar said. The Poona Pact was finally signed at 5 pm on September 24 by 23 people. Madan Mohan Malaviya signed it on behalf of Hindus and Gandhi, and Ambedkar on behalf of the depressed classes. Instead of separate electorates, the pact introduced the concept of reserved seats for the Dalits in provincial and central legislative bodies. These reserved seats were to be filled through a joint electorate system, where all communities would vote together.The Poona Pact also stipulated that in constituencies reserved for Dalits, only Dalit candidates could contest. However, in other general constituencies, Dalit voters could choose to vote for candidates of their choice from any community.AMBEDKAR'S PERSPECTIVE ON GANDHI AFTER POONA PACTAfter signing the Poona Pact, Ambedkar had mixed feelings about Gandhi. He recognised that the pact did provide some political representation for Dalits, albeit not to the extent he initially demanded with separate electorates. Ambedkar acknowledged that Gandhi's fast had created immense pressure and had forced the issue to a resolution.However, Ambedkar also criticised Gandhi for his uncompromising stance against separate electorates, which he believed would have been a more effective way to secure political rights for Dalits. He felt that the Poona Pact did not go far enough in addressing the social and economic injustices faced by the Dalits and was a compromise driven by political expediency.However, the Poona Pact marked a crucial turning point in Indian politics by rejecting separate electorates and introducing the concept of reserved seats, ensuring political representation for marginalized communities, particularly Dalits. This agreement laid the foundation for the development of India's reservation system, which has since been expanded to include various communities to promote social justice and equality.The principles of the Poona Pact were later enshrined in the Government of India Act, 1935, and the Indian Constitution, which was adopted in 1950. Article 46 of the Constitution calls for the promotion of the educational and economic interests of Scheduled Castes, Scheduled Tribes, and other weaker sections.UNDERSTANDING AMID DIFFERENCESShortly after the signing of the Poona Pact, Ambedkar visited Gandhi on October 17, 1932, and urged him to end his civil disobedience and join the Round Table Conference.The discourse, though, again turned towards caste as Ambedkar laid bare the struggles Dalits had to face on a daily basis. Ambedkar told Gandhi about his own struggles."You may not know what even I have to face. I do not get any other place to live in Bombay except the Port Trust chawl. In my village, I have to stay in the midst of the Mahars. In Poona, all others stay with their friends. I have to stay at the National Hotel and have to spend Rs 7 and transport fare," Ambedkar told Gandhi.Gandhi at once stood up with Ambedkar. "I am at one with you. You ought to know that my fast has not ended yet, it is still on. To correct the agreement was a minor thing. The main thing still remains to be done. I am ready to give my life for it. All the injustices you mention ought to end," Gandhi told Ambedkar.Despite their contrasting views on the caste system, both Gandhi and Ambedkar valued each other. Both leaders were united in their commitment to social justice and equality, and this left an indelible mark on Indian society and its electoral process.Edited By: Rishabh SharmaPublished On: Oct 6, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>history-of-it</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/history-of-it/story/ambedkar-gandhi-caste-system-poona-pact-1932-reservation-2445208-2023-10-06</t>
-  </si>
-  <si>
-    <t>Indian-origin couple, 2 children found dead in New Jersey home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Indian-origin couple and their two children were found dead in their home in the US state of New Jersey and police are investigating the matter as a homicide.
-Tej Pratap Singh, 43, and Sonal Parihar, 42, were found dead alongside their 10-year-old son and 6-year-old in their Plainsboro home sometime after 4.30 pm on Wednesday, the Plainsboro Police Department said.
-Middlesex County Prosecutor Yolanda Ciccone and Chief Eamon Blanchard of the Plainsboro Police Department announced on Thursday that a homicide is currently under investigation.
-On the evening of October 4, authorities received a 911 call requesting a welfare check at a residence in Plainsboro. Upon their arrival, Plainsboro Police Department discovered four deceased victims in the house," they said in a joint statement.
-"This tragedy remains under investigation and autopsies are being performed today," they said, adding an initial investigation determined that there is no threat to the public.
-Anyone with information or surveillance footage of the area is asked to call the Plainsboro Police Department.
-A joint message from Mayor Peter Cantu and Chief Eamon Blanchard, Director of Public Safety, said that the Plainsboro community experienced a heartbreaking loss of life.
-"We are all saddened by this tragic event. What happened in our community is beyond comprehension," stated Mayor Peter Cantu.
-Plainsboro police officers are currently working with their law enforcement colleagues to conclude the investigation.
-"Please be assured that this is an isolated occurrence and there are no additional concerns for the safety and well-being of the community related to this incident," Blanchard said.
-"Our public safety personnel remain vigilant and resilient, and will continue to ensure the safety of the Plainsboro community," the joint statement said.
-As of Thursday morning, the family’s home on Titus Lane still had crime scene tape posted around the lawn, footage from News 12 New Jersey showed.
-The family’s remains were discovered when a relative called for a welfare check. At the time, police said they were looking into the tragedy as a possible murder-suicide, the outlet said.
-Relatives told CBS News that they were shocked by the family’s deaths, and noted that Singh and Parihar appeared to be a happy couple.
-Singh, in particular, was active in the community.
-At the time of his death, Singh worked as a Lead APIX Engineer for Ness Digital Engineering, according to his LinkedIn profile.
-Both Singh and Parihar had careers in IT, including the Human Resources sector, relatives said.
-The couple’s children were remembered in a note from the school district to parents, News 12 New Jersey reported.
-“The district was informed by local law enforcement of a horrific tragedy involving one of our Plainsboro families with a Wicoff student and a Millstone River School student,” Superintendent David Aderhold wrote, referring to two of the area elementary schools.
-“As the law enforcement investigation is ongoing, we are unable to provide any additional information at this time. The District joins our community in grief and sorrow over this tragic event.”
-Singh and Parihar purchased their home in August 2018 for USD 635,000, records showed.
-Neighbours described the family as friendly and said they could often be seen walking around the quiet street.
-A neighbour who asked not to be named said she had been friendly with the family for more than a decade.
-The woman said her daughter usually met the 6-year-old girl at the bus stop to ride to school together every morning. Hours before the family was found, the girl didn’t show up.
-“It was weird for me to not see her in the morning,” said the neighbour. “They were such a sweet family.”
-The neighbour said she texted Parihar later that morning but never received a reply.Edited By: Ashmita SahaPublished On: Oct 6, 2023READ  |  Indian-American dentist pleads guilty to stealing $500,000 in Covid relief money
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/indians-abroad/story/indian-origin-couple-2-children-found-dead-inside-new-jersey-home-2445518-2023-10-06</t>
-  </si>
-  <si>
-    <t>Nobel Peace Prize awarded to Iranian human rights activist Narges Mohammadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jailed Iranian human rights activist Narges Mohammadi has been awarded the Nobel Peace Prize for 2023 for her "fight against the oppression of women" in her country and for "promoting human rights and freedom for all".According to the Nobel Prize Committee, Narges Mohammadi's struggle has come at tremendous personal costs. She has been "arrested 13 times, convicted five times, and sentenced to a total of 31 years in prison and 154 lashes".The Iranian human rights activist is serving multiple sentences in Evin Prison in Tehran, according to Front Line Defenders rights organisation, according to news agency Reuters.Narges Mohammadi also faces charges of "spreading propaganda" against the Iranian regime.She is the deputy head of the Defenders of Human Rights Centre, a non-governmental organisation led by Shirin Ebadi, the 2003 Nobel Peace Prize laureate, Reuters reported.She is the deputy head of the Defenders of Human Rights Centre, a non-governmental organisation led by Shirin Ebadi, the 2003 Nobel Peace Prize laureate, Reuters reported.Narges Mohammadi's activism dates back to the 1990s when, as a physics student, she began advocating for equality and women’s rights. She has consistently opposed "systematic discrimination and oppression", the Nobel committee said.She has supported the "struggle for the right to live full and dignified lives", a cause that has often been met with "persecution, imprisonment, torture and even death" in Iran.Her advocacy extends to "freedom of expression and the right of independence", challenging rules that suppress women's rights and freedoms, the committee stated.From within the Evin Prison in Tehran, Narges Mohammadi supported last year's protesters in the wake of Kurdish woman Mahsa Amini's death last year and organised solidarity actions.Even under strict prison conditions, she managed to communicate with the outside world, with The New York Times publishing her article on the anniversary of Mahsa Amini’s death. "The more of us they lock up, the stronger we become," was the headline of her article in The New York Times.Edited By: Shreyasi JhaPublished On: Oct 6, 2023ALSO READ |  Iran briefly detains Mahsa Amini's father, warns him against marking her deathALSO READ |  Iranian girl in critical condition after alleged assault over hijab by authorities
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/nobel-peace-prize-awarded-to-iranian-human-rights-activist-narges-mohammadi-2445436-2023-10-06</t>
-  </si>
-  <si>
-    <t>How Bihar caste survey could be Nitish Kumar’s last roll of the dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagine a politician who is a chief minister with just 43 MLAs in an assembly of 243 seats. He has a constant threat of being unseated, his MLAs drifting away, and is walking the tightrope of coalition politics. That politician is Bihar Chief Minister Nitish Kumar.Nitish Kumar, however, played the game very well. So much so that in the ever-evolving scene of Bihar politics, he has been a constant since 2005. Whatever the strength of his party, he has been the Chief Minister for the last 18 years.  Adding to the complexity is that Nitish is a Kurmi, a caste that accounts for just 2.87 per cent of Bihar’s population. This, too, in a state where the caste factor mostly trumps everything else in politics. So, how has Nitish not only survived all this while and been at the helm for 18 years? And what has the latest caste survey got to do with his politics?Nitish Kumar, a product of the JP Movement, is a master strategist. And the caste survey is being seen as both as his last stand and a masterstroke at saving his coalition government, which has the Rashtriya Janata Dal (RJD) with 75 seats against his JD(U)'s 43.With the caste survey, Nitish is not only firming up his hold on his party and containing the RJD, he is also reasserting his role in national politics, say political observers. And this is how he is doing it. CASTE CENSUS A WAY TO CONTAIN RJD Apart from the JD(U), Nitish's grand alliance government consists of the RJD, the Congress and a bunch of Left parties. Nitish joined hands with the state's opposition bloc in 2022 after fighting the 2020 assembly election in alliance with the BJP. The RJD, in fact, is the single-largest party in the Bihar assembly.RJD chief Lalu Prasad, another product of the JP Movement, was Nitish Kumar’s bªte noire. It was to defeat Lalu Prasad that Nitish first joined hands with the BJP.That and a fast-growing Tejashwi Yadav always keep Nitish on the edge. He always had the fear that the rug might be pulled from under his feet. It won’t be very difficult for the RJD to split the JD(U) going by the two-thirds defection rule, say experts. Even the Speaker in the Bihar assembly is from the RJD. There is a buzz that his aide and JD(U) president Lalan Singh is cosying up to the RJD. There is bickering within his party.But with the caste survey, Nitish has flexed his muscles and reasserted that he is not just a leader of Kurmis (who form 2.87 per cent of the population) but also of the extremely backward classes (EBCs), a bloc of castes he has been nurturing since becoming the chief minister first in 2005. The EBCs, going by the latest caste survey, form 36 per cent of Bihar’s population, the largest category in the state. 
-advertisementThe latest caste survey has put a number to the EBCs and highlighted them as a separate entity from the other backward classes (OBCs). The EBCs are at the lower end of the other backward classes (OBCs) spectrum, dominated by the Yadavs and the Kurmis. The Yadavs, the political constituency of Lalu Prasad and Tejashwi Yadav, form 14 per cent of Bihar’s population. The RJD has depended on the Yadav-Muslim combine, but here, too, Nitish is trying to make a dent with his caste survey.NITISH'S ATTEMPT TO WOO MUSLIMS“By categorising Muslims in EBCs and putting a number to them, Nitish Kumar is playing Muslim politics prominently. He is trying to attract a section of the Pasmanda (backward) Muslim voters,” Santosh Singh, a Bihar politics expert and senior journalist with The Indian Express. Singh tells IndiaToday.In this is the exact reason why Nitish cultivated Ali Anwar Ansari, a leader of Pasmanda Muslims. advertisementThis might effectively slice up the RJD’s important Muslim voter base.
-With this caste survey, Nitish is expecting that he will be consolidating his position among the politically important EBCs. The EBCs have been crucial to Nitish Kumar being in power and he has nurtured this vote base with welfare schemes since 2005.Santosh Singh calls the caste survey Nitish’s “masterstroke” and believes that if the RJD, if it were working on any plan to split the JD(U), will now have to stop in its tracks.“With assembly elections some time away, the RJD would like to become a stakeholder in national politics. So, it will look to be with Nitish Kumar and the Congress at least till the 2024 general election,” says Singh.With the RJD distancing itself from the probable rebels, bickering within the JD(U) too would fall silent for now.“With the caste census and the report, Nitish has quashed the internal bickering within the JD(U) and the upper hand that the RJD had,” says Santosh Singh.Nitish has been plagued by desertions. In February, Upendra Kushwaha left the JD(U) and formed his party, the Rashtriya Lok Janata Dal, after differences with Nitish Kumar over his alliance with the RJD. In August 2022, RCP Singh, once considered Bihar's shadow chief minister and very close to Nisitsh Kumar, quit the party. advertisementNitish also saw allies like Jitan Ram Manjhi of the Hindustan Awam Morcha (HAM) desert him. The HAM leader is a Manjhi, one of the castes in EBC. Though Tamil Nadu, Karnataka and even the Centre conducted caste surveys, none ever came out with the results. Bihar was the first state to have declared the result of its caste survey on October 2.But all that could be well behind him. IS NITISH BACK IN NATIONAL POLITICS? Squeezed into a corner in state politics, Nitish was being sidelined on the national stage too. And the caste census might have given him a foot-in-the-door moment in national politics.It is an open secret that Nitish has nurtured prime ministerial dream but has never been explicit about it. One of the first movers of opposition unity, Nitish was sidelined by the Congress in the INDIA grouping.“Nitish Kumar wasn't made the convenor of INDIA bloc. This is his bid to gain national importance with a national issue. This is his masterstroke,” Santosh Singh tells IndiaToday.In. Singh says this will make the Congress sit up and think about what position to offer to Nitish in the INDIA grouping.  “He has also put BJP on the back foot by blunting its Hindutva politics for now. The BJP has to take the EBC-OBC issue more seriously,” says Singh.  The number of seats and the huge margins by which the BJP won seats in the 2019 Lok Sabha election was a wake-up call for Nitish Kumar, feels Santosh Singh. The caste census is his bid at attracting the EBCs back. “Nitish is rebooting his EBC politics after the 2019 loss,” says Singh.The BJP highlighted PM Narendra Modi as an OBC icon, among other issues of welfare politics and nationalism and Hindutva, to secure OBC votes. The Congress, too, has realised that this is the best way by which it can dent the BJP's vote share and, therefore, latching on to the OBC representation issue since the Bihar caste survey results.So, for now, Nitish Kumar has killed not one but at least three birds — internal party issues, RJD threat and his national obsolescence — with one stone. But with the caste survey results, Nitish has also opened a Pandora's box. Will the dice roll in his favour? That’s for time to tell.Edited By: Yudhajit Published On: Oct 6, 2023Must Watch 
-The latest caste survey has put a number to the EBCs and highlighted them as a separate entity from the other backward classes (OBCs). The EBCs are at the lower end of the other backward classes (OBCs) spectrum, dominated by the Yadavs and the Kurmis. The Yadavs, the political constituency of Lalu Prasad and Tejashwi Yadav, form 14 per cent of Bihar’s population. The RJD has depended on the Yadav-Muslim combine, but here, too, Nitish is trying to make a dent with his caste survey.NITISH'S ATTEMPT TO WOO MUSLIMS“By categorising Muslims in EBCs and putting a number to them, Nitish Kumar is playing Muslim politics prominently. He is trying to attract a section of the Pasmanda (backward) Muslim voters,” Santosh Singh, a Bihar politics expert and senior journalist with The Indian Express. Singh tells IndiaToday.In this is the exact reason why Nitish cultivated Ali Anwar Ansari, a leader of Pasmanda Muslims. This might effectively slice up the RJD’s important Muslim voter base.
-With this caste survey, Nitish is expecting that he will be consolidating his position among the politically important EBCs. The EBCs have been crucial to Nitish Kumar being in power and he has nurtured this vote base with welfare schemes since 2005.Santosh Singh calls the caste survey Nitish’s “masterstroke” and believes that if the RJD, if it were working on any plan to split the JD(U), will now have to stop in its tracks.“With assembly elections some time away, the RJD would like to become a stakeholder in national politics. So, it will look to be with Nitish Kumar and the Congress at least till the 2024 general election,” says Singh.With the RJD distancing itself from the probable rebels, bickering within the JD(U) too would fall silent for now.“With the caste census and the report, Nitish has quashed the internal bickering within the JD(U) and the upper hand that the RJD had,” says Santosh Singh.Nitish has been plagued by desertions. In February, Upendra Kushwaha left the JD(U) and formed his party, the Rashtriya Lok Janata Dal, after differences with Nitish Kumar over his alliance with the RJD. In August 2022, RCP Singh, once considered Bihar's shadow chief minister and very close to Nisitsh Kumar, quit the party. Nitish also saw allies like Jitan Ram Manjhi of the Hindustan Awam Morcha (HAM) desert him. The HAM leader is a Manjhi, one of the castes in EBC. Though Tamil Nadu, Karnataka and even the Centre conducted caste surveys, none ever came out with the results. Bihar was the first state to have declared the result of its caste survey on October 2.But all that could be well behind him. IS NITISH BACK IN NATIONAL POLITICS? Squeezed into a corner in state politics, Nitish was being sidelined on the national stage too. And the caste census might have given him a foot-in-the-door moment in national politics.It is an open secret that Nitish has nurtured prime ministerial dream but has never been explicit about it. One of the first movers of opposition unity, Nitish was sidelined by the Congress in the INDIA grouping.“Nitish Kumar wasn't made the convenor of INDIA bloc. This is his bid to gain national importance with a national issue. This is his masterstroke,” Santosh Singh tells IndiaToday.In. Singh says this will make the Congress sit up and think about what position to offer to Nitish in the INDIA grouping.  “He has also put BJP on the back foot by blunting its Hindutva politics for now. The BJP has to take the EBC-OBC issue more seriously,” says Singh.  The number of seats and the huge margins by which the BJP won seats in the 2019 Lok Sabha election was a wake-up call for Nitish Kumar, feels Santosh Singh. The caste census is his bid at attracting the EBCs back. “Nitish is rebooting his EBC politics after the 2019 loss,” says Singh.The BJP highlighted PM Narendra Modi as an OBC icon, among other issues of welfare politics and nationalism and Hindutva, to secure OBC votes. The Congress, too, has realised that this is the best way by which it can dent the BJP's vote share and, therefore, latching on to the OBC representation issue since the Bihar caste survey results.So, for now, Nitish Kumar has killed not one but at least three birds — internal party issues, RJD threat and his national obsolescence — with one stone. But with the caste survey results, Nitish has also opened a Pandora's box. Will the dice roll in his favour? That’s for time to tell.Edited By: Yudhajit Published On: Oct 6, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/nitish-kumar-bihar-caste-survey-rjd-bjp-mandal-politics-pm-modi-tejashwi-yadav-kurmis-ebc-muslims-2445047-2023-10-06</t>
-  </si>
-  <si>
-    <t>Sikkim flash floods: Explained in graphics how catastrophe unfolded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The devastating flash floods in Sikkim following a sudden glacial lake burst on Wednesday has claimed several lives, causing widespread damage as roads, bridges, and homes were washed away. The Teesta River took a furious form, and part of the state's biggest hydropower project, Sikkim Urja, was washed away, exacerbating the situation.Rescue operations remain a major challenge due to mudslides, washed-out roads, and damage to communication systems.advertisementWHAT LED TO THE FLASH FLOODThe disaster unfolded with a cloudburst over Lhonak Lake in northwest Sikkim early on Wednesday, after 12 am.The disaster unfolded with a cloudburst over Lhonak Lake in northwest Sikkim early on Wednesday, after 12 am.The cloudburst was so heavy that it led to a sudden rise in water levels, quickly taking the lake beyond its holding capacity. The area received at least five times the usual amount of rain.The cloudburst, coupled with the melting of the Lhonak Glacier, resulted in the Glacier Lake outburst flood (GLOF), a sudden release of a massive amount of water.  Lhonak Lake, located in Sikkim's far northwestern region at an altitude of 17,100 feet, was formed due to the melting of the Himalayan glaciers.  
- Video: South Lhonak Lake | Credit: Google Earth
-A warning was sounded by the authorities as the water level went up. However, around 1 am, the Teesta Stage 3 dam, known as the Urja project, got washed away in the flash flood, subverting all plans for a proper evacuation of people near the river.Urja dam before and after the flood. (Photo: IndiaToday)
-The Urja dam, located 5,000 feet above sea level at Chungthang, and a 200-meter-long bridge connecting the powerhouse were washed away. The entire powerhouse got submerged in the floods. Expert assessments revealed that the water level in the Teesta was below the danger mark before the dam burst.The downstream of Teesta after the dam saw massive destruction. Several houses and buildings were damaged, roads washed away, and at least 11 bridges collapsed. Areas like Mangan, Dikchu, Singtam, Rangpo,  Chungthang, and Bardang were hit hard. 
-Areas affected | Photo: Rahul Gupta/India TodaySatellite images of the glacial lake showed that nearly 65 per cent of its water gushed into the Teesta River.WHY THE LAKE BREACHEDThe primary trigger was the cloudburst, during which more than 10 centimetres of rainfall occurrs within 10 square kilometres within an hour.Along with that, scientists also point out the possibility of an avalanche. The banks of the lake probably burst after chunks of ice fell into the water, creating a powerful wake in the water.Highlighting the ice patches floating on the lake surface, as shown in satellite images, Jakob F Steiner, a senior scientist said, “It could be that a chunk of either ice or unstable slopes has detached and dropped into the lake water.” This can create shock waves across the water surface that would be enough to topple the lake's dam, he said. 
-Area of the South Lhonak lake before and after the bust. (Photo: Isro)
-WARNINGS IGNOREDadvertisementThe flash flood due to the glacial lake burst is deemed dangerous unlike those triggered by excessive rainfall. The powerful and enormous volume of water, all at once, carries debris and large particles downstream, causing severe damage. The speed of the water discharge due to the glacier lake burst can go up to 90–95 kilometres per hour.Notably, Lhonak Lake was one of the fastest-expanding lakes in the Sikkim Himalaya region. Several studies have pointed out the rapidly growing nature of the lake due to the melting of the adjacent North Lhonak and main Lhonak glaciers.Receding glaciers and the expansion of proglacial lakes, namely North and South Lhonak Lake, Jongsang in Teesta Basin, and Longbasaba and Pida Lake in Koshi basin. (Photo: Ravindra Kumar/X)A study by the National Remote Sensing Centre and the Indian Space Research Organisation (Isro) in 2013 identified South Lhonak Lake, which is a moraine-dammed lake with a capacity to store a significant amount of water, as potentially dangerous with a high outburst probability.advertisementSimilar other studies also warned the same on multiple occasions, especially linked to the increase in glacier melting and avalanches due to climate change and global warming. The very nature of moraine dams is unstable, as the water is blocked by ice packs and loose rocks.Between 1962 and 2008, the Lhonak glacier receded by 2 km and by another 400 meters between 2008 and 2019. 
-WHAT HAPPENED AFTER THE LAKE BURSTNearly 65 per cent of the water from the Lhonak lake drained after the flooding. Satellite images released by the Indian Space Research Organisation (Isro) and the National Remote Sensing Centre showed that the area of South Lhonak Lake was drastically reduced to just 60.3 hectares on October 4, from 167.4 hectares on September 28.“It is observed that the lake burst, and about 105 hectares of the area has been drained out, which might have created a flash flood downstream,” noted Isro. 
-South Lhonak Lake: Before and after the burst. (Photo: Isro)advertisementConsidering the significant increase in the lake area, the state government in 2016 installed high-density pipes to drain the water.A camera to monitor Lhonak Lake's level and weather instruments were installed last month. According to scientists quoted by Reuters, a fully operational warning system could have given people more time to evacuate.Lhonak Lake is not an isolated lake. According to recent research, more than 200 such lakes now pose a very high hazard to Himalayan communities in India and neighbouring countries.Graphics source: Google Earth/Google MapsInteractives by Rahul Gupta, India TodayEdited By: Ajmal Published On: Oct 6, 2023Must Watch 
-The Urja dam, located 5,000 feet above sea level at Chungthang, and a 200-meter-long bridge connecting the powerhouse were washed away. The entire powerhouse got submerged in the floods. Expert assessments revealed that the water level in the Teesta was below the danger mark before the dam burst.The downstream of Teesta after the dam saw massive destruction. Several houses and buildings were damaged, roads washed away, and at least 11 bridges collapsed. Areas like Mangan, Dikchu, Singtam, Rangpo,  Chungthang, and Bardang were hit hard. 
-Areas affected | Photo: Rahul Gupta/India TodaySatellite images of the glacial lake showed that nearly 65 per cent of its water gushed into the Teesta River.WHY THE LAKE BREACHEDThe primary trigger was the cloudburst, during which more than 10 centimetres of rainfall occurrs within 10 square kilometres within an hour.Along with that, scientists also point out the possibility of an avalanche. The banks of the lake probably burst after chunks of ice fell into the water, creating a powerful wake in the water.Highlighting the ice patches floating on the lake surface, as shown in satellite images, Jakob F Steiner, a senior scientist said, “It could be that a chunk of either ice or unstable slopes has detached and dropped into the lake water.” This can create shock waves across the water surface that would be enough to topple the lake's dam, he said. 
-Area of the South Lhonak lake before and after the bust. (Photo: Isro)
-WARNINGS IGNOREDThe flash flood due to the glacial lake burst is deemed dangerous unlike those triggered by excessive rainfall. The powerful and enormous volume of water, all at once, carries debris and large particles downstream, causing severe damage. The speed of the water discharge due to the glacier lake burst can go up to 90–95 kilometres per hour.Notably, Lhonak Lake was one of the fastest-expanding lakes in the Sikkim Himalaya region. Several studies have pointed out the rapidly growing nature of the lake due to the melting of the adjacent North Lhonak and main Lhonak glaciers.Receding glaciers and the expansion of proglacial lakes, namely North and South Lhonak Lake, Jongsang in Teesta Basin, and Longbasaba and Pida Lake in Koshi basin. (Photo: Ravindra Kumar/X)A study by the National Remote Sensing Centre and the Indian Space Research Organisation (Isro) in 2013 identified South Lhonak Lake, which is a moraine-dammed lake with a capacity to store a significant amount of water, as potentially dangerous with a high outburst probability.Similar other studies also warned the same on multiple occasions, especially linked to the increase in glacier melting and avalanches due to climate change and global warming. The very nature of moraine dams is unstable, as the water is blocked by ice packs and loose rocks.Between 1962 and 2008, the Lhonak glacier receded by 2 km and by another 400 meters between 2008 and 2019. 
-WHAT HAPPENED AFTER THE LAKE BURSTNearly 65 per cent of the water from the Lhonak lake drained after the flooding. Satellite images released by the Indian Space Research Organisation (Isro) and the National Remote Sensing Centre showed that the area of South Lhonak Lake was drastically reduced to just 60.3 hectares on October 4, from 167.4 hectares on September 28.“It is observed that the lake burst, and about 105 hectares of the area has been drained out, which might have created a flash flood downstream,” noted Isro. 
-South Lhonak Lake: Before and after the burst. (Photo: Isro)Considering the significant increase in the lake area, the state government in 2016 installed high-density pipes to drain the water.A camera to monitor Lhonak Lake's level and weather instruments were installed last month. According to scientists quoted by Reuters, a fully operational warning system could have given people more time to evacuate.Lhonak Lake is not an isolated lake. According to recent research, more than 200 such lakes now pose a very high hazard to Himalayan communities in India and neighbouring countries.Graphics source: Google Earth/Google MapsInteractives by Rahul Gupta, India TodayEdited By: Ajmal Published On: Oct 6, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/sikkim-flash-flood-lake-burst-avalanche-cloudburst-teesta-river-reason-earthquake-isro-satellite-images-2445278-2023-10-06</t>
-  </si>
-  <si>
-    <t>Viral video: Student's slipper attack stuns in Physics Wallah live class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bizarre incident unfolded during a live class on the Physics Wallah app, where a student assaulted a teacher by hitting him with a slipper. The incident, captured in a viral video, has raised concerns and sparked discussions across social media platforms.In the video, a teacher can be seen conducting a live class when, suddenly, a student approaches him with a slipper in hand and strikes the teacher. The teacher instinctively ducks to avoid the blow as the student continues his attack. Eventually, the student retrieves his slipper and leaves the scene.The motive behind this assault remains unclear, and the video has been circulating on social media since the incident occurred.Take a look at the clip:
-Physics Wallah was founded in 2016 by Alakh Pandey, an educator from Allahabad, Uttar Pradesh. Together with co-founder Prateek Maheshwari, Pandey developed the Physics Wallah app, specifically designed to assist students preparing for competitive exams such as the National Eligibility cum Entrance Test (NEET) and the Joint Entrance Exam (JEE).While the app has gained popularity for its educational content and support, this disturbing incident serves as a reminder of the challenges faced by educators in the digital age.Edited By: Srimoyee ChowdhuryPublished On: Oct 6, 2023Also Read |  Backpackers escape unhurt after e-bike explosion in Sydney hostelTrending Reel 
-</t>
-  </si>
-  <si>
-    <t>trending-news</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/trending-news/story/viral-video-students-slipper-attack-stuns-in-physics-wallah-live-class-2445265-2023-10-06</t>
-  </si>
-  <si>
-    <t>'Will pump 39 more bullets,' 2 Agra students brag after shooting at teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two minor students shot at their teacher in Uttar Pradesh’s Agra on Wednesday over a dispute with the teacher’s brother. The students fled the scene after the attack, but recorded a 25-second video where they threatened to "put 39 more bullets into the teacher".Both the students, who would take coaching classes from the victim identified as Sumit, called him outside the class and fired at him with a pistol, police said. The teacher sustained an injury to his left leg.The students ran away on a motorcycle after shooting the teacher, but stopped midway to record a threat video.In the video, one of the two students can be heard saying that he wants to put a total of 40 bullets into the teacher, and 39 more bullets will follow in the next six months. The video has gone viral on social media, raising concerns about the matter.Deputy Commissioner of Police (DCP) West, Sonam Kumar, said that the motive behind the attack appeared to be a dispute between the students and the elder brother of the teacher, who also attends the same coaching class. Both the accused and the victim are from Malupur village.Meanwhile, the wounded teacher was admitted to a hospital, and is currently under treatment.The Khandauli police have taken cognizance of the incident. DCP Sonam Kumar said the police have mobilized teams to arrest the accused, both underage. Further investigation into the case is underway.(With inputs from Arvind Sharma/Agra)Edited By: Aishwarya DakhorePublished On: Oct 6, 2023ALSO READ |  Massive fire at footwear godown in Agra, nearby residents evacuatedMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/crime/story/agra-teacher-shot-at-by-2-minor-students-threatened-of-39-more-bullets-2445210-2023-10-06</t>
-  </si>
-  <si>
-    <t>Disney in talks with Adani, Sun TV to sell India assets: Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disney has initiated preliminary discussions with billionaires such as Gautam Adani, owner of the Adani Group, and Kalanithi Maran, owner of Sun TV Network, as well as private equity firms regarding the potential sale of its streaming and television business in India, reported Bloomberg News.According to the report, Disney is exploring various options, including selling some of its Indian operations or a combination of assets from the unit.However, it is worth noting that these discussions are in their early stages, and there is no guarantee the a deal will be reached, added the report. It also did not provide any details regarding a potential deal value.Stiff competitionThe reports have surfaced at a time when Disney faces growing competition from Reliance Industries, specifically its streaming platform JioCinema, led by Mukesh Ambani.Ambani has been aggressively promoting his streaming service, including offering free access to the Indian Premier League cricket tournament, which Disney previously held the digital rights to.Disney's India streaming operations, which were its largest globally in terms of users last year, reported a loss of $41.5 million on revenue of $390 million for the year ending March 2022, according to the last disclosed results.In an effort to regain its footing in the Indian market, Disney has chosen to provide free cricket content on smartphones, with the expectation that this strategy will boost advertising revenue and offset the impact of subscriber attrition.Edited By: Koustav DasPublished On: Oct 6, 2023
-</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/business/story/disney-in-talks-with-adani-sun-tv-to-sell-indian-streaming-television-assets-2445478-2023-10-06</t>
-  </si>
-  <si>
-    <t>‘Thank You For Coming’ Review: Bhumi’s film excels at foreplay but misses G-spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margot Robbie’s ‘I am a Barbie girl, in my Barbie world,’ took everyone by storm this July. Borrowing notes from that, Rhea Kapoor’s ‘Thank You For Coming’ is about one such ‘Barbie,’ except she is Kanika Kapoor [Bhumi Pednekar] from Delhi and it is her world. Kanika aka ‘Kandu Kanika’ [disaster Kanika] gets her name because of all the ‘raita’ she spreads, leaving people around her to clean her mess.In her world, Kanika has two best friends, Pallavi [Dolly] and Tina [Shibani Bedi], and a single mother and grandmother. She has always been an outcast in her school and sometimes bullied for being born out of wedlock. The taunts never got easier and Kanika grew up depending on men to find happiness. She did not want to precede the actions of her mother, and was okay getting hitched to anyone to get the stamp of marriage. But, as she approached her 30s, her biggest regret was not having an orgasm. Until she has one during her engagement party! However, the only problem is Kanika doesn’t remember who was behind the act.   The entire film of 2 hours is about finding the person who could finally give her that euphoric experience. Director Karan Boolani takes inspiration from several stand-ups on female sexuality to weave a sex comedy, about women, starring an army of women themselves. But, despite its honest attempt, the film seems sluggish. It doesn’t move beyond ‘orgasm’ or Kanika. Everyone around her is reduced to just being her sidekicks who appear when needed and then disappear. It truly is her world. It would have been easy to buy this narrative, if the film was not promoted as one celebrating female friendships. At some point, finding the story in the movie became as difficult as men trying to find the G-spot. Sure, the film’s sincerity to present a sex comedy about women is novel. Rhea Kapoor supporting alongside Anil Kapoor and Ekta Kapoor is applause worthy. It isn’t easy to support a film like this, in a society that almost negates female desires, and the film might open doors for not-so-awkward conversations about sex. But that’s the only major highlight of #ThankYouForComing. The songs except for the very fun rendition of ‘Pari Hoon Main’ by Sushant Divgikar aka Rani are average. The real find in performances has to be Shibani Bedi, who is stellar as a single mother. While the story really doesn’t give her a defining character arc, she manages to leave an impression. Dolly is decent as well. She plays herself in most parts. Shehnaaz Gill is a star. She appears in a maximum of 4 scenes throughout the film, but she serves and how! Kusha is wasted with merely 3 scenes, which doesn’t use her potential to the fullest. All of these women and their characters could have made the film more interesting if they were not reduced to being just sidekicks.  Another star performance is Sushant, who debuts as a musician and an actor in the film. The entire drag sequence featuring her got the biggest cheers. As for Bhumi, she played to the gallery, sometimes loud, sometimes funny. But, knowing her sheer potential as an actor, Kanika felt half-baked. We have seen better Bhumi Pednekar performances before. The few laughs we get in the film are thanks to Anil Kapoor’s fantastic cameo and Ekta Kapoor’s TV series references. But beyond that, the film was hardly even funny. It is sanitised to a point where perhaps they made it ‘too-family-friendly’.The film’s one-line sale pitch of ‘the key to finding your ‘happiness’ is in your ‘own hands,’ both figuratively and literally, perhaps could have been dealt with in a better way. Better luck next time! Till then, ‘Thank You For Coming’ hits theatres. 
-Edited By: bhavna agarwalPublished On: Oct 6, 2023ALSO READ |  Bhumi Pednekar on doing 'Thank You For Coming': Tired of men headlining sex comediesMust Watch 
-</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/movies/reviews/story/thank-you-for-coming-review-bhumis-film-excels-at-foreplay-but-falls-short-of-hitting-the-g-spot-2445274-2023-10-06</t>
-  </si>
-  <si>
-    <t>Sikkim flash flood: Disaster relief team fails to land, death toll rises to 30 | 10 points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 30 people, including four Army personnel, died and over 100 remained missing following a cloudburst over Lhonak Lake in north Sikkim district that triggered flash floods in the region earlier this week. The flash flood led to the swelling of the river Teesta, sweeping away several houses in towns and villages and dozens of people, including Army personnel.An National Disaster Response Force (NDRF) team was not able to land in Chungthang, one of the worst-hit places in north Sikkim due to inclement weather. The team was carrying communication equipment as the town is cut off from the rest of the state.Teams of the Indian Army and the NDRF Army were working their way through slushy earth and fast-flowing water in the Teesta river basin and downstream north Bengal for the third day in search of those who were swept away and still missing, officials told PTI.The Army recovered three vehicles from the debris in the basin of the river Teesta. These vehicles were washed away by flash flood in Bardang. Army officials launched a search operation and recovered the vehicles.Here's a 10-pointer recap of what has unfolded so far:
-The flash flood in the river Teesta, triggered by the cloudburst in Lhonak Lake, caused the accumulation of a huge quantity of water, which turned towards Chungthang Dam, destroying the power infrastructure before moving downstream in spate, flooding towns and villages.
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/sikkim-flash-floods-update-dead-missing-search-operation-army-jawan-weather-forecast-2445272-2023-10-06</t>
+    <t>https://www.indiatoday.in/science/story/is-this-covid-19-cure-worse-than-the-virus-2437274-2023-09-18</t>
   </si>
 </sst>
 </file>
@@ -697,262 +652,262 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
